--- a/InformacionProcesada/2020/Insumos/Insumos_2020.xlsx
+++ b/InformacionProcesada/2020/Insumos/Insumos_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Industria-IPAC2020\InformacionProcesada\2020\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42EA26F-1BC2-4B39-AFC5-F7EDF152D657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60147C0A-E92F-4BC3-9991-A6A7D1AFBC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97CCBDFA-47DF-4496-8978-538CCE7392DC}"/>
   </bookViews>
@@ -561,10 +561,10 @@
     <t>Moneda</t>
   </si>
   <si>
-    <t>Cordoba</t>
+    <t>Lempira</t>
   </si>
   <si>
-    <t>Lempira</t>
+    <t xml:space="preserve"> Córdoba</t>
   </si>
 </sst>
 </file>
@@ -686,9 +686,9 @@
     <tableColumn id="6" xr3:uid="{41048001-154C-4228-8381-A7ABACD341AE}" uniqueName="6" name="Dia" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{52B2CA0D-402D-4941-ABF4-CCC2CD6454F9}" uniqueName="7" name="No" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{3ADB3F95-BB94-432C-ADAD-08FE6F07D345}" uniqueName="8" name="Producto" queryTableFieldId="8" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{1572B994-C8F0-4131-BAA8-1938C35C2AFE}" uniqueName="13" name="Origen" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{1572B994-C8F0-4131-BAA8-1938C35C2AFE}" uniqueName="13" name="Origen" queryTableFieldId="13" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{FB1D72D0-6CE2-4FED-A8EE-37204F23B4E0}" uniqueName="12" name="Tamaño" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{7BE7FA5D-9C46-4481-9C01-5A4A46D2D33A}" uniqueName="9" name="Unidad de Venta" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{7BE7FA5D-9C46-4481-9C01-5A4A46D2D33A}" uniqueName="9" name="Unidad de Venta" queryTableFieldId="9" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{A8F71521-B23A-48D5-ACBD-546C28AC596F}" uniqueName="14" name="Moneda" queryTableFieldId="14" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{DCA15FC9-C66B-4C21-9469-54A272EE6951}" uniqueName="10" name="Precio Bajo" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{F1C93ACA-F420-4EE9-80E2-70840EAC8AD6}" uniqueName="11" name="Precio Alto" queryTableFieldId="11"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE36692-04B2-45FF-8FC1-A9146EE064CD}">
   <dimension ref="A1:N909"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K139" sqref="K139"/>
+    <sheetView tabSelected="1" topLeftCell="A851" workbookViewId="0">
+      <selection activeCell="L854" sqref="L854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M2">
         <v>755</v>
@@ -1131,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M3">
         <v>620</v>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M4">
         <v>518</v>
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M5">
         <v>520</v>
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M6">
         <v>950</v>
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M7">
         <v>995</v>
@@ -1331,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M8">
         <v>820</v>
@@ -1371,7 +1371,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M9">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M10">
         <v>1050</v>
@@ -1451,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M11">
         <v>880</v>
@@ -1491,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M12">
         <v>600</v>
@@ -1531,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13">
         <v>920</v>
@@ -1571,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14">
         <v>240</v>
@@ -1611,7 +1611,7 @@
         <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15">
         <v>198</v>
@@ -1651,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16">
         <v>490</v>
@@ -1691,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M17">
         <v>485</v>
@@ -1731,7 +1731,7 @@
         <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M18">
         <v>620</v>
@@ -1771,7 +1771,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M19">
         <v>550</v>
@@ -1811,7 +1811,7 @@
         <v>29</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M20">
         <v>680</v>
@@ -1851,7 +1851,7 @@
         <v>31</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M21">
         <v>400</v>
@@ -1891,7 +1891,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M22">
         <v>185</v>
@@ -1931,7 +1931,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M23">
         <v>200</v>
@@ -1971,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24">
         <v>220</v>
@@ -2011,7 +2011,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25">
         <v>250</v>
@@ -2051,7 +2051,7 @@
         <v>37</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26">
         <v>350</v>
@@ -2091,7 +2091,7 @@
         <v>31</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M27">
         <v>184</v>
@@ -2131,7 +2131,7 @@
         <v>17</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M28">
         <v>185</v>
@@ -2171,7 +2171,7 @@
         <v>17</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M29">
         <v>194</v>
@@ -2211,7 +2211,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M30">
         <v>170</v>
@@ -2251,7 +2251,7 @@
         <v>17</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M31">
         <v>685</v>
@@ -2291,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M32">
         <v>400</v>
@@ -2331,7 +2331,7 @@
         <v>44</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M33">
         <v>1260</v>
@@ -2371,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M34">
         <v>755</v>
@@ -2411,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M35">
         <v>620</v>
@@ -2451,7 +2451,7 @@
         <v>6</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M36">
         <v>520</v>
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M37">
         <v>520</v>
@@ -2531,7 +2531,7 @@
         <v>6</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M38">
         <v>950</v>
@@ -2571,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M39">
         <v>995</v>
@@ -2611,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M40">
         <v>820</v>
@@ -2651,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M41">
         <v>1000</v>
@@ -2691,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M42">
         <v>1000</v>
@@ -2731,7 +2731,7 @@
         <v>17</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M43">
         <v>880</v>
@@ -2771,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M44">
         <v>600</v>
@@ -2811,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M45">
         <v>920</v>
@@ -2851,7 +2851,7 @@
         <v>17</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M46">
         <v>240</v>
@@ -2891,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M47">
         <v>200</v>
@@ -2931,7 +2931,7 @@
         <v>17</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M48">
         <v>490</v>
@@ -2971,7 +2971,7 @@
         <v>24</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M49">
         <v>490</v>
@@ -3011,7 +3011,7 @@
         <v>17</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M50">
         <v>620</v>
@@ -3051,7 +3051,7 @@
         <v>27</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M51">
         <v>550</v>
@@ -3091,7 +3091,7 @@
         <v>29</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M52">
         <v>680</v>
@@ -3131,7 +3131,7 @@
         <v>31</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M53">
         <v>400</v>
@@ -3171,7 +3171,7 @@
         <v>17</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M54">
         <v>185</v>
@@ -3211,7 +3211,7 @@
         <v>31</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M55">
         <v>200</v>
@@ -3251,7 +3251,7 @@
         <v>31</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M56">
         <v>220</v>
@@ -3291,7 +3291,7 @@
         <v>31</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M57">
         <v>250</v>
@@ -3331,7 +3331,7 @@
         <v>37</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M58">
         <v>350</v>
@@ -3371,7 +3371,7 @@
         <v>31</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M59">
         <v>185</v>
@@ -3411,7 +3411,7 @@
         <v>17</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M60">
         <v>185</v>
@@ -3451,7 +3451,7 @@
         <v>17</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M61">
         <v>194</v>
@@ -3491,7 +3491,7 @@
         <v>17</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M62">
         <v>170</v>
@@ -3531,7 +3531,7 @@
         <v>17</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M63">
         <v>685</v>
@@ -3571,7 +3571,7 @@
         <v>17</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M64">
         <v>400</v>
@@ -3611,7 +3611,7 @@
         <v>44</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M65">
         <v>1260</v>
@@ -3651,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M66">
         <v>760</v>
@@ -3691,7 +3691,7 @@
         <v>6</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M67">
         <v>630</v>
@@ -3731,7 +3731,7 @@
         <v>6</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M68">
         <v>520</v>
@@ -3771,7 +3771,7 @@
         <v>6</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M69">
         <v>520</v>
@@ -3811,7 +3811,7 @@
         <v>6</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M70">
         <v>950</v>
@@ -3851,7 +3851,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M71">
         <v>980</v>
@@ -3891,7 +3891,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M72">
         <v>820</v>
@@ -3931,7 +3931,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M73">
         <v>1000</v>
@@ -3971,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M74">
         <v>1000</v>
@@ -4011,7 +4011,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M75">
         <v>870</v>
@@ -4051,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M76">
         <v>600</v>
@@ -4091,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M77">
         <v>920</v>
@@ -4131,7 +4131,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M78">
         <v>240</v>
@@ -4171,7 +4171,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M79">
         <v>200</v>
@@ -4211,7 +4211,7 @@
         <v>17</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M80">
         <v>490</v>
@@ -4251,7 +4251,7 @@
         <v>24</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M81">
         <v>490</v>
@@ -4291,7 +4291,7 @@
         <v>17</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M82">
         <v>620</v>
@@ -4331,7 +4331,7 @@
         <v>27</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M83">
         <v>550</v>
@@ -4371,7 +4371,7 @@
         <v>29</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M84">
         <v>680</v>
@@ -4411,7 +4411,7 @@
         <v>31</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M85">
         <v>400</v>
@@ -4451,7 +4451,7 @@
         <v>17</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M86">
         <v>185</v>
@@ -4491,7 +4491,7 @@
         <v>31</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M87">
         <v>200</v>
@@ -4531,7 +4531,7 @@
         <v>31</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M88">
         <v>220</v>
@@ -4571,7 +4571,7 @@
         <v>31</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M89">
         <v>250</v>
@@ -4611,7 +4611,7 @@
         <v>37</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M90">
         <v>350</v>
@@ -4651,7 +4651,7 @@
         <v>31</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M91">
         <v>185</v>
@@ -4691,7 +4691,7 @@
         <v>17</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M92">
         <v>185</v>
@@ -4731,7 +4731,7 @@
         <v>17</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M93">
         <v>195</v>
@@ -4771,7 +4771,7 @@
         <v>17</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M94">
         <v>170</v>
@@ -4811,7 +4811,7 @@
         <v>17</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M95">
         <v>685</v>
@@ -4851,7 +4851,7 @@
         <v>17</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M96">
         <v>400</v>
@@ -4891,7 +4891,7 @@
         <v>44</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M97">
         <v>1270</v>
@@ -4931,7 +4931,7 @@
         <v>6</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M98">
         <v>760</v>
@@ -4971,7 +4971,7 @@
         <v>6</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M99">
         <v>630</v>
@@ -5011,7 +5011,7 @@
         <v>6</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M100">
         <v>520</v>
@@ -5051,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M101">
         <v>520</v>
@@ -5091,7 +5091,7 @@
         <v>6</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M102">
         <v>950</v>
@@ -5131,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M103">
         <v>980</v>
@@ -5171,7 +5171,7 @@
         <v>12</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M104">
         <v>820</v>
@@ -5211,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M105">
         <v>1000</v>
@@ -5251,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M106">
         <v>1000</v>
@@ -5291,7 +5291,7 @@
         <v>17</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M107">
         <v>870</v>
@@ -5331,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M108">
         <v>600</v>
@@ -5371,7 +5371,7 @@
         <v>12</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M109">
         <v>920</v>
@@ -5411,7 +5411,7 @@
         <v>17</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M110">
         <v>240</v>
@@ -5451,7 +5451,7 @@
         <v>17</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M111">
         <v>200</v>
@@ -5491,7 +5491,7 @@
         <v>17</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M112">
         <v>490</v>
@@ -5531,7 +5531,7 @@
         <v>24</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M113">
         <v>490</v>
@@ -5571,7 +5571,7 @@
         <v>17</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M114">
         <v>630</v>
@@ -5611,7 +5611,7 @@
         <v>27</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M115">
         <v>550</v>
@@ -5651,7 +5651,7 @@
         <v>29</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M116">
         <v>680</v>
@@ -5691,7 +5691,7 @@
         <v>31</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M117">
         <v>400</v>
@@ -5731,7 +5731,7 @@
         <v>17</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M118">
         <v>180</v>
@@ -5771,7 +5771,7 @@
         <v>31</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M119">
         <v>200</v>
@@ -5811,7 +5811,7 @@
         <v>31</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M120">
         <v>220</v>
@@ -5851,7 +5851,7 @@
         <v>31</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M121">
         <v>250</v>
@@ -5891,7 +5891,7 @@
         <v>37</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M122">
         <v>350</v>
@@ -5931,7 +5931,7 @@
         <v>31</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M123">
         <v>180</v>
@@ -5971,7 +5971,7 @@
         <v>17</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M124">
         <v>180</v>
@@ -6011,7 +6011,7 @@
         <v>17</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M125">
         <v>195</v>
@@ -6051,7 +6051,7 @@
         <v>17</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M126">
         <v>170</v>
@@ -6091,7 +6091,7 @@
         <v>17</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M127">
         <v>685</v>
@@ -6131,7 +6131,7 @@
         <v>17</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M128">
         <v>400</v>
@@ -6171,7 +6171,7 @@
         <v>44</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M129">
         <v>1270</v>
@@ -6221,7 +6221,7 @@
         <v>17</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M131">
         <v>210</v>
@@ -6261,7 +6261,7 @@
         <v>17</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M132">
         <v>200</v>
@@ -6301,7 +6301,7 @@
         <v>17</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M133">
         <v>150</v>
@@ -6341,7 +6341,7 @@
         <v>93</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M134">
         <v>520</v>
@@ -6381,7 +6381,7 @@
         <v>93</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M135">
         <v>620</v>
@@ -6421,7 +6421,7 @@
         <v>93</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M136">
         <v>600</v>
@@ -6461,7 +6461,7 @@
         <v>93</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M137">
         <v>1400</v>
@@ -6501,7 +6501,7 @@
         <v>31</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M138">
         <v>120</v>
@@ -6541,7 +6541,7 @@
         <v>17</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M139">
         <v>820</v>
@@ -6581,7 +6581,7 @@
         <v>93</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M140">
         <v>400</v>
@@ -6621,7 +6621,7 @@
         <v>56</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M141">
         <v>50</v>
@@ -6661,7 +6661,7 @@
         <v>44</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M142">
         <v>200</v>
@@ -6701,7 +6701,7 @@
         <v>56</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M143">
         <v>120</v>
@@ -6741,7 +6741,7 @@
         <v>56</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M144">
         <v>100</v>
@@ -6781,7 +6781,7 @@
         <v>17</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M145">
         <v>300</v>
@@ -6821,7 +6821,7 @@
         <v>17</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M146">
         <v>320</v>
@@ -6861,7 +6861,7 @@
         <v>17</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M147">
         <v>280</v>
@@ -6901,7 +6901,7 @@
         <v>104</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M148">
         <v>160</v>
@@ -6941,7 +6941,7 @@
         <v>17</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M149">
         <v>480</v>
@@ -6981,7 +6981,7 @@
         <v>17</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M150">
         <v>180</v>
@@ -7021,7 +7021,7 @@
         <v>56</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M151">
         <v>50</v>
@@ -7061,7 +7061,7 @@
         <v>56</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M152">
         <v>580</v>
@@ -7101,7 +7101,7 @@
         <v>110</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M153">
         <v>460</v>
@@ -7141,7 +7141,7 @@
         <v>112</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M154">
         <v>220</v>
@@ -7181,7 +7181,7 @@
         <v>17</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M155">
         <v>480</v>
@@ -7221,7 +7221,7 @@
         <v>17</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M156">
         <v>320</v>
@@ -7261,7 +7261,7 @@
         <v>17</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M157">
         <v>4000</v>
@@ -7301,7 +7301,7 @@
         <v>17</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M158">
         <v>600</v>
@@ -7341,7 +7341,7 @@
         <v>17</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M159">
         <v>1100</v>
@@ -7381,7 +7381,7 @@
         <v>56</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M160">
         <v>50</v>
@@ -7421,7 +7421,7 @@
         <v>17</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M161">
         <v>820</v>
@@ -7459,7 +7459,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -7493,7 +7493,7 @@
         <v>122</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M163">
         <v>170</v>
@@ -7533,7 +7533,7 @@
         <v>124</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M164">
         <v>320</v>
@@ -7573,7 +7573,7 @@
         <v>31</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M165">
         <v>190</v>
@@ -7613,7 +7613,7 @@
         <v>31</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M166">
         <v>190</v>
@@ -7653,7 +7653,7 @@
         <v>31</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M167">
         <v>200</v>
@@ -7693,7 +7693,7 @@
         <v>128</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M168">
         <v>80</v>
@@ -7733,7 +7733,7 @@
         <v>122</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M169">
         <v>320</v>
@@ -7773,7 +7773,7 @@
         <v>130</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M170">
         <v>50</v>
@@ -7813,7 +7813,7 @@
         <v>17</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M171">
         <v>425</v>
@@ -7853,7 +7853,7 @@
         <v>56</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M172">
         <v>150</v>
@@ -7893,7 +7893,7 @@
         <v>134</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M173">
         <v>130</v>
@@ -7933,7 +7933,7 @@
         <v>44</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M174">
         <v>380</v>
@@ -7973,7 +7973,7 @@
         <v>44</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M175">
         <v>420</v>
@@ -8013,7 +8013,7 @@
         <v>44</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M176">
         <v>550</v>
@@ -8053,7 +8053,7 @@
         <v>17</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M177">
         <v>150</v>
@@ -8093,7 +8093,7 @@
         <v>138</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M178">
         <v>700</v>
@@ -8133,7 +8133,7 @@
         <v>17</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M179">
         <v>200</v>
@@ -8173,7 +8173,7 @@
         <v>44</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M180">
         <v>680</v>
@@ -8213,7 +8213,7 @@
         <v>141</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M181">
         <v>285</v>
@@ -8253,7 +8253,7 @@
         <v>17</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M182">
         <v>150</v>
@@ -8293,7 +8293,7 @@
         <v>44</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M183">
         <v>450</v>
@@ -8333,7 +8333,7 @@
         <v>17</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M184">
         <v>700</v>
@@ -8373,7 +8373,7 @@
         <v>17</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M185">
         <v>150</v>
@@ -8413,7 +8413,7 @@
         <v>44</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M186">
         <v>500</v>
@@ -8453,7 +8453,7 @@
         <v>144</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M187">
         <v>2800</v>
@@ -8493,7 +8493,7 @@
         <v>17</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M188">
         <v>150</v>
@@ -8533,7 +8533,7 @@
         <v>138</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M189">
         <v>720</v>
@@ -8573,7 +8573,7 @@
         <v>17</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M190">
         <v>300</v>
@@ -8613,7 +8613,7 @@
         <v>17</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M191">
         <v>140</v>
@@ -8653,7 +8653,7 @@
         <v>44</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M192">
         <v>420</v>
@@ -8693,7 +8693,7 @@
         <v>144</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M193">
         <v>1900</v>
@@ -8733,7 +8733,7 @@
         <v>17</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M194">
         <v>150</v>
@@ -8773,7 +8773,7 @@
         <v>44</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M195">
         <v>500</v>
@@ -8813,7 +8813,7 @@
         <v>17</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M196">
         <v>120</v>
@@ -8853,7 +8853,7 @@
         <v>44</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M197">
         <v>420</v>
@@ -8893,7 +8893,7 @@
         <v>17</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M198">
         <v>150</v>
@@ -8933,7 +8933,7 @@
         <v>44</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M199">
         <v>500</v>
@@ -8973,7 +8973,7 @@
         <v>17</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M200">
         <v>150</v>
@@ -9013,7 +9013,7 @@
         <v>44</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M201">
         <v>500</v>
@@ -9053,7 +9053,7 @@
         <v>17</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M202">
         <v>130</v>
@@ -9093,7 +9093,7 @@
         <v>44</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M203">
         <v>450</v>
@@ -9133,7 +9133,7 @@
         <v>17</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M204">
         <v>220</v>
@@ -9173,7 +9173,7 @@
         <v>44</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M205">
         <v>850</v>
@@ -9213,7 +9213,7 @@
         <v>17</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M206">
         <v>130</v>
@@ -9253,7 +9253,7 @@
         <v>44</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M207">
         <v>450</v>
@@ -9293,7 +9293,7 @@
         <v>17</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M208">
         <v>150</v>
@@ -9333,7 +9333,7 @@
         <v>44</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M209">
         <v>500</v>
@@ -9373,7 +9373,7 @@
         <v>17</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M210">
         <v>300</v>
@@ -9413,7 +9413,7 @@
         <v>138</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M211">
         <v>1500</v>
@@ -9453,7 +9453,7 @@
         <v>17</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M212">
         <v>300</v>
@@ -9493,7 +9493,7 @@
         <v>138</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M213">
         <v>1500</v>
@@ -9533,7 +9533,7 @@
         <v>17</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M214">
         <v>210</v>
@@ -9573,7 +9573,7 @@
         <v>17</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M215">
         <v>210</v>
@@ -9613,7 +9613,7 @@
         <v>17</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M216">
         <v>160</v>
@@ -9653,7 +9653,7 @@
         <v>93</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M217">
         <v>530</v>
@@ -9693,7 +9693,7 @@
         <v>93</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M218">
         <v>620</v>
@@ -9733,7 +9733,7 @@
         <v>93</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M219">
         <v>600</v>
@@ -9773,7 +9773,7 @@
         <v>93</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M220">
         <v>1500</v>
@@ -9813,7 +9813,7 @@
         <v>31</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M221">
         <v>130</v>
@@ -9853,7 +9853,7 @@
         <v>17</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M222">
         <v>820</v>
@@ -9893,7 +9893,7 @@
         <v>93</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M223">
         <v>420</v>
@@ -9933,7 +9933,7 @@
         <v>56</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M224">
         <v>55</v>
@@ -9973,7 +9973,7 @@
         <v>44</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M225">
         <v>220</v>
@@ -10013,7 +10013,7 @@
         <v>56</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M226">
         <v>120</v>
@@ -10053,7 +10053,7 @@
         <v>56</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M227">
         <v>100</v>
@@ -10093,7 +10093,7 @@
         <v>17</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M228">
         <v>320</v>
@@ -10133,7 +10133,7 @@
         <v>17</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M229">
         <v>330</v>
@@ -10173,7 +10173,7 @@
         <v>17</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M230">
         <v>290</v>
@@ -10213,7 +10213,7 @@
         <v>104</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M231">
         <v>180</v>
@@ -10253,7 +10253,7 @@
         <v>17</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M232">
         <v>480</v>
@@ -10293,7 +10293,7 @@
         <v>17</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M233">
         <v>190</v>
@@ -10333,7 +10333,7 @@
         <v>56</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M234">
         <v>55</v>
@@ -10373,7 +10373,7 @@
         <v>56</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M235">
         <v>600</v>
@@ -10413,7 +10413,7 @@
         <v>110</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M236">
         <v>480</v>
@@ -10453,7 +10453,7 @@
         <v>112</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M237">
         <v>220</v>
@@ -10493,7 +10493,7 @@
         <v>17</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M238">
         <v>480</v>
@@ -10533,7 +10533,7 @@
         <v>17</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M239">
         <v>320</v>
@@ -10573,7 +10573,7 @@
         <v>17</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M240">
         <v>4000</v>
@@ -10613,7 +10613,7 @@
         <v>17</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M241">
         <v>600</v>
@@ -10653,7 +10653,7 @@
         <v>17</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M242">
         <v>1100</v>
@@ -10693,7 +10693,7 @@
         <v>56</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M243">
         <v>50</v>
@@ -10733,7 +10733,7 @@
         <v>17</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M244">
         <v>820</v>
@@ -10771,7 +10771,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -10805,7 +10805,7 @@
         <v>122</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M246">
         <v>180</v>
@@ -10845,7 +10845,7 @@
         <v>124</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M247">
         <v>320</v>
@@ -10885,7 +10885,7 @@
         <v>31</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M248">
         <v>190</v>
@@ -10925,7 +10925,7 @@
         <v>31</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M249">
         <v>190</v>
@@ -10965,7 +10965,7 @@
         <v>31</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M250">
         <v>200</v>
@@ -11005,7 +11005,7 @@
         <v>128</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M251">
         <v>80</v>
@@ -11045,7 +11045,7 @@
         <v>122</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M252">
         <v>320</v>
@@ -11085,7 +11085,7 @@
         <v>130</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M253">
         <v>50</v>
@@ -11125,7 +11125,7 @@
         <v>17</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M254">
         <v>420</v>
@@ -11165,7 +11165,7 @@
         <v>56</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M255">
         <v>150</v>
@@ -11205,7 +11205,7 @@
         <v>134</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M256">
         <v>120</v>
@@ -11245,7 +11245,7 @@
         <v>44</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M257">
         <v>380</v>
@@ -11285,7 +11285,7 @@
         <v>17</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M258">
         <v>130</v>
@@ -11325,7 +11325,7 @@
         <v>44</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M259">
         <v>400</v>
@@ -11365,7 +11365,7 @@
         <v>44</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M260">
         <v>500</v>
@@ -11405,7 +11405,7 @@
         <v>17</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M261">
         <v>150</v>
@@ -11445,7 +11445,7 @@
         <v>138</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M262">
         <v>700</v>
@@ -11485,7 +11485,7 @@
         <v>17</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M263">
         <v>200</v>
@@ -11525,7 +11525,7 @@
         <v>44</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M264">
         <v>680</v>
@@ -11565,7 +11565,7 @@
         <v>141</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M265">
         <v>285</v>
@@ -11605,7 +11605,7 @@
         <v>17</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M266">
         <v>150</v>
@@ -11645,7 +11645,7 @@
         <v>44</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M267">
         <v>500</v>
@@ -11685,7 +11685,7 @@
         <v>17</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M268">
         <v>700</v>
@@ -11725,7 +11725,7 @@
         <v>17</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M269">
         <v>150</v>
@@ -11765,7 +11765,7 @@
         <v>44</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M270">
         <v>500</v>
@@ -11805,7 +11805,7 @@
         <v>144</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M271">
         <v>2800</v>
@@ -11845,7 +11845,7 @@
         <v>17</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M272">
         <v>150</v>
@@ -11885,7 +11885,7 @@
         <v>138</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M273">
         <v>700</v>
@@ -11925,7 +11925,7 @@
         <v>17</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M274">
         <v>300</v>
@@ -11965,7 +11965,7 @@
         <v>44</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M275">
         <v>1100</v>
@@ -12005,7 +12005,7 @@
         <v>17</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M276">
         <v>150</v>
@@ -12045,7 +12045,7 @@
         <v>44</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M277">
         <v>520</v>
@@ -12085,7 +12085,7 @@
         <v>144</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M278">
         <v>1900</v>
@@ -12125,7 +12125,7 @@
         <v>17</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M279">
         <v>150</v>
@@ -12165,7 +12165,7 @@
         <v>44</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M280">
         <v>500</v>
@@ -12205,7 +12205,7 @@
         <v>17</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M281">
         <v>140</v>
@@ -12245,7 +12245,7 @@
         <v>44</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M282">
         <v>480</v>
@@ -12285,7 +12285,7 @@
         <v>17</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M283">
         <v>150</v>
@@ -12325,7 +12325,7 @@
         <v>44</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M284">
         <v>500</v>
@@ -12365,7 +12365,7 @@
         <v>17</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M285">
         <v>150</v>
@@ -12405,7 +12405,7 @@
         <v>44</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M286">
         <v>500</v>
@@ -12445,7 +12445,7 @@
         <v>17</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M287">
         <v>140</v>
@@ -12485,7 +12485,7 @@
         <v>44</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M288">
         <v>450</v>
@@ -12525,7 +12525,7 @@
         <v>17</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M289">
         <v>220</v>
@@ -12565,7 +12565,7 @@
         <v>44</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M290">
         <v>800</v>
@@ -12605,7 +12605,7 @@
         <v>17</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M291">
         <v>150</v>
@@ -12645,7 +12645,7 @@
         <v>44</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M292">
         <v>500</v>
@@ -12685,7 +12685,7 @@
         <v>17</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M293">
         <v>150</v>
@@ -12725,7 +12725,7 @@
         <v>44</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M294">
         <v>500</v>
@@ -12765,7 +12765,7 @@
         <v>17</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M295">
         <v>300</v>
@@ -12805,7 +12805,7 @@
         <v>138</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M296">
         <v>1500</v>
@@ -12845,7 +12845,7 @@
         <v>17</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M297">
         <v>300</v>
@@ -12885,7 +12885,7 @@
         <v>138</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M298">
         <v>1500</v>
@@ -12925,7 +12925,7 @@
         <v>17</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M299">
         <v>210</v>
@@ -12965,7 +12965,7 @@
         <v>17</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M300">
         <v>210</v>
@@ -13005,7 +13005,7 @@
         <v>17</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M301">
         <v>160</v>
@@ -13045,7 +13045,7 @@
         <v>93</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M302">
         <v>525</v>
@@ -13085,7 +13085,7 @@
         <v>93</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M303">
         <v>620</v>
@@ -13125,7 +13125,7 @@
         <v>93</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M304">
         <v>600</v>
@@ -13165,7 +13165,7 @@
         <v>93</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M305">
         <v>1500</v>
@@ -13205,7 +13205,7 @@
         <v>31</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M306">
         <v>130</v>
@@ -13245,7 +13245,7 @@
         <v>17</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M307">
         <v>820</v>
@@ -13285,7 +13285,7 @@
         <v>93</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M308">
         <v>420</v>
@@ -13325,7 +13325,7 @@
         <v>56</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M309">
         <v>60</v>
@@ -13365,7 +13365,7 @@
         <v>44</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M310">
         <v>220</v>
@@ -13405,7 +13405,7 @@
         <v>56</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M311">
         <v>130</v>
@@ -13445,7 +13445,7 @@
         <v>56</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M312">
         <v>100</v>
@@ -13485,7 +13485,7 @@
         <v>17</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M313">
         <v>320</v>
@@ -13525,7 +13525,7 @@
         <v>17</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M314">
         <v>330</v>
@@ -13565,7 +13565,7 @@
         <v>17</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M315">
         <v>290</v>
@@ -13605,7 +13605,7 @@
         <v>104</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M316">
         <v>180</v>
@@ -13645,7 +13645,7 @@
         <v>17</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M317">
         <v>480</v>
@@ -13685,7 +13685,7 @@
         <v>17</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M318">
         <v>180</v>
@@ -13725,7 +13725,7 @@
         <v>56</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M319">
         <v>55</v>
@@ -13765,7 +13765,7 @@
         <v>56</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M320">
         <v>600</v>
@@ -13805,7 +13805,7 @@
         <v>110</v>
       </c>
       <c r="L321" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M321">
         <v>480</v>
@@ -13845,7 +13845,7 @@
         <v>112</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M322">
         <v>220</v>
@@ -13885,7 +13885,7 @@
         <v>17</v>
       </c>
       <c r="L323" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M323">
         <v>480</v>
@@ -13925,7 +13925,7 @@
         <v>17</v>
       </c>
       <c r="L324" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M324">
         <v>320</v>
@@ -13965,7 +13965,7 @@
         <v>17</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M325">
         <v>4000</v>
@@ -14005,7 +14005,7 @@
         <v>17</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M326">
         <v>600</v>
@@ -14045,7 +14045,7 @@
         <v>17</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M327">
         <v>1100</v>
@@ -14085,7 +14085,7 @@
         <v>56</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M328">
         <v>50</v>
@@ -14125,7 +14125,7 @@
         <v>17</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M329">
         <v>820</v>
@@ -14163,7 +14163,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
@@ -14197,7 +14197,7 @@
         <v>122</v>
       </c>
       <c r="L331" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M331">
         <v>190</v>
@@ -14237,7 +14237,7 @@
         <v>124</v>
       </c>
       <c r="L332" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M332">
         <v>320</v>
@@ -14277,7 +14277,7 @@
         <v>31</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M333">
         <v>190</v>
@@ -14317,7 +14317,7 @@
         <v>31</v>
       </c>
       <c r="L334" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M334">
         <v>190</v>
@@ -14357,7 +14357,7 @@
         <v>31</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M335">
         <v>200</v>
@@ -14397,7 +14397,7 @@
         <v>128</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M336">
         <v>80</v>
@@ -14437,7 +14437,7 @@
         <v>122</v>
       </c>
       <c r="L337" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M337">
         <v>320</v>
@@ -14477,7 +14477,7 @@
         <v>130</v>
       </c>
       <c r="L338" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M338">
         <v>50</v>
@@ -14517,7 +14517,7 @@
         <v>17</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M339">
         <v>420</v>
@@ -14557,7 +14557,7 @@
         <v>56</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M340">
         <v>150</v>
@@ -14597,7 +14597,7 @@
         <v>134</v>
       </c>
       <c r="L341" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M341">
         <v>120</v>
@@ -14637,7 +14637,7 @@
         <v>44</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M342">
         <v>380</v>
@@ -14677,7 +14677,7 @@
         <v>17</v>
       </c>
       <c r="L343" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M343">
         <v>130</v>
@@ -14717,7 +14717,7 @@
         <v>44</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M344">
         <v>400</v>
@@ -14757,7 +14757,7 @@
         <v>44</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M345">
         <v>500</v>
@@ -14797,7 +14797,7 @@
         <v>17</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M346">
         <v>150</v>
@@ -14837,7 +14837,7 @@
         <v>138</v>
       </c>
       <c r="L347" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M347">
         <v>700</v>
@@ -14877,7 +14877,7 @@
         <v>17</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M348">
         <v>200</v>
@@ -14917,7 +14917,7 @@
         <v>44</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M349">
         <v>680</v>
@@ -14957,7 +14957,7 @@
         <v>141</v>
       </c>
       <c r="L350" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M350">
         <v>280</v>
@@ -14997,7 +14997,7 @@
         <v>17</v>
       </c>
       <c r="L351" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M351">
         <v>150</v>
@@ -15037,7 +15037,7 @@
         <v>44</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M352">
         <v>500</v>
@@ -15077,7 +15077,7 @@
         <v>17</v>
       </c>
       <c r="L353" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M353">
         <v>700</v>
@@ -15117,7 +15117,7 @@
         <v>17</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M354">
         <v>150</v>
@@ -15157,7 +15157,7 @@
         <v>44</v>
       </c>
       <c r="L355" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M355">
         <v>500</v>
@@ -15197,7 +15197,7 @@
         <v>144</v>
       </c>
       <c r="L356" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M356">
         <v>2800</v>
@@ -15237,7 +15237,7 @@
         <v>17</v>
       </c>
       <c r="L357" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M357">
         <v>150</v>
@@ -15277,7 +15277,7 @@
         <v>138</v>
       </c>
       <c r="L358" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M358">
         <v>700</v>
@@ -15317,7 +15317,7 @@
         <v>17</v>
       </c>
       <c r="L359" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M359">
         <v>300</v>
@@ -15357,7 +15357,7 @@
         <v>44</v>
       </c>
       <c r="L360" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M360">
         <v>1100</v>
@@ -15397,7 +15397,7 @@
         <v>17</v>
       </c>
       <c r="L361" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M361">
         <v>150</v>
@@ -15437,7 +15437,7 @@
         <v>44</v>
       </c>
       <c r="L362" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M362">
         <v>520</v>
@@ -15477,7 +15477,7 @@
         <v>144</v>
       </c>
       <c r="L363" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M363">
         <v>1900</v>
@@ -15517,7 +15517,7 @@
         <v>17</v>
       </c>
       <c r="L364" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M364">
         <v>150</v>
@@ -15557,7 +15557,7 @@
         <v>44</v>
       </c>
       <c r="L365" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M365">
         <v>500</v>
@@ -15597,7 +15597,7 @@
         <v>17</v>
       </c>
       <c r="L366" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M366">
         <v>130</v>
@@ -15637,7 +15637,7 @@
         <v>44</v>
       </c>
       <c r="L367" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M367">
         <v>480</v>
@@ -15677,7 +15677,7 @@
         <v>17</v>
       </c>
       <c r="L368" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M368">
         <v>150</v>
@@ -15717,7 +15717,7 @@
         <v>44</v>
       </c>
       <c r="L369" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M369">
         <v>500</v>
@@ -15757,7 +15757,7 @@
         <v>17</v>
       </c>
       <c r="L370" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M370">
         <v>160</v>
@@ -15797,7 +15797,7 @@
         <v>44</v>
       </c>
       <c r="L371" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M371">
         <v>550</v>
@@ -15837,7 +15837,7 @@
         <v>17</v>
       </c>
       <c r="L372" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M372">
         <v>140</v>
@@ -15877,7 +15877,7 @@
         <v>44</v>
       </c>
       <c r="L373" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M373">
         <v>450</v>
@@ -15917,7 +15917,7 @@
         <v>17</v>
       </c>
       <c r="L374" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M374">
         <v>220</v>
@@ -15957,7 +15957,7 @@
         <v>44</v>
       </c>
       <c r="L375" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M375">
         <v>800</v>
@@ -15997,7 +15997,7 @@
         <v>17</v>
       </c>
       <c r="L376" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M376">
         <v>150</v>
@@ -16037,7 +16037,7 @@
         <v>44</v>
       </c>
       <c r="L377" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M377">
         <v>500</v>
@@ -16077,7 +16077,7 @@
         <v>17</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M378">
         <v>150</v>
@@ -16117,7 +16117,7 @@
         <v>44</v>
       </c>
       <c r="L379" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M379">
         <v>500</v>
@@ -16157,7 +16157,7 @@
         <v>17</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M380">
         <v>300</v>
@@ -16197,7 +16197,7 @@
         <v>138</v>
       </c>
       <c r="L381" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M381">
         <v>1500</v>
@@ -16237,7 +16237,7 @@
         <v>17</v>
       </c>
       <c r="L382" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M382">
         <v>300</v>
@@ -16277,7 +16277,7 @@
         <v>138</v>
       </c>
       <c r="L383" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M383">
         <v>1500</v>
@@ -16317,7 +16317,7 @@
         <v>17</v>
       </c>
       <c r="L384" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M384">
         <v>200</v>
@@ -16357,7 +16357,7 @@
         <v>17</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M385">
         <v>200</v>
@@ -16397,7 +16397,7 @@
         <v>93</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M386">
         <v>540</v>
@@ -16437,7 +16437,7 @@
         <v>93</v>
       </c>
       <c r="L387" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M387">
         <v>520</v>
@@ -16477,7 +16477,7 @@
         <v>93</v>
       </c>
       <c r="L388" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M388">
         <v>1500</v>
@@ -16517,7 +16517,7 @@
         <v>31</v>
       </c>
       <c r="L389" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M389">
         <v>100</v>
@@ -16557,7 +16557,7 @@
         <v>17</v>
       </c>
       <c r="L390" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M390">
         <v>820</v>
@@ -16597,7 +16597,7 @@
         <v>93</v>
       </c>
       <c r="L391" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M391">
         <v>470</v>
@@ -16637,7 +16637,7 @@
         <v>56</v>
       </c>
       <c r="L392" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M392">
         <v>50</v>
@@ -16677,7 +16677,7 @@
         <v>56</v>
       </c>
       <c r="L393" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M393">
         <v>100</v>
@@ -16717,7 +16717,7 @@
         <v>56</v>
       </c>
       <c r="L394" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M394">
         <v>130</v>
@@ -16757,7 +16757,7 @@
         <v>17</v>
       </c>
       <c r="L395" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M395">
         <v>300</v>
@@ -16797,7 +16797,7 @@
         <v>17</v>
       </c>
       <c r="L396" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M396">
         <v>300</v>
@@ -16837,7 +16837,7 @@
         <v>17</v>
       </c>
       <c r="L397" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M397">
         <v>280</v>
@@ -16877,7 +16877,7 @@
         <v>104</v>
       </c>
       <c r="L398" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M398">
         <v>190</v>
@@ -16917,7 +16917,7 @@
         <v>17</v>
       </c>
       <c r="L399" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M399">
         <v>480</v>
@@ -16957,7 +16957,7 @@
         <v>17</v>
       </c>
       <c r="L400" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M400">
         <v>190</v>
@@ -16997,7 +16997,7 @@
         <v>56</v>
       </c>
       <c r="L401" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M401">
         <v>55</v>
@@ -17037,7 +17037,7 @@
         <v>56</v>
       </c>
       <c r="L402" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M402">
         <v>600</v>
@@ -17077,7 +17077,7 @@
         <v>110</v>
       </c>
       <c r="L403" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M403">
         <v>480</v>
@@ -17117,7 +17117,7 @@
         <v>112</v>
       </c>
       <c r="L404" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M404">
         <v>220</v>
@@ -17157,7 +17157,7 @@
         <v>17</v>
       </c>
       <c r="L405" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M405">
         <v>300</v>
@@ -17197,7 +17197,7 @@
         <v>17</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M406">
         <v>4200</v>
@@ -17237,7 +17237,7 @@
         <v>17</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M407">
         <v>560</v>
@@ -17277,7 +17277,7 @@
         <v>17</v>
       </c>
       <c r="L408" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M408">
         <v>560</v>
@@ -17317,7 +17317,7 @@
         <v>56</v>
       </c>
       <c r="L409" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M409">
         <v>50</v>
@@ -17357,7 +17357,7 @@
         <v>17</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M410">
         <v>820</v>
@@ -17395,7 +17395,7 @@
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
       <c r="L411" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
@@ -17429,7 +17429,7 @@
         <v>122</v>
       </c>
       <c r="L412" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M412">
         <v>190</v>
@@ -17469,7 +17469,7 @@
         <v>124</v>
       </c>
       <c r="L413" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M413">
         <v>330</v>
@@ -17509,7 +17509,7 @@
         <v>31</v>
       </c>
       <c r="L414" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M414">
         <v>200</v>
@@ -17549,7 +17549,7 @@
         <v>31</v>
       </c>
       <c r="L415" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M415">
         <v>170</v>
@@ -17589,7 +17589,7 @@
         <v>31</v>
       </c>
       <c r="L416" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M416">
         <v>200</v>
@@ -17629,7 +17629,7 @@
         <v>128</v>
       </c>
       <c r="L417" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M417">
         <v>80</v>
@@ -17669,7 +17669,7 @@
         <v>122</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M418">
         <v>300</v>
@@ -17709,7 +17709,7 @@
         <v>130</v>
       </c>
       <c r="L419" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M419">
         <v>50</v>
@@ -17749,7 +17749,7 @@
         <v>17</v>
       </c>
       <c r="L420" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M420">
         <v>400</v>
@@ -17789,7 +17789,7 @@
         <v>56</v>
       </c>
       <c r="L421" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M421">
         <v>150</v>
@@ -17829,7 +17829,7 @@
         <v>134</v>
       </c>
       <c r="L422" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M422">
         <v>125</v>
@@ -17869,7 +17869,7 @@
         <v>44</v>
       </c>
       <c r="L423" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M423">
         <v>360</v>
@@ -17909,7 +17909,7 @@
         <v>17</v>
       </c>
       <c r="L424" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M424">
         <v>150</v>
@@ -17949,7 +17949,7 @@
         <v>44</v>
       </c>
       <c r="L425" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M425">
         <v>400</v>
@@ -17989,7 +17989,7 @@
         <v>158</v>
       </c>
       <c r="L426" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M426">
         <v>570</v>
@@ -18029,7 +18029,7 @@
         <v>44</v>
       </c>
       <c r="L427" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M427">
         <v>550</v>
@@ -18069,7 +18069,7 @@
         <v>17</v>
       </c>
       <c r="L428" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M428">
         <v>150</v>
@@ -18109,7 +18109,7 @@
         <v>138</v>
       </c>
       <c r="L429" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M429">
         <v>700</v>
@@ -18149,7 +18149,7 @@
         <v>17</v>
       </c>
       <c r="L430" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M430">
         <v>210</v>
@@ -18189,7 +18189,7 @@
         <v>44</v>
       </c>
       <c r="L431" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M431">
         <v>650</v>
@@ -18229,7 +18229,7 @@
         <v>141</v>
       </c>
       <c r="L432" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M432">
         <v>285</v>
@@ -18269,7 +18269,7 @@
         <v>17</v>
       </c>
       <c r="L433" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M433">
         <v>140</v>
@@ -18309,7 +18309,7 @@
         <v>44</v>
       </c>
       <c r="L434" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M434">
         <v>450</v>
@@ -18349,7 +18349,7 @@
         <v>17</v>
       </c>
       <c r="L435" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M435">
         <v>700</v>
@@ -18389,7 +18389,7 @@
         <v>17</v>
       </c>
       <c r="L436" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M436">
         <v>140</v>
@@ -18429,7 +18429,7 @@
         <v>44</v>
       </c>
       <c r="L437" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M437">
         <v>460</v>
@@ -18469,7 +18469,7 @@
         <v>144</v>
       </c>
       <c r="L438" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M438">
         <v>2800</v>
@@ -18509,7 +18509,7 @@
         <v>17</v>
       </c>
       <c r="L439" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M439">
         <v>150</v>
@@ -18549,7 +18549,7 @@
         <v>138</v>
       </c>
       <c r="L440" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M440">
         <v>700</v>
@@ -18589,7 +18589,7 @@
         <v>17</v>
       </c>
       <c r="L441" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M441">
         <v>280</v>
@@ -18629,7 +18629,7 @@
         <v>17</v>
       </c>
       <c r="L442" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M442">
         <v>130</v>
@@ -18669,7 +18669,7 @@
         <v>44</v>
       </c>
       <c r="L443" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M443">
         <v>400</v>
@@ -18709,7 +18709,7 @@
         <v>144</v>
       </c>
       <c r="L444" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M444">
         <v>2100</v>
@@ -18749,7 +18749,7 @@
         <v>17</v>
       </c>
       <c r="L445" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M445">
         <v>150</v>
@@ -18789,7 +18789,7 @@
         <v>44</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M446">
         <v>480</v>
@@ -18829,7 +18829,7 @@
         <v>17</v>
       </c>
       <c r="L447" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M447">
         <v>130</v>
@@ -18869,7 +18869,7 @@
         <v>44</v>
       </c>
       <c r="L448" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M448">
         <v>460</v>
@@ -18909,7 +18909,7 @@
         <v>17</v>
       </c>
       <c r="L449" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M449">
         <v>150</v>
@@ -18949,7 +18949,7 @@
         <v>44</v>
       </c>
       <c r="L450" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M450">
         <v>500</v>
@@ -18989,7 +18989,7 @@
         <v>17</v>
       </c>
       <c r="L451" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M451">
         <v>150</v>
@@ -19029,7 +19029,7 @@
         <v>44</v>
       </c>
       <c r="L452" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M452">
         <v>500</v>
@@ -19069,7 +19069,7 @@
         <v>17</v>
       </c>
       <c r="L453" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M453">
         <v>200</v>
@@ -19109,7 +19109,7 @@
         <v>44</v>
       </c>
       <c r="L454" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M454">
         <v>650</v>
@@ -19149,7 +19149,7 @@
         <v>17</v>
       </c>
       <c r="L455" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M455">
         <v>280</v>
@@ -19189,7 +19189,7 @@
         <v>17</v>
       </c>
       <c r="L456" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M456">
         <v>150</v>
@@ -19229,7 +19229,7 @@
         <v>44</v>
       </c>
       <c r="L457" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M457">
         <v>500</v>
@@ -19269,7 +19269,7 @@
         <v>17</v>
       </c>
       <c r="L458" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M458">
         <v>150</v>
@@ -19309,7 +19309,7 @@
         <v>44</v>
       </c>
       <c r="L459" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M459">
         <v>500</v>
@@ -19349,7 +19349,7 @@
         <v>17</v>
       </c>
       <c r="L460" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M460">
         <v>250</v>
@@ -19389,7 +19389,7 @@
         <v>138</v>
       </c>
       <c r="L461" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M461">
         <v>1200</v>
@@ -19429,7 +19429,7 @@
         <v>17</v>
       </c>
       <c r="L462" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M462">
         <v>300</v>
@@ -19469,7 +19469,7 @@
         <v>138</v>
       </c>
       <c r="L463" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M463">
         <v>1500</v>
@@ -19509,7 +19509,7 @@
         <v>17</v>
       </c>
       <c r="L464" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M464">
         <v>200</v>
@@ -19549,7 +19549,7 @@
         <v>17</v>
       </c>
       <c r="L465" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M465">
         <v>200</v>
@@ -19589,7 +19589,7 @@
         <v>93</v>
       </c>
       <c r="L466" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M466">
         <v>540</v>
@@ -19629,7 +19629,7 @@
         <v>93</v>
       </c>
       <c r="L467" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M467">
         <v>520</v>
@@ -19669,7 +19669,7 @@
         <v>93</v>
       </c>
       <c r="L468" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M468">
         <v>1500</v>
@@ -19709,7 +19709,7 @@
         <v>31</v>
       </c>
       <c r="L469" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M469">
         <v>100</v>
@@ -19749,7 +19749,7 @@
         <v>17</v>
       </c>
       <c r="L470" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M470">
         <v>820</v>
@@ -19789,7 +19789,7 @@
         <v>93</v>
       </c>
       <c r="L471" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M471">
         <v>470</v>
@@ -19829,7 +19829,7 @@
         <v>56</v>
       </c>
       <c r="L472" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M472">
         <v>55</v>
@@ -19869,7 +19869,7 @@
         <v>56</v>
       </c>
       <c r="L473" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M473">
         <v>100</v>
@@ -19909,7 +19909,7 @@
         <v>56</v>
       </c>
       <c r="L474" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M474">
         <v>140</v>
@@ -19949,7 +19949,7 @@
         <v>17</v>
       </c>
       <c r="L475" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M475">
         <v>300</v>
@@ -19989,7 +19989,7 @@
         <v>17</v>
       </c>
       <c r="L476" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M476">
         <v>300</v>
@@ -20029,7 +20029,7 @@
         <v>17</v>
       </c>
       <c r="L477" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M477">
         <v>280</v>
@@ -20069,7 +20069,7 @@
         <v>104</v>
       </c>
       <c r="L478" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M478">
         <v>190</v>
@@ -20109,7 +20109,7 @@
         <v>17</v>
       </c>
       <c r="L479" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M479">
         <v>480</v>
@@ -20149,7 +20149,7 @@
         <v>17</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M480">
         <v>190</v>
@@ -20189,7 +20189,7 @@
         <v>56</v>
       </c>
       <c r="L481" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M481">
         <v>55</v>
@@ -20229,7 +20229,7 @@
         <v>56</v>
       </c>
       <c r="L482" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M482">
         <v>600</v>
@@ -20269,7 +20269,7 @@
         <v>110</v>
       </c>
       <c r="L483" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M483">
         <v>480</v>
@@ -20309,7 +20309,7 @@
         <v>112</v>
       </c>
       <c r="L484" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M484">
         <v>220</v>
@@ -20349,7 +20349,7 @@
         <v>17</v>
       </c>
       <c r="L485" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M485">
         <v>300</v>
@@ -20389,7 +20389,7 @@
         <v>17</v>
       </c>
       <c r="L486" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M486">
         <v>4200</v>
@@ -20429,7 +20429,7 @@
         <v>17</v>
       </c>
       <c r="L487" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M487">
         <v>560</v>
@@ -20469,7 +20469,7 @@
         <v>17</v>
       </c>
       <c r="L488" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M488">
         <v>560</v>
@@ -20509,7 +20509,7 @@
         <v>56</v>
       </c>
       <c r="L489" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M489">
         <v>55</v>
@@ -20549,7 +20549,7 @@
         <v>17</v>
       </c>
       <c r="L490" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M490">
         <v>830</v>
@@ -20587,7 +20587,7 @@
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
       <c r="L491" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.25">
@@ -20621,7 +20621,7 @@
         <v>122</v>
       </c>
       <c r="L492" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M492">
         <v>190</v>
@@ -20661,7 +20661,7 @@
         <v>124</v>
       </c>
       <c r="L493" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M493">
         <v>330</v>
@@ -20701,7 +20701,7 @@
         <v>31</v>
       </c>
       <c r="L494" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M494">
         <v>200</v>
@@ -20741,7 +20741,7 @@
         <v>31</v>
       </c>
       <c r="L495" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M495">
         <v>170</v>
@@ -20781,7 +20781,7 @@
         <v>31</v>
       </c>
       <c r="L496" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M496">
         <v>200</v>
@@ -20821,7 +20821,7 @@
         <v>128</v>
       </c>
       <c r="L497" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M497">
         <v>80</v>
@@ -20861,7 +20861,7 @@
         <v>122</v>
       </c>
       <c r="L498" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M498">
         <v>300</v>
@@ -20901,7 +20901,7 @@
         <v>130</v>
       </c>
       <c r="L499" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M499">
         <v>50</v>
@@ -20941,7 +20941,7 @@
         <v>17</v>
       </c>
       <c r="L500" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M500">
         <v>400</v>
@@ -20981,7 +20981,7 @@
         <v>56</v>
       </c>
       <c r="L501" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M501">
         <v>150</v>
@@ -21021,7 +21021,7 @@
         <v>134</v>
       </c>
       <c r="L502" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M502">
         <v>125</v>
@@ -21061,7 +21061,7 @@
         <v>44</v>
       </c>
       <c r="L503" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M503">
         <v>360</v>
@@ -21101,7 +21101,7 @@
         <v>17</v>
       </c>
       <c r="L504" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M504">
         <v>150</v>
@@ -21141,7 +21141,7 @@
         <v>44</v>
       </c>
       <c r="L505" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M505">
         <v>400</v>
@@ -21181,7 +21181,7 @@
         <v>158</v>
       </c>
       <c r="L506" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M506">
         <v>560</v>
@@ -21221,7 +21221,7 @@
         <v>44</v>
       </c>
       <c r="L507" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M507">
         <v>550</v>
@@ -21261,7 +21261,7 @@
         <v>17</v>
       </c>
       <c r="L508" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M508">
         <v>150</v>
@@ -21301,7 +21301,7 @@
         <v>138</v>
       </c>
       <c r="L509" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M509">
         <v>700</v>
@@ -21341,7 +21341,7 @@
         <v>17</v>
       </c>
       <c r="L510" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M510">
         <v>210</v>
@@ -21381,7 +21381,7 @@
         <v>44</v>
       </c>
       <c r="L511" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M511">
         <v>650</v>
@@ -21421,7 +21421,7 @@
         <v>141</v>
       </c>
       <c r="L512" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M512">
         <v>285</v>
@@ -21461,7 +21461,7 @@
         <v>17</v>
       </c>
       <c r="L513" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M513">
         <v>150</v>
@@ -21501,7 +21501,7 @@
         <v>44</v>
       </c>
       <c r="L514" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M514">
         <v>450</v>
@@ -21541,7 +21541,7 @@
         <v>17</v>
       </c>
       <c r="L515" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M515">
         <v>700</v>
@@ -21581,7 +21581,7 @@
         <v>17</v>
       </c>
       <c r="L516" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M516">
         <v>140</v>
@@ -21621,7 +21621,7 @@
         <v>44</v>
       </c>
       <c r="L517" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M517">
         <v>460</v>
@@ -21661,7 +21661,7 @@
         <v>144</v>
       </c>
       <c r="L518" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M518">
         <v>2800</v>
@@ -21701,7 +21701,7 @@
         <v>17</v>
       </c>
       <c r="L519" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M519">
         <v>150</v>
@@ -21741,7 +21741,7 @@
         <v>138</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M520">
         <v>700</v>
@@ -21781,7 +21781,7 @@
         <v>17</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M521">
         <v>280</v>
@@ -21821,7 +21821,7 @@
         <v>17</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M522">
         <v>130</v>
@@ -21861,7 +21861,7 @@
         <v>44</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M523">
         <v>400</v>
@@ -21901,7 +21901,7 @@
         <v>144</v>
       </c>
       <c r="L524" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M524">
         <v>2100</v>
@@ -21941,7 +21941,7 @@
         <v>17</v>
       </c>
       <c r="L525" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M525">
         <v>150</v>
@@ -21981,7 +21981,7 @@
         <v>44</v>
       </c>
       <c r="L526" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M526">
         <v>480</v>
@@ -22021,7 +22021,7 @@
         <v>17</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M527">
         <v>130</v>
@@ -22061,7 +22061,7 @@
         <v>44</v>
       </c>
       <c r="L528" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M528">
         <v>460</v>
@@ -22101,7 +22101,7 @@
         <v>17</v>
       </c>
       <c r="L529" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M529">
         <v>150</v>
@@ -22141,7 +22141,7 @@
         <v>44</v>
       </c>
       <c r="L530" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M530">
         <v>500</v>
@@ -22181,7 +22181,7 @@
         <v>17</v>
       </c>
       <c r="L531" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M531">
         <v>150</v>
@@ -22221,7 +22221,7 @@
         <v>44</v>
       </c>
       <c r="L532" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M532">
         <v>500</v>
@@ -22261,7 +22261,7 @@
         <v>17</v>
       </c>
       <c r="L533" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M533">
         <v>200</v>
@@ -22301,7 +22301,7 @@
         <v>44</v>
       </c>
       <c r="L534" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M534">
         <v>650</v>
@@ -22341,7 +22341,7 @@
         <v>17</v>
       </c>
       <c r="L535" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M535">
         <v>280</v>
@@ -22381,7 +22381,7 @@
         <v>17</v>
       </c>
       <c r="L536" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M536">
         <v>150</v>
@@ -22421,7 +22421,7 @@
         <v>44</v>
       </c>
       <c r="L537" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M537">
         <v>500</v>
@@ -22461,7 +22461,7 @@
         <v>17</v>
       </c>
       <c r="L538" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M538">
         <v>150</v>
@@ -22501,7 +22501,7 @@
         <v>44</v>
       </c>
       <c r="L539" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M539">
         <v>500</v>
@@ -22541,7 +22541,7 @@
         <v>17</v>
       </c>
       <c r="L540" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M540">
         <v>250</v>
@@ -22581,7 +22581,7 @@
         <v>138</v>
       </c>
       <c r="L541" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M541">
         <v>1200</v>
@@ -22621,7 +22621,7 @@
         <v>17</v>
       </c>
       <c r="L542" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M542">
         <v>300</v>
@@ -22661,7 +22661,7 @@
         <v>138</v>
       </c>
       <c r="L543" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M543">
         <v>1500</v>
@@ -22711,7 +22711,7 @@
         <v>47</v>
       </c>
       <c r="L545" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M545">
         <v>550</v>
@@ -22751,7 +22751,7 @@
         <v>47</v>
       </c>
       <c r="L546" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M546">
         <v>670</v>
@@ -22791,7 +22791,7 @@
         <v>47</v>
       </c>
       <c r="L547" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M547">
         <v>550</v>
@@ -22831,7 +22831,7 @@
         <v>47</v>
       </c>
       <c r="L548" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M548">
         <v>550</v>
@@ -22871,7 +22871,7 @@
         <v>47</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M549">
         <v>550</v>
@@ -22911,7 +22911,7 @@
         <v>47</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M550">
         <v>450</v>
@@ -22951,7 +22951,7 @@
         <v>47</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M551">
         <v>350</v>
@@ -22991,7 +22991,7 @@
         <v>47</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M552">
         <v>470</v>
@@ -23031,7 +23031,7 @@
         <v>54</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M553">
         <v>2300</v>
@@ -23071,7 +23071,7 @@
         <v>56</v>
       </c>
       <c r="L554" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M554">
         <v>70</v>
@@ -23111,7 +23111,7 @@
         <v>17</v>
       </c>
       <c r="L555" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M555">
         <v>1300</v>
@@ -23151,7 +23151,7 @@
         <v>59</v>
       </c>
       <c r="L556" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M556">
         <v>180</v>
@@ -23191,7 +23191,7 @@
         <v>17</v>
       </c>
       <c r="L557" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M557">
         <v>400</v>
@@ -23231,7 +23231,7 @@
         <v>56</v>
       </c>
       <c r="L558" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M558">
         <v>60</v>
@@ -23271,7 +23271,7 @@
         <v>17</v>
       </c>
       <c r="L559" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M559">
         <v>250</v>
@@ -23311,7 +23311,7 @@
         <v>17</v>
       </c>
       <c r="L560" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M560">
         <v>1000</v>
@@ -23351,7 +23351,7 @@
         <v>17</v>
       </c>
       <c r="L561" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M561">
         <v>800</v>
@@ -23391,7 +23391,7 @@
         <v>65</v>
       </c>
       <c r="L562" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M562">
         <v>900</v>
@@ -23431,7 +23431,7 @@
         <v>65</v>
       </c>
       <c r="L563" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M563">
         <v>280</v>
@@ -23471,7 +23471,7 @@
         <v>68</v>
       </c>
       <c r="L564" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M564">
         <v>250</v>
@@ -23511,7 +23511,7 @@
         <v>17</v>
       </c>
       <c r="L565" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M565">
         <v>450</v>
@@ -23551,7 +23551,7 @@
         <v>68</v>
       </c>
       <c r="L566" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M566">
         <v>300</v>
@@ -23591,7 +23591,7 @@
         <v>31</v>
       </c>
       <c r="L567" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M567">
         <v>180</v>
@@ -23631,7 +23631,7 @@
         <v>31</v>
       </c>
       <c r="L568" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M568">
         <v>130</v>
@@ -23671,7 +23671,7 @@
         <v>31</v>
       </c>
       <c r="L569" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M569">
         <v>150</v>
@@ -23711,7 +23711,7 @@
         <v>31</v>
       </c>
       <c r="L570" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M570">
         <v>450</v>
@@ -23751,7 +23751,7 @@
         <v>31</v>
       </c>
       <c r="L571" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M571">
         <v>800</v>
@@ -23791,7 +23791,7 @@
         <v>17</v>
       </c>
       <c r="L572" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M572">
         <v>1600</v>
@@ -23831,7 +23831,7 @@
         <v>44</v>
       </c>
       <c r="L573" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M573">
         <v>350</v>
@@ -23871,7 +23871,7 @@
         <v>17</v>
       </c>
       <c r="L574" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M574">
         <v>120</v>
@@ -23911,7 +23911,7 @@
         <v>17</v>
       </c>
       <c r="L575" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M575">
         <v>450</v>
@@ -23951,7 +23951,7 @@
         <v>80</v>
       </c>
       <c r="L576" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M576">
         <v>550</v>
@@ -23991,7 +23991,7 @@
         <v>17</v>
       </c>
       <c r="L577" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M577">
         <v>120</v>
@@ -24031,7 +24031,7 @@
         <v>17</v>
       </c>
       <c r="L578" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M578">
         <v>1000</v>
@@ -24071,7 +24071,7 @@
         <v>83</v>
       </c>
       <c r="L579" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M579">
         <v>250</v>
@@ -24111,7 +24111,7 @@
         <v>80</v>
       </c>
       <c r="L580" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M580">
         <v>750</v>
@@ -24151,7 +24151,7 @@
         <v>17</v>
       </c>
       <c r="L581" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M581">
         <v>150</v>
@@ -24191,7 +24191,7 @@
         <v>80</v>
       </c>
       <c r="L582" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M582">
         <v>500</v>
@@ -24231,7 +24231,7 @@
         <v>17</v>
       </c>
       <c r="L583" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M583">
         <v>120</v>
@@ -24271,7 +24271,7 @@
         <v>44</v>
       </c>
       <c r="L584" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M584">
         <v>375</v>
@@ -24311,7 +24311,7 @@
         <v>17</v>
       </c>
       <c r="L585" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M585">
         <v>120</v>
@@ -24351,7 +24351,7 @@
         <v>44</v>
       </c>
       <c r="L586" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M586">
         <v>500</v>
@@ -24391,7 +24391,7 @@
         <v>17</v>
       </c>
       <c r="L587" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M587">
         <v>150</v>
@@ -24431,7 +24431,7 @@
         <v>44</v>
       </c>
       <c r="L588" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M588">
         <v>800</v>
@@ -24471,7 +24471,7 @@
         <v>17</v>
       </c>
       <c r="L589" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M589">
         <v>250</v>
@@ -24511,7 +24511,7 @@
         <v>47</v>
       </c>
       <c r="L590" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M590">
         <v>550</v>
@@ -24551,7 +24551,7 @@
         <v>47</v>
       </c>
       <c r="L591" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M591">
         <v>670</v>
@@ -24591,7 +24591,7 @@
         <v>47</v>
       </c>
       <c r="L592" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M592">
         <v>550</v>
@@ -24631,7 +24631,7 @@
         <v>47</v>
       </c>
       <c r="L593" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M593">
         <v>550</v>
@@ -24671,7 +24671,7 @@
         <v>47</v>
       </c>
       <c r="L594" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M594">
         <v>550</v>
@@ -24711,7 +24711,7 @@
         <v>47</v>
       </c>
       <c r="L595" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M595">
         <v>450</v>
@@ -24751,7 +24751,7 @@
         <v>47</v>
       </c>
       <c r="L596" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M596">
         <v>350</v>
@@ -24791,7 +24791,7 @@
         <v>47</v>
       </c>
       <c r="L597" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M597">
         <v>470</v>
@@ -24831,7 +24831,7 @@
         <v>54</v>
       </c>
       <c r="L598" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M598">
         <v>2300</v>
@@ -24871,7 +24871,7 @@
         <v>56</v>
       </c>
       <c r="L599" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M599">
         <v>70</v>
@@ -24911,7 +24911,7 @@
         <v>17</v>
       </c>
       <c r="L600" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M600">
         <v>1300</v>
@@ -24951,7 +24951,7 @@
         <v>59</v>
       </c>
       <c r="L601" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M601">
         <v>180</v>
@@ -24991,7 +24991,7 @@
         <v>17</v>
       </c>
       <c r="L602" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M602">
         <v>400</v>
@@ -25031,7 +25031,7 @@
         <v>56</v>
       </c>
       <c r="L603" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M603">
         <v>60</v>
@@ -25071,7 +25071,7 @@
         <v>17</v>
       </c>
       <c r="L604" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M604">
         <v>250</v>
@@ -25111,7 +25111,7 @@
         <v>17</v>
       </c>
       <c r="L605" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M605">
         <v>1000</v>
@@ -25151,7 +25151,7 @@
         <v>17</v>
       </c>
       <c r="L606" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M606">
         <v>800</v>
@@ -25191,7 +25191,7 @@
         <v>65</v>
       </c>
       <c r="L607" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M607">
         <v>900</v>
@@ -25231,7 +25231,7 @@
         <v>65</v>
       </c>
       <c r="L608" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M608">
         <v>280</v>
@@ -25271,7 +25271,7 @@
         <v>68</v>
       </c>
       <c r="L609" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M609">
         <v>250</v>
@@ -25311,7 +25311,7 @@
         <v>17</v>
       </c>
       <c r="L610" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M610">
         <v>450</v>
@@ -25351,7 +25351,7 @@
         <v>68</v>
       </c>
       <c r="L611" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M611">
         <v>300</v>
@@ -25391,7 +25391,7 @@
         <v>31</v>
       </c>
       <c r="L612" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M612">
         <v>180</v>
@@ -25431,7 +25431,7 @@
         <v>31</v>
       </c>
       <c r="L613" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M613">
         <v>130</v>
@@ -25471,7 +25471,7 @@
         <v>31</v>
       </c>
       <c r="L614" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M614">
         <v>150</v>
@@ -25511,7 +25511,7 @@
         <v>31</v>
       </c>
       <c r="L615" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M615">
         <v>450</v>
@@ -25551,7 +25551,7 @@
         <v>31</v>
       </c>
       <c r="L616" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M616">
         <v>800</v>
@@ -25591,7 +25591,7 @@
         <v>17</v>
       </c>
       <c r="L617" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M617">
         <v>1600</v>
@@ -25631,7 +25631,7 @@
         <v>44</v>
       </c>
       <c r="L618" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M618">
         <v>350</v>
@@ -25671,7 +25671,7 @@
         <v>17</v>
       </c>
       <c r="L619" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M619">
         <v>120</v>
@@ -25711,7 +25711,7 @@
         <v>17</v>
       </c>
       <c r="L620" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M620">
         <v>450</v>
@@ -25751,7 +25751,7 @@
         <v>80</v>
       </c>
       <c r="L621" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M621">
         <v>550</v>
@@ -25791,7 +25791,7 @@
         <v>17</v>
       </c>
       <c r="L622" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M622">
         <v>120</v>
@@ -25831,7 +25831,7 @@
         <v>17</v>
       </c>
       <c r="L623" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M623">
         <v>1000</v>
@@ -25871,7 +25871,7 @@
         <v>83</v>
       </c>
       <c r="L624" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M624">
         <v>250</v>
@@ -25911,7 +25911,7 @@
         <v>80</v>
       </c>
       <c r="L625" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M625">
         <v>750</v>
@@ -25951,7 +25951,7 @@
         <v>17</v>
       </c>
       <c r="L626" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M626">
         <v>150</v>
@@ -25991,7 +25991,7 @@
         <v>80</v>
       </c>
       <c r="L627" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M627">
         <v>500</v>
@@ -26031,7 +26031,7 @@
         <v>17</v>
       </c>
       <c r="L628" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M628">
         <v>120</v>
@@ -26071,7 +26071,7 @@
         <v>44</v>
       </c>
       <c r="L629" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M629">
         <v>375</v>
@@ -26111,7 +26111,7 @@
         <v>17</v>
       </c>
       <c r="L630" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M630">
         <v>120</v>
@@ -26151,7 +26151,7 @@
         <v>44</v>
       </c>
       <c r="L631" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M631">
         <v>500</v>
@@ -26191,7 +26191,7 @@
         <v>17</v>
       </c>
       <c r="L632" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M632">
         <v>150</v>
@@ -26231,7 +26231,7 @@
         <v>44</v>
       </c>
       <c r="L633" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M633">
         <v>800</v>
@@ -26271,7 +26271,7 @@
         <v>17</v>
       </c>
       <c r="L634" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M634">
         <v>250</v>
@@ -26311,7 +26311,7 @@
         <v>47</v>
       </c>
       <c r="L635" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M635">
         <v>550</v>
@@ -26351,7 +26351,7 @@
         <v>47</v>
       </c>
       <c r="L636" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M636">
         <v>680</v>
@@ -26391,7 +26391,7 @@
         <v>47</v>
       </c>
       <c r="L637" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M637">
         <v>550</v>
@@ -26431,7 +26431,7 @@
         <v>47</v>
       </c>
       <c r="L638" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M638">
         <v>550</v>
@@ -26471,7 +26471,7 @@
         <v>47</v>
       </c>
       <c r="L639" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M639">
         <v>550</v>
@@ -26511,7 +26511,7 @@
         <v>47</v>
       </c>
       <c r="L640" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M640">
         <v>450</v>
@@ -26551,7 +26551,7 @@
         <v>47</v>
       </c>
       <c r="L641" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M641">
         <v>350</v>
@@ -26591,7 +26591,7 @@
         <v>47</v>
       </c>
       <c r="L642" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M642">
         <v>470</v>
@@ -26631,7 +26631,7 @@
         <v>54</v>
       </c>
       <c r="L643" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M643">
         <v>2300</v>
@@ -26671,7 +26671,7 @@
         <v>56</v>
       </c>
       <c r="L644" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M644">
         <v>70</v>
@@ -26711,7 +26711,7 @@
         <v>17</v>
       </c>
       <c r="L645" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M645">
         <v>1300</v>
@@ -26751,7 +26751,7 @@
         <v>59</v>
       </c>
       <c r="L646" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M646">
         <v>180</v>
@@ -26791,7 +26791,7 @@
         <v>17</v>
       </c>
       <c r="L647" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M647">
         <v>400</v>
@@ -26831,7 +26831,7 @@
         <v>56</v>
       </c>
       <c r="L648" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M648">
         <v>60</v>
@@ -26871,7 +26871,7 @@
         <v>17</v>
       </c>
       <c r="L649" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M649">
         <v>250</v>
@@ -26911,7 +26911,7 @@
         <v>17</v>
       </c>
       <c r="L650" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M650">
         <v>1000</v>
@@ -26951,7 +26951,7 @@
         <v>17</v>
       </c>
       <c r="L651" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M651">
         <v>700</v>
@@ -26991,7 +26991,7 @@
         <v>65</v>
       </c>
       <c r="L652" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M652">
         <v>1000</v>
@@ -27031,7 +27031,7 @@
         <v>65</v>
       </c>
       <c r="L653" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M653">
         <v>280</v>
@@ -27071,7 +27071,7 @@
         <v>68</v>
       </c>
       <c r="L654" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M654">
         <v>250</v>
@@ -27111,7 +27111,7 @@
         <v>17</v>
       </c>
       <c r="L655" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M655">
         <v>450</v>
@@ -27151,7 +27151,7 @@
         <v>68</v>
       </c>
       <c r="L656" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M656">
         <v>200</v>
@@ -27191,7 +27191,7 @@
         <v>31</v>
       </c>
       <c r="L657" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M657">
         <v>180</v>
@@ -27231,7 +27231,7 @@
         <v>31</v>
       </c>
       <c r="L658" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M658">
         <v>130</v>
@@ -27271,7 +27271,7 @@
         <v>31</v>
       </c>
       <c r="L659" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M659">
         <v>150</v>
@@ -27311,7 +27311,7 @@
         <v>31</v>
       </c>
       <c r="L660" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M660">
         <v>500</v>
@@ -27351,7 +27351,7 @@
         <v>31</v>
       </c>
       <c r="L661" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M661">
         <v>800</v>
@@ -27391,7 +27391,7 @@
         <v>17</v>
       </c>
       <c r="L662" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M662">
         <v>1600</v>
@@ -27431,7 +27431,7 @@
         <v>44</v>
       </c>
       <c r="L663" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M663">
         <v>350</v>
@@ -27471,7 +27471,7 @@
         <v>17</v>
       </c>
       <c r="L664" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M664">
         <v>130</v>
@@ -27511,7 +27511,7 @@
         <v>17</v>
       </c>
       <c r="L665" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M665">
         <v>450</v>
@@ -27551,7 +27551,7 @@
         <v>44</v>
       </c>
       <c r="L666" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M666">
         <v>1300</v>
@@ -27591,7 +27591,7 @@
         <v>80</v>
       </c>
       <c r="L667" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M667">
         <v>600</v>
@@ -27631,7 +27631,7 @@
         <v>17</v>
       </c>
       <c r="L668" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M668">
         <v>120</v>
@@ -27671,7 +27671,7 @@
         <v>17</v>
       </c>
       <c r="L669" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M669">
         <v>1000</v>
@@ -27711,7 +27711,7 @@
         <v>83</v>
       </c>
       <c r="L670" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M670">
         <v>250</v>
@@ -27751,7 +27751,7 @@
         <v>80</v>
       </c>
       <c r="L671" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M671">
         <v>750</v>
@@ -27791,7 +27791,7 @@
         <v>17</v>
       </c>
       <c r="L672" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M672">
         <v>150</v>
@@ -27831,7 +27831,7 @@
         <v>80</v>
       </c>
       <c r="L673" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M673">
         <v>500</v>
@@ -27871,7 +27871,7 @@
         <v>17</v>
       </c>
       <c r="L674" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M674">
         <v>120</v>
@@ -27911,7 +27911,7 @@
         <v>44</v>
       </c>
       <c r="L675" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M675">
         <v>380</v>
@@ -27951,7 +27951,7 @@
         <v>17</v>
       </c>
       <c r="L676" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M676">
         <v>120</v>
@@ -27991,7 +27991,7 @@
         <v>44</v>
       </c>
       <c r="L677" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M677">
         <v>500</v>
@@ -28031,7 +28031,7 @@
         <v>17</v>
       </c>
       <c r="L678" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M678">
         <v>150</v>
@@ -28071,7 +28071,7 @@
         <v>44</v>
       </c>
       <c r="L679" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M679">
         <v>800</v>
@@ -28111,7 +28111,7 @@
         <v>17</v>
       </c>
       <c r="L680" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M680">
         <v>250</v>
@@ -28151,7 +28151,7 @@
         <v>47</v>
       </c>
       <c r="L681" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M681">
         <v>550</v>
@@ -28191,7 +28191,7 @@
         <v>47</v>
       </c>
       <c r="L682" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M682">
         <v>680</v>
@@ -28231,7 +28231,7 @@
         <v>47</v>
       </c>
       <c r="L683" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M683">
         <v>550</v>
@@ -28271,7 +28271,7 @@
         <v>47</v>
       </c>
       <c r="L684" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M684">
         <v>550</v>
@@ -28311,7 +28311,7 @@
         <v>47</v>
       </c>
       <c r="L685" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M685">
         <v>550</v>
@@ -28351,7 +28351,7 @@
         <v>47</v>
       </c>
       <c r="L686" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M686">
         <v>450</v>
@@ -28391,7 +28391,7 @@
         <v>47</v>
       </c>
       <c r="L687" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M687">
         <v>350</v>
@@ -28431,7 +28431,7 @@
         <v>47</v>
       </c>
       <c r="L688" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M688">
         <v>470</v>
@@ -28471,7 +28471,7 @@
         <v>54</v>
       </c>
       <c r="L689" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M689">
         <v>2300</v>
@@ -28511,7 +28511,7 @@
         <v>56</v>
       </c>
       <c r="L690" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M690">
         <v>70</v>
@@ -28551,7 +28551,7 @@
         <v>17</v>
       </c>
       <c r="L691" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M691">
         <v>1300</v>
@@ -28591,7 +28591,7 @@
         <v>59</v>
       </c>
       <c r="L692" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M692">
         <v>180</v>
@@ -28631,7 +28631,7 @@
         <v>17</v>
       </c>
       <c r="L693" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M693">
         <v>400</v>
@@ -28671,7 +28671,7 @@
         <v>56</v>
       </c>
       <c r="L694" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M694">
         <v>60</v>
@@ -28711,7 +28711,7 @@
         <v>17</v>
       </c>
       <c r="L695" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M695">
         <v>250</v>
@@ -28751,7 +28751,7 @@
         <v>17</v>
       </c>
       <c r="L696" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M696">
         <v>1000</v>
@@ -28791,7 +28791,7 @@
         <v>17</v>
       </c>
       <c r="L697" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M697">
         <v>700</v>
@@ -28831,7 +28831,7 @@
         <v>65</v>
       </c>
       <c r="L698" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M698">
         <v>1000</v>
@@ -28871,7 +28871,7 @@
         <v>65</v>
       </c>
       <c r="L699" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M699">
         <v>280</v>
@@ -28911,7 +28911,7 @@
         <v>68</v>
       </c>
       <c r="L700" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M700">
         <v>250</v>
@@ -28951,7 +28951,7 @@
         <v>17</v>
       </c>
       <c r="L701" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M701">
         <v>450</v>
@@ -28991,7 +28991,7 @@
         <v>68</v>
       </c>
       <c r="L702" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M702">
         <v>200</v>
@@ -29031,7 +29031,7 @@
         <v>31</v>
       </c>
       <c r="L703" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M703">
         <v>180</v>
@@ -29071,7 +29071,7 @@
         <v>31</v>
       </c>
       <c r="L704" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M704">
         <v>130</v>
@@ -29111,7 +29111,7 @@
         <v>31</v>
       </c>
       <c r="L705" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M705">
         <v>150</v>
@@ -29151,7 +29151,7 @@
         <v>31</v>
       </c>
       <c r="L706" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M706">
         <v>500</v>
@@ -29191,7 +29191,7 @@
         <v>31</v>
       </c>
       <c r="L707" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M707">
         <v>800</v>
@@ -29231,7 +29231,7 @@
         <v>17</v>
       </c>
       <c r="L708" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M708">
         <v>1600</v>
@@ -29271,7 +29271,7 @@
         <v>44</v>
       </c>
       <c r="L709" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M709">
         <v>350</v>
@@ -29311,7 +29311,7 @@
         <v>17</v>
       </c>
       <c r="L710" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M710">
         <v>130</v>
@@ -29351,7 +29351,7 @@
         <v>17</v>
       </c>
       <c r="L711" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M711">
         <v>450</v>
@@ -29391,7 +29391,7 @@
         <v>44</v>
       </c>
       <c r="L712" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M712">
         <v>1300</v>
@@ -29431,7 +29431,7 @@
         <v>80</v>
       </c>
       <c r="L713" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M713">
         <v>600</v>
@@ -29471,7 +29471,7 @@
         <v>17</v>
       </c>
       <c r="L714" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M714">
         <v>120</v>
@@ -29511,7 +29511,7 @@
         <v>17</v>
       </c>
       <c r="L715" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M715">
         <v>1000</v>
@@ -29551,7 +29551,7 @@
         <v>83</v>
       </c>
       <c r="L716" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M716">
         <v>250</v>
@@ -29591,7 +29591,7 @@
         <v>80</v>
       </c>
       <c r="L717" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M717">
         <v>750</v>
@@ -29631,7 +29631,7 @@
         <v>17</v>
       </c>
       <c r="L718" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M718">
         <v>150</v>
@@ -29671,7 +29671,7 @@
         <v>80</v>
       </c>
       <c r="L719" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M719">
         <v>500</v>
@@ -29711,7 +29711,7 @@
         <v>17</v>
       </c>
       <c r="L720" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M720">
         <v>120</v>
@@ -29751,7 +29751,7 @@
         <v>44</v>
       </c>
       <c r="L721" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M721">
         <v>380</v>
@@ -29791,7 +29791,7 @@
         <v>17</v>
       </c>
       <c r="L722" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M722">
         <v>120</v>
@@ -29831,7 +29831,7 @@
         <v>44</v>
       </c>
       <c r="L723" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M723">
         <v>500</v>
@@ -29871,7 +29871,7 @@
         <v>17</v>
       </c>
       <c r="L724" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M724">
         <v>150</v>
@@ -29911,7 +29911,7 @@
         <v>44</v>
       </c>
       <c r="L725" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M725">
         <v>800</v>
@@ -29951,7 +29951,7 @@
         <v>17</v>
       </c>
       <c r="L726" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M726">
         <v>250</v>
@@ -29991,7 +29991,7 @@
         <v>47</v>
       </c>
       <c r="L727" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M727">
         <v>550</v>
@@ -30031,7 +30031,7 @@
         <v>47</v>
       </c>
       <c r="L728" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M728">
         <v>670</v>
@@ -30071,7 +30071,7 @@
         <v>47</v>
       </c>
       <c r="L729" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M729">
         <v>550</v>
@@ -30111,7 +30111,7 @@
         <v>47</v>
       </c>
       <c r="L730" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M730">
         <v>550</v>
@@ -30151,7 +30151,7 @@
         <v>47</v>
       </c>
       <c r="L731" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M731">
         <v>550</v>
@@ -30191,7 +30191,7 @@
         <v>47</v>
       </c>
       <c r="L732" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M732">
         <v>450</v>
@@ -30231,7 +30231,7 @@
         <v>47</v>
       </c>
       <c r="L733" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M733">
         <v>350</v>
@@ -30271,7 +30271,7 @@
         <v>47</v>
       </c>
       <c r="L734" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M734">
         <v>470</v>
@@ -30311,7 +30311,7 @@
         <v>54</v>
       </c>
       <c r="L735" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M735">
         <v>2300</v>
@@ -30351,7 +30351,7 @@
         <v>56</v>
       </c>
       <c r="L736" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M736">
         <v>70</v>
@@ -30391,7 +30391,7 @@
         <v>17</v>
       </c>
       <c r="L737" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M737">
         <v>1300</v>
@@ -30431,7 +30431,7 @@
         <v>59</v>
       </c>
       <c r="L738" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M738">
         <v>180</v>
@@ -30471,7 +30471,7 @@
         <v>17</v>
       </c>
       <c r="L739" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M739">
         <v>400</v>
@@ -30511,7 +30511,7 @@
         <v>56</v>
       </c>
       <c r="L740" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M740">
         <v>60</v>
@@ -30551,7 +30551,7 @@
         <v>17</v>
       </c>
       <c r="L741" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M741">
         <v>250</v>
@@ -30591,7 +30591,7 @@
         <v>17</v>
       </c>
       <c r="L742" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M742">
         <v>1000</v>
@@ -30631,7 +30631,7 @@
         <v>17</v>
       </c>
       <c r="L743" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M743">
         <v>800</v>
@@ -30671,7 +30671,7 @@
         <v>65</v>
       </c>
       <c r="L744" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M744">
         <v>900</v>
@@ -30711,7 +30711,7 @@
         <v>65</v>
       </c>
       <c r="L745" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M745">
         <v>280</v>
@@ -30751,7 +30751,7 @@
         <v>68</v>
       </c>
       <c r="L746" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M746">
         <v>250</v>
@@ -30791,7 +30791,7 @@
         <v>17</v>
       </c>
       <c r="L747" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M747">
         <v>450</v>
@@ -30831,7 +30831,7 @@
         <v>68</v>
       </c>
       <c r="L748" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M748">
         <v>200</v>
@@ -30871,7 +30871,7 @@
         <v>31</v>
       </c>
       <c r="L749" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M749">
         <v>180</v>
@@ -30911,7 +30911,7 @@
         <v>31</v>
       </c>
       <c r="L750" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M750">
         <v>130</v>
@@ -30951,7 +30951,7 @@
         <v>31</v>
       </c>
       <c r="L751" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M751">
         <v>150</v>
@@ -30991,7 +30991,7 @@
         <v>31</v>
       </c>
       <c r="L752" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M752">
         <v>450</v>
@@ -31031,7 +31031,7 @@
         <v>31</v>
       </c>
       <c r="L753" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M753">
         <v>800</v>
@@ -31071,7 +31071,7 @@
         <v>17</v>
       </c>
       <c r="L754" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M754">
         <v>1600</v>
@@ -31111,7 +31111,7 @@
         <v>44</v>
       </c>
       <c r="L755" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M755">
         <v>350</v>
@@ -31151,7 +31151,7 @@
         <v>17</v>
       </c>
       <c r="L756" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M756">
         <v>120</v>
@@ -31191,7 +31191,7 @@
         <v>17</v>
       </c>
       <c r="L757" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M757">
         <v>450</v>
@@ -31231,7 +31231,7 @@
         <v>44</v>
       </c>
       <c r="L758" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M758">
         <v>1300</v>
@@ -31271,7 +31271,7 @@
         <v>80</v>
       </c>
       <c r="L759" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M759">
         <v>500</v>
@@ -31311,7 +31311,7 @@
         <v>17</v>
       </c>
       <c r="L760" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M760">
         <v>120</v>
@@ -31351,7 +31351,7 @@
         <v>17</v>
       </c>
       <c r="L761" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M761">
         <v>900</v>
@@ -31391,7 +31391,7 @@
         <v>83</v>
       </c>
       <c r="L762" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M762">
         <v>250</v>
@@ -31431,7 +31431,7 @@
         <v>80</v>
       </c>
       <c r="L763" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M763">
         <v>750</v>
@@ -31471,7 +31471,7 @@
         <v>17</v>
       </c>
       <c r="L764" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M764">
         <v>130</v>
@@ -31511,7 +31511,7 @@
         <v>80</v>
       </c>
       <c r="L765" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M765">
         <v>500</v>
@@ -31551,7 +31551,7 @@
         <v>17</v>
       </c>
       <c r="L766" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M766">
         <v>120</v>
@@ -31591,7 +31591,7 @@
         <v>44</v>
       </c>
       <c r="L767" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M767">
         <v>380</v>
@@ -31631,7 +31631,7 @@
         <v>17</v>
       </c>
       <c r="L768" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M768">
         <v>120</v>
@@ -31671,7 +31671,7 @@
         <v>44</v>
       </c>
       <c r="L769" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M769">
         <v>500</v>
@@ -31711,7 +31711,7 @@
         <v>17</v>
       </c>
       <c r="L770" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M770">
         <v>140</v>
@@ -31751,7 +31751,7 @@
         <v>44</v>
       </c>
       <c r="L771" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M771">
         <v>800</v>
@@ -31791,7 +31791,7 @@
         <v>17</v>
       </c>
       <c r="L772" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M772">
         <v>250</v>
@@ -31831,7 +31831,7 @@
         <v>47</v>
       </c>
       <c r="L773" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M773">
         <v>550</v>
@@ -31871,7 +31871,7 @@
         <v>47</v>
       </c>
       <c r="L774" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M774">
         <v>670</v>
@@ -31911,7 +31911,7 @@
         <v>47</v>
       </c>
       <c r="L775" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M775">
         <v>550</v>
@@ -31951,7 +31951,7 @@
         <v>47</v>
       </c>
       <c r="L776" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M776">
         <v>550</v>
@@ -31991,7 +31991,7 @@
         <v>47</v>
       </c>
       <c r="L777" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M777">
         <v>550</v>
@@ -32031,7 +32031,7 @@
         <v>47</v>
       </c>
       <c r="L778" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M778">
         <v>450</v>
@@ -32071,7 +32071,7 @@
         <v>47</v>
       </c>
       <c r="L779" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M779">
         <v>350</v>
@@ -32111,7 +32111,7 @@
         <v>47</v>
       </c>
       <c r="L780" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M780">
         <v>470</v>
@@ -32151,7 +32151,7 @@
         <v>54</v>
       </c>
       <c r="L781" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M781">
         <v>2300</v>
@@ -32191,7 +32191,7 @@
         <v>56</v>
       </c>
       <c r="L782" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M782">
         <v>70</v>
@@ -32231,7 +32231,7 @@
         <v>17</v>
       </c>
       <c r="L783" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M783">
         <v>1300</v>
@@ -32271,7 +32271,7 @@
         <v>59</v>
       </c>
       <c r="L784" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M784">
         <v>180</v>
@@ -32311,7 +32311,7 @@
         <v>17</v>
       </c>
       <c r="L785" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M785">
         <v>400</v>
@@ -32351,7 +32351,7 @@
         <v>56</v>
       </c>
       <c r="L786" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M786">
         <v>60</v>
@@ -32391,7 +32391,7 @@
         <v>17</v>
       </c>
       <c r="L787" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M787">
         <v>250</v>
@@ -32431,7 +32431,7 @@
         <v>17</v>
       </c>
       <c r="L788" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M788">
         <v>1000</v>
@@ -32471,7 +32471,7 @@
         <v>17</v>
       </c>
       <c r="L789" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M789">
         <v>800</v>
@@ -32511,7 +32511,7 @@
         <v>65</v>
       </c>
       <c r="L790" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M790">
         <v>900</v>
@@ -32551,7 +32551,7 @@
         <v>65</v>
       </c>
       <c r="L791" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M791">
         <v>280</v>
@@ -32591,7 +32591,7 @@
         <v>68</v>
       </c>
       <c r="L792" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M792">
         <v>250</v>
@@ -32631,7 +32631,7 @@
         <v>17</v>
       </c>
       <c r="L793" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M793">
         <v>450</v>
@@ -32671,7 +32671,7 @@
         <v>68</v>
       </c>
       <c r="L794" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M794">
         <v>300</v>
@@ -32711,7 +32711,7 @@
         <v>31</v>
       </c>
       <c r="L795" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M795">
         <v>180</v>
@@ -32751,7 +32751,7 @@
         <v>31</v>
       </c>
       <c r="L796" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M796">
         <v>130</v>
@@ -32791,7 +32791,7 @@
         <v>31</v>
       </c>
       <c r="L797" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M797">
         <v>150</v>
@@ -32831,7 +32831,7 @@
         <v>31</v>
       </c>
       <c r="L798" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M798">
         <v>450</v>
@@ -32871,7 +32871,7 @@
         <v>31</v>
       </c>
       <c r="L799" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M799">
         <v>800</v>
@@ -32911,7 +32911,7 @@
         <v>17</v>
       </c>
       <c r="L800" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M800">
         <v>1600</v>
@@ -32951,7 +32951,7 @@
         <v>44</v>
       </c>
       <c r="L801" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M801">
         <v>350</v>
@@ -32991,7 +32991,7 @@
         <v>17</v>
       </c>
       <c r="L802" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M802">
         <v>120</v>
@@ -33031,7 +33031,7 @@
         <v>17</v>
       </c>
       <c r="L803" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M803">
         <v>450</v>
@@ -33071,7 +33071,7 @@
         <v>80</v>
       </c>
       <c r="L804" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M804">
         <v>550</v>
@@ -33111,7 +33111,7 @@
         <v>17</v>
       </c>
       <c r="L805" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M805">
         <v>120</v>
@@ -33151,7 +33151,7 @@
         <v>17</v>
       </c>
       <c r="L806" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M806">
         <v>1000</v>
@@ -33191,7 +33191,7 @@
         <v>83</v>
       </c>
       <c r="L807" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M807">
         <v>250</v>
@@ -33231,7 +33231,7 @@
         <v>80</v>
       </c>
       <c r="L808" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M808">
         <v>750</v>
@@ -33271,7 +33271,7 @@
         <v>17</v>
       </c>
       <c r="L809" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M809">
         <v>150</v>
@@ -33311,7 +33311,7 @@
         <v>80</v>
       </c>
       <c r="L810" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M810">
         <v>500</v>
@@ -33351,7 +33351,7 @@
         <v>17</v>
       </c>
       <c r="L811" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M811">
         <v>120</v>
@@ -33391,7 +33391,7 @@
         <v>44</v>
       </c>
       <c r="L812" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M812">
         <v>375</v>
@@ -33431,7 +33431,7 @@
         <v>17</v>
       </c>
       <c r="L813" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M813">
         <v>120</v>
@@ -33471,7 +33471,7 @@
         <v>44</v>
       </c>
       <c r="L814" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M814">
         <v>500</v>
@@ -33511,7 +33511,7 @@
         <v>17</v>
       </c>
       <c r="L815" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M815">
         <v>150</v>
@@ -33551,7 +33551,7 @@
         <v>44</v>
       </c>
       <c r="L816" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M816">
         <v>800</v>
@@ -33591,7 +33591,7 @@
         <v>17</v>
       </c>
       <c r="L817" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M817">
         <v>250</v>
@@ -33631,7 +33631,7 @@
         <v>47</v>
       </c>
       <c r="L818" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M818">
         <v>550</v>
@@ -33671,7 +33671,7 @@
         <v>47</v>
       </c>
       <c r="L819" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M819">
         <v>670</v>
@@ -33711,7 +33711,7 @@
         <v>47</v>
       </c>
       <c r="L820" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M820">
         <v>550</v>
@@ -33751,7 +33751,7 @@
         <v>47</v>
       </c>
       <c r="L821" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M821">
         <v>550</v>
@@ -33791,7 +33791,7 @@
         <v>47</v>
       </c>
       <c r="L822" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M822">
         <v>550</v>
@@ -33831,7 +33831,7 @@
         <v>47</v>
       </c>
       <c r="L823" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M823">
         <v>450</v>
@@ -33871,7 +33871,7 @@
         <v>47</v>
       </c>
       <c r="L824" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M824">
         <v>350</v>
@@ -33911,7 +33911,7 @@
         <v>47</v>
       </c>
       <c r="L825" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M825">
         <v>470</v>
@@ -33951,7 +33951,7 @@
         <v>54</v>
       </c>
       <c r="L826" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M826">
         <v>2300</v>
@@ -33991,7 +33991,7 @@
         <v>56</v>
       </c>
       <c r="L827" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M827">
         <v>70</v>
@@ -34031,7 +34031,7 @@
         <v>17</v>
       </c>
       <c r="L828" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M828">
         <v>1300</v>
@@ -34071,7 +34071,7 @@
         <v>59</v>
       </c>
       <c r="L829" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M829">
         <v>180</v>
@@ -34111,7 +34111,7 @@
         <v>17</v>
       </c>
       <c r="L830" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M830">
         <v>400</v>
@@ -34151,7 +34151,7 @@
         <v>56</v>
       </c>
       <c r="L831" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M831">
         <v>60</v>
@@ -34191,7 +34191,7 @@
         <v>17</v>
       </c>
       <c r="L832" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M832">
         <v>250</v>
@@ -34231,7 +34231,7 @@
         <v>17</v>
       </c>
       <c r="L833" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M833">
         <v>1000</v>
@@ -34271,7 +34271,7 @@
         <v>17</v>
       </c>
       <c r="L834" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M834">
         <v>800</v>
@@ -34311,7 +34311,7 @@
         <v>65</v>
       </c>
       <c r="L835" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M835">
         <v>900</v>
@@ -34351,7 +34351,7 @@
         <v>65</v>
       </c>
       <c r="L836" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M836">
         <v>280</v>
@@ -34391,7 +34391,7 @@
         <v>68</v>
       </c>
       <c r="L837" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M837">
         <v>250</v>
@@ -34431,7 +34431,7 @@
         <v>17</v>
       </c>
       <c r="L838" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M838">
         <v>450</v>
@@ -34471,7 +34471,7 @@
         <v>68</v>
       </c>
       <c r="L839" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M839">
         <v>300</v>
@@ -34511,7 +34511,7 @@
         <v>31</v>
       </c>
       <c r="L840" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M840">
         <v>180</v>
@@ -34551,7 +34551,7 @@
         <v>31</v>
       </c>
       <c r="L841" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M841">
         <v>130</v>
@@ -34591,7 +34591,7 @@
         <v>31</v>
       </c>
       <c r="L842" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M842">
         <v>150</v>
@@ -34631,7 +34631,7 @@
         <v>31</v>
       </c>
       <c r="L843" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M843">
         <v>450</v>
@@ -34671,7 +34671,7 @@
         <v>31</v>
       </c>
       <c r="L844" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M844">
         <v>800</v>
@@ -34711,7 +34711,7 @@
         <v>17</v>
       </c>
       <c r="L845" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M845">
         <v>1600</v>
@@ -34751,7 +34751,7 @@
         <v>44</v>
       </c>
       <c r="L846" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M846">
         <v>350</v>
@@ -34791,7 +34791,7 @@
         <v>17</v>
       </c>
       <c r="L847" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M847">
         <v>120</v>
@@ -34831,7 +34831,7 @@
         <v>17</v>
       </c>
       <c r="L848" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M848">
         <v>450</v>
@@ -34871,7 +34871,7 @@
         <v>80</v>
       </c>
       <c r="L849" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M849">
         <v>550</v>
@@ -34911,7 +34911,7 @@
         <v>17</v>
       </c>
       <c r="L850" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M850">
         <v>120</v>
@@ -34951,7 +34951,7 @@
         <v>17</v>
       </c>
       <c r="L851" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M851">
         <v>1000</v>
@@ -34991,7 +34991,7 @@
         <v>83</v>
       </c>
       <c r="L852" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M852">
         <v>250</v>
@@ -35031,7 +35031,7 @@
         <v>80</v>
       </c>
       <c r="L853" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M853">
         <v>750</v>
@@ -35071,7 +35071,7 @@
         <v>17</v>
       </c>
       <c r="L854" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M854">
         <v>150</v>
@@ -35111,7 +35111,7 @@
         <v>80</v>
       </c>
       <c r="L855" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M855">
         <v>500</v>
@@ -35151,7 +35151,7 @@
         <v>17</v>
       </c>
       <c r="L856" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M856">
         <v>120</v>
@@ -35191,7 +35191,7 @@
         <v>44</v>
       </c>
       <c r="L857" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M857">
         <v>375</v>
@@ -35231,7 +35231,7 @@
         <v>17</v>
       </c>
       <c r="L858" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M858">
         <v>120</v>
@@ -35271,7 +35271,7 @@
         <v>44</v>
       </c>
       <c r="L859" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M859">
         <v>500</v>
@@ -35311,7 +35311,7 @@
         <v>17</v>
       </c>
       <c r="L860" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M860">
         <v>150</v>
@@ -35351,7 +35351,7 @@
         <v>44</v>
       </c>
       <c r="L861" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M861">
         <v>800</v>
@@ -35391,7 +35391,7 @@
         <v>17</v>
       </c>
       <c r="L862" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M862">
         <v>250</v>
@@ -35431,7 +35431,7 @@
         <v>47</v>
       </c>
       <c r="L863" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M863">
         <v>550</v>
@@ -35471,7 +35471,7 @@
         <v>47</v>
       </c>
       <c r="L864" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M864">
         <v>680</v>
@@ -35511,7 +35511,7 @@
         <v>47</v>
       </c>
       <c r="L865" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M865">
         <v>550</v>
@@ -35551,7 +35551,7 @@
         <v>47</v>
       </c>
       <c r="L866" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M866">
         <v>550</v>
@@ -35591,7 +35591,7 @@
         <v>47</v>
       </c>
       <c r="L867" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M867">
         <v>550</v>
@@ -35631,7 +35631,7 @@
         <v>47</v>
       </c>
       <c r="L868" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M868">
         <v>450</v>
@@ -35671,7 +35671,7 @@
         <v>47</v>
       </c>
       <c r="L869" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M869">
         <v>350</v>
@@ -35711,7 +35711,7 @@
         <v>47</v>
       </c>
       <c r="L870" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M870">
         <v>470</v>
@@ -35751,7 +35751,7 @@
         <v>54</v>
       </c>
       <c r="L871" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M871">
         <v>2300</v>
@@ -35791,7 +35791,7 @@
         <v>56</v>
       </c>
       <c r="L872" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M872">
         <v>70</v>
@@ -35831,7 +35831,7 @@
         <v>17</v>
       </c>
       <c r="L873" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M873">
         <v>1300</v>
@@ -35871,7 +35871,7 @@
         <v>59</v>
       </c>
       <c r="L874" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M874">
         <v>180</v>
@@ -35911,7 +35911,7 @@
         <v>17</v>
       </c>
       <c r="L875" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M875">
         <v>400</v>
@@ -35951,7 +35951,7 @@
         <v>56</v>
       </c>
       <c r="L876" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M876">
         <v>60</v>
@@ -35991,7 +35991,7 @@
         <v>17</v>
       </c>
       <c r="L877" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M877">
         <v>250</v>
@@ -36031,7 +36031,7 @@
         <v>17</v>
       </c>
       <c r="L878" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M878">
         <v>1000</v>
@@ -36071,7 +36071,7 @@
         <v>17</v>
       </c>
       <c r="L879" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M879">
         <v>700</v>
@@ -36111,7 +36111,7 @@
         <v>65</v>
       </c>
       <c r="L880" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M880">
         <v>1000</v>
@@ -36151,7 +36151,7 @@
         <v>65</v>
       </c>
       <c r="L881" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M881">
         <v>280</v>
@@ -36191,7 +36191,7 @@
         <v>68</v>
       </c>
       <c r="L882" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M882">
         <v>250</v>
@@ -36231,7 +36231,7 @@
         <v>17</v>
       </c>
       <c r="L883" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M883">
         <v>450</v>
@@ -36271,7 +36271,7 @@
         <v>68</v>
       </c>
       <c r="L884" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M884">
         <v>200</v>
@@ -36311,7 +36311,7 @@
         <v>31</v>
       </c>
       <c r="L885" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M885">
         <v>180</v>
@@ -36351,7 +36351,7 @@
         <v>31</v>
       </c>
       <c r="L886" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M886">
         <v>130</v>
@@ -36391,7 +36391,7 @@
         <v>31</v>
       </c>
       <c r="L887" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M887">
         <v>150</v>
@@ -36431,7 +36431,7 @@
         <v>31</v>
       </c>
       <c r="L888" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M888">
         <v>500</v>
@@ -36471,7 +36471,7 @@
         <v>31</v>
       </c>
       <c r="L889" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M889">
         <v>800</v>
@@ -36511,7 +36511,7 @@
         <v>17</v>
       </c>
       <c r="L890" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M890">
         <v>1600</v>
@@ -36551,7 +36551,7 @@
         <v>44</v>
       </c>
       <c r="L891" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M891">
         <v>350</v>
@@ -36591,7 +36591,7 @@
         <v>17</v>
       </c>
       <c r="L892" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M892">
         <v>130</v>
@@ -36631,7 +36631,7 @@
         <v>17</v>
       </c>
       <c r="L893" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M893">
         <v>450</v>
@@ -36671,7 +36671,7 @@
         <v>44</v>
       </c>
       <c r="L894" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M894">
         <v>1300</v>
@@ -36711,7 +36711,7 @@
         <v>80</v>
       </c>
       <c r="L895" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M895">
         <v>600</v>
@@ -36751,7 +36751,7 @@
         <v>17</v>
       </c>
       <c r="L896" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M896">
         <v>120</v>
@@ -36791,7 +36791,7 @@
         <v>17</v>
       </c>
       <c r="L897" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M897">
         <v>1000</v>
@@ -36831,7 +36831,7 @@
         <v>83</v>
       </c>
       <c r="L898" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M898">
         <v>250</v>
@@ -36871,7 +36871,7 @@
         <v>80</v>
       </c>
       <c r="L899" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M899">
         <v>750</v>
@@ -36911,7 +36911,7 @@
         <v>17</v>
       </c>
       <c r="L900" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M900">
         <v>150</v>
@@ -36951,7 +36951,7 @@
         <v>80</v>
       </c>
       <c r="L901" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M901">
         <v>500</v>
@@ -36991,7 +36991,7 @@
         <v>17</v>
       </c>
       <c r="L902" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M902">
         <v>120</v>
@@ -37031,7 +37031,7 @@
         <v>44</v>
       </c>
       <c r="L903" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M903">
         <v>380</v>
@@ -37071,7 +37071,7 @@
         <v>17</v>
       </c>
       <c r="L904" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M904">
         <v>120</v>
@@ -37111,7 +37111,7 @@
         <v>44</v>
       </c>
       <c r="L905" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M905">
         <v>500</v>
@@ -37151,7 +37151,7 @@
         <v>17</v>
       </c>
       <c r="L906" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M906">
         <v>150</v>
@@ -37191,7 +37191,7 @@
         <v>44</v>
       </c>
       <c r="L907" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M907">
         <v>800</v>
@@ -37231,7 +37231,7 @@
         <v>17</v>
       </c>
       <c r="L908" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M908">
         <v>250</v>

--- a/InformacionProcesada/2020/Insumos/Insumos_2020.xlsx
+++ b/InformacionProcesada/2020/Insumos/Insumos_2020.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Industria-IPAC2020\InformacionProcesada\2020\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60147C0A-E92F-4BC3-9991-A6A7D1AFBC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959FEAB-452E-434E-81D9-AE45072B24DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97CCBDFA-47DF-4496-8978-538CCE7392DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Hoja2!$A$1:$N$909</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Hoja1!$A$1:$N$909</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -997,7 +996,7 @@
   <dimension ref="A1:N909"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A851" workbookViewId="0">
-      <selection activeCell="L854" sqref="L854"/>
+      <selection activeCell="M854" sqref="M854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35073,9 +35072,6 @@
       <c r="L854" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M854">
-        <v>150</v>
-      </c>
       <c r="N854">
         <v>150</v>
       </c>
@@ -37255,18 +37251,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D548AD87-4010-469C-A95C-19CB22A2A819}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/InformacionProcesada/2020/Insumos/Insumos_2020.xlsx
+++ b/InformacionProcesada/2020/Insumos/Insumos_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Office_Documents\UNAH\Industria del Software\Proyecto\Industria-IPAC2020\InformacionProcesada\2020\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D731E6A3-10CB-4256-8207-DDB155371245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431949D1-B653-45E9-9557-778DC9413CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{97CCBDFA-47DF-4496-8978-538CCE7392DC}"/>
   </bookViews>
@@ -527,9 +527,6 @@
     <t>Mercado</t>
   </si>
   <si>
-    <t>Tipo Producto</t>
-  </si>
-  <si>
     <t>Año</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>Precio alto</t>
+  </si>
+  <si>
+    <t>Tipo de Producto</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{94B916F2-E1A1-47EC-BF46-9A0843928C45}" uniqueName="1" name="Ciudad" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D922C828-5779-4207-9635-B573E5E0D745}" uniqueName="2" name="Mercado" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{34DC7457-FCE4-4742-B308-A7D6230B1C7D}" uniqueName="3" name="Tipo Producto" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{34DC7457-FCE4-4742-B308-A7D6230B1C7D}" uniqueName="3" name="Tipo de Producto" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{33E7425F-8CD1-4BD1-BAFF-4BBBCDD090FA}" uniqueName="4" name="Año" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{2623ACF1-A1D1-4F87-8865-6CB253A79437}" uniqueName="5" name="Mes" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{41048001-154C-4228-8381-A7ABACD341AE}" uniqueName="6" name="Día" queryTableFieldId="6"/>
@@ -987,14 +987,14 @@
   <dimension ref="A1:N901"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N847" sqref="N847"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" customWidth="1"/>
@@ -1014,40 +1014,40 @@
         <v>160</v>
       </c>
       <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
         <v>163</v>
-      </c>
-      <c r="F1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" t="s">
         <v>165</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>166</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>167</v>
-      </c>
       <c r="M1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" t="s">
         <v>171</v>
-      </c>
-      <c r="N1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M2">
         <v>755</v>
@@ -1121,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M3">
         <v>620</v>
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M4">
         <v>518</v>
@@ -1201,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M5">
         <v>520</v>
@@ -1241,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M6">
         <v>950</v>
@@ -1281,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M7">
         <v>995</v>
@@ -1321,7 +1321,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M8">
         <v>820</v>
@@ -1361,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M9">
         <v>1000</v>
@@ -1401,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M10">
         <v>1050</v>
@@ -1441,7 +1441,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M11">
         <v>880</v>
@@ -1481,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M12">
         <v>600</v>
@@ -1521,7 +1521,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M13">
         <v>920</v>
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M14">
         <v>240</v>
@@ -1601,7 +1601,7 @@
         <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M15">
         <v>198</v>
@@ -1641,7 +1641,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M16">
         <v>490</v>
@@ -1681,7 +1681,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M17">
         <v>485</v>
@@ -1721,7 +1721,7 @@
         <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M18">
         <v>620</v>
@@ -1761,7 +1761,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M19">
         <v>550</v>
@@ -1801,7 +1801,7 @@
         <v>29</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M20">
         <v>680</v>
@@ -1841,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M21">
         <v>400</v>
@@ -1881,7 +1881,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M22">
         <v>185</v>
@@ -1921,7 +1921,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M23">
         <v>200</v>
@@ -1961,7 +1961,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M24">
         <v>220</v>
@@ -2001,7 +2001,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M25">
         <v>250</v>
@@ -2041,7 +2041,7 @@
         <v>37</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M26">
         <v>350</v>
@@ -2081,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M27">
         <v>184</v>
@@ -2121,7 +2121,7 @@
         <v>17</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M28">
         <v>185</v>
@@ -2161,7 +2161,7 @@
         <v>17</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M29">
         <v>194</v>
@@ -2201,7 +2201,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M30">
         <v>170</v>
@@ -2241,7 +2241,7 @@
         <v>17</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M31">
         <v>685</v>
@@ -2281,7 +2281,7 @@
         <v>17</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M32">
         <v>400</v>
@@ -2321,7 +2321,7 @@
         <v>44</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M33">
         <v>1260</v>
@@ -2361,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M34">
         <v>755</v>
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M35">
         <v>620</v>
@@ -2441,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M36">
         <v>520</v>
@@ -2481,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M37">
         <v>520</v>
@@ -2521,7 +2521,7 @@
         <v>6</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M38">
         <v>950</v>
@@ -2561,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M39">
         <v>995</v>
@@ -2601,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M40">
         <v>820</v>
@@ -2641,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M41">
         <v>1000</v>
@@ -2681,7 +2681,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M42">
         <v>1000</v>
@@ -2721,7 +2721,7 @@
         <v>17</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M43">
         <v>880</v>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M44">
         <v>600</v>
@@ -2801,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M45">
         <v>920</v>
@@ -2841,7 +2841,7 @@
         <v>17</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M46">
         <v>240</v>
@@ -2881,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M47">
         <v>200</v>
@@ -2921,7 +2921,7 @@
         <v>17</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M48">
         <v>490</v>
@@ -2961,7 +2961,7 @@
         <v>24</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M49">
         <v>490</v>
@@ -3001,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M50">
         <v>620</v>
@@ -3041,7 +3041,7 @@
         <v>27</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M51">
         <v>550</v>
@@ -3081,7 +3081,7 @@
         <v>29</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M52">
         <v>680</v>
@@ -3121,7 +3121,7 @@
         <v>31</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M53">
         <v>400</v>
@@ -3161,7 +3161,7 @@
         <v>17</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M54">
         <v>185</v>
@@ -3201,7 +3201,7 @@
         <v>31</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M55">
         <v>200</v>
@@ -3241,7 +3241,7 @@
         <v>31</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M56">
         <v>220</v>
@@ -3281,7 +3281,7 @@
         <v>31</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M57">
         <v>250</v>
@@ -3321,7 +3321,7 @@
         <v>37</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M58">
         <v>350</v>
@@ -3361,7 +3361,7 @@
         <v>31</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M59">
         <v>185</v>
@@ -3401,7 +3401,7 @@
         <v>17</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M60">
         <v>185</v>
@@ -3441,7 +3441,7 @@
         <v>17</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M61">
         <v>194</v>
@@ -3481,7 +3481,7 @@
         <v>17</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M62">
         <v>170</v>
@@ -3521,7 +3521,7 @@
         <v>17</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M63">
         <v>685</v>
@@ -3561,7 +3561,7 @@
         <v>17</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M64">
         <v>400</v>
@@ -3601,7 +3601,7 @@
         <v>44</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M65">
         <v>1260</v>
@@ -3641,7 +3641,7 @@
         <v>6</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M66">
         <v>760</v>
@@ -3681,7 +3681,7 @@
         <v>6</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M67">
         <v>630</v>
@@ -3721,7 +3721,7 @@
         <v>6</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M68">
         <v>520</v>
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M69">
         <v>520</v>
@@ -3801,7 +3801,7 @@
         <v>6</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M70">
         <v>950</v>
@@ -3841,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M71">
         <v>980</v>
@@ -3881,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M72">
         <v>820</v>
@@ -3921,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M73">
         <v>1000</v>
@@ -3961,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M74">
         <v>1000</v>
@@ -4001,7 +4001,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M75">
         <v>870</v>
@@ -4041,7 +4041,7 @@
         <v>12</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M76">
         <v>600</v>
@@ -4081,7 +4081,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M77">
         <v>920</v>
@@ -4121,7 +4121,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M78">
         <v>240</v>
@@ -4161,7 +4161,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M79">
         <v>200</v>
@@ -4201,7 +4201,7 @@
         <v>17</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M80">
         <v>490</v>
@@ -4241,7 +4241,7 @@
         <v>24</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M81">
         <v>490</v>
@@ -4281,7 +4281,7 @@
         <v>17</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M82">
         <v>620</v>
@@ -4321,7 +4321,7 @@
         <v>27</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M83">
         <v>550</v>
@@ -4361,7 +4361,7 @@
         <v>29</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M84">
         <v>680</v>
@@ -4401,7 +4401,7 @@
         <v>31</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M85">
         <v>400</v>
@@ -4441,7 +4441,7 @@
         <v>17</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M86">
         <v>185</v>
@@ -4481,7 +4481,7 @@
         <v>31</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M87">
         <v>200</v>
@@ -4521,7 +4521,7 @@
         <v>31</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M88">
         <v>220</v>
@@ -4561,7 +4561,7 @@
         <v>31</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M89">
         <v>250</v>
@@ -4601,7 +4601,7 @@
         <v>37</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M90">
         <v>350</v>
@@ -4641,7 +4641,7 @@
         <v>31</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M91">
         <v>185</v>
@@ -4681,7 +4681,7 @@
         <v>17</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M92">
         <v>185</v>
@@ -4721,7 +4721,7 @@
         <v>17</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M93">
         <v>195</v>
@@ -4761,7 +4761,7 @@
         <v>17</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M94">
         <v>170</v>
@@ -4801,7 +4801,7 @@
         <v>17</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M95">
         <v>685</v>
@@ -4841,7 +4841,7 @@
         <v>17</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M96">
         <v>400</v>
@@ -4881,7 +4881,7 @@
         <v>44</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M97">
         <v>1270</v>
@@ -4921,7 +4921,7 @@
         <v>6</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M98">
         <v>760</v>
@@ -4961,7 +4961,7 @@
         <v>6</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M99">
         <v>630</v>
@@ -5001,7 +5001,7 @@
         <v>6</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M100">
         <v>520</v>
@@ -5041,7 +5041,7 @@
         <v>6</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M101">
         <v>520</v>
@@ -5081,7 +5081,7 @@
         <v>6</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M102">
         <v>950</v>
@@ -5121,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M103">
         <v>980</v>
@@ -5161,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M104">
         <v>820</v>
@@ -5201,7 +5201,7 @@
         <v>12</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M105">
         <v>1000</v>
@@ -5241,7 +5241,7 @@
         <v>12</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M106">
         <v>1000</v>
@@ -5281,7 +5281,7 @@
         <v>17</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M107">
         <v>870</v>
@@ -5321,7 +5321,7 @@
         <v>12</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M108">
         <v>600</v>
@@ -5361,7 +5361,7 @@
         <v>12</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M109">
         <v>920</v>
@@ -5401,7 +5401,7 @@
         <v>17</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M110">
         <v>240</v>
@@ -5441,7 +5441,7 @@
         <v>17</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M111">
         <v>200</v>
@@ -5481,7 +5481,7 @@
         <v>17</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M112">
         <v>490</v>
@@ -5521,7 +5521,7 @@
         <v>24</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M113">
         <v>490</v>
@@ -5561,7 +5561,7 @@
         <v>17</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M114">
         <v>630</v>
@@ -5601,7 +5601,7 @@
         <v>27</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M115">
         <v>550</v>
@@ -5641,7 +5641,7 @@
         <v>29</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M116">
         <v>680</v>
@@ -5681,7 +5681,7 @@
         <v>31</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M117">
         <v>400</v>
@@ -5721,7 +5721,7 @@
         <v>17</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M118">
         <v>180</v>
@@ -5761,7 +5761,7 @@
         <v>31</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M119">
         <v>200</v>
@@ -5801,7 +5801,7 @@
         <v>31</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M120">
         <v>220</v>
@@ -5841,7 +5841,7 @@
         <v>31</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M121">
         <v>250</v>
@@ -5881,7 +5881,7 @@
         <v>37</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M122">
         <v>350</v>
@@ -5921,7 +5921,7 @@
         <v>31</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M123">
         <v>180</v>
@@ -5961,7 +5961,7 @@
         <v>17</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M124">
         <v>180</v>
@@ -6001,7 +6001,7 @@
         <v>17</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M125">
         <v>195</v>
@@ -6041,7 +6041,7 @@
         <v>17</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M126">
         <v>170</v>
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M127">
         <v>685</v>
@@ -6121,7 +6121,7 @@
         <v>17</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M128">
         <v>400</v>
@@ -6161,7 +6161,7 @@
         <v>44</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M129">
         <v>1270</v>
@@ -6201,7 +6201,7 @@
         <v>17</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M130">
         <v>210</v>
@@ -6241,7 +6241,7 @@
         <v>17</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M131">
         <v>200</v>
@@ -6281,7 +6281,7 @@
         <v>17</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M132">
         <v>150</v>
@@ -6321,7 +6321,7 @@
         <v>93</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M133">
         <v>520</v>
@@ -6361,7 +6361,7 @@
         <v>93</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M134">
         <v>620</v>
@@ -6401,7 +6401,7 @@
         <v>93</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M135">
         <v>600</v>
@@ -6441,7 +6441,7 @@
         <v>93</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M136">
         <v>1400</v>
@@ -6481,7 +6481,7 @@
         <v>31</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M137">
         <v>120</v>
@@ -6521,7 +6521,7 @@
         <v>17</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M138">
         <v>820</v>
@@ -6561,7 +6561,7 @@
         <v>93</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M139">
         <v>400</v>
@@ -6601,7 +6601,7 @@
         <v>56</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M140">
         <v>50</v>
@@ -6641,7 +6641,7 @@
         <v>44</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M141">
         <v>200</v>
@@ -6681,7 +6681,7 @@
         <v>56</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M142">
         <v>120</v>
@@ -6721,7 +6721,7 @@
         <v>56</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M143">
         <v>100</v>
@@ -6761,7 +6761,7 @@
         <v>17</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M144">
         <v>300</v>
@@ -6801,7 +6801,7 @@
         <v>17</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M145">
         <v>320</v>
@@ -6841,7 +6841,7 @@
         <v>17</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M146">
         <v>280</v>
@@ -6881,7 +6881,7 @@
         <v>104</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M147">
         <v>160</v>
@@ -6921,7 +6921,7 @@
         <v>17</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M148">
         <v>480</v>
@@ -6961,7 +6961,7 @@
         <v>17</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M149">
         <v>180</v>
@@ -7001,7 +7001,7 @@
         <v>56</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M150">
         <v>50</v>
@@ -7041,7 +7041,7 @@
         <v>56</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M151">
         <v>580</v>
@@ -7081,7 +7081,7 @@
         <v>110</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M152">
         <v>460</v>
@@ -7121,7 +7121,7 @@
         <v>112</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M153">
         <v>220</v>
@@ -7161,7 +7161,7 @@
         <v>17</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M154">
         <v>480</v>
@@ -7201,7 +7201,7 @@
         <v>17</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M155">
         <v>320</v>
@@ -7241,7 +7241,7 @@
         <v>17</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M156">
         <v>4000</v>
@@ -7281,7 +7281,7 @@
         <v>17</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M157">
         <v>600</v>
@@ -7321,7 +7321,7 @@
         <v>17</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M158">
         <v>1100</v>
@@ -7361,7 +7361,7 @@
         <v>56</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M159">
         <v>50</v>
@@ -7401,7 +7401,7 @@
         <v>17</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M160">
         <v>820</v>
@@ -7441,7 +7441,7 @@
         <v>121</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M161">
         <v>170</v>
@@ -7481,7 +7481,7 @@
         <v>123</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M162">
         <v>320</v>
@@ -7521,7 +7521,7 @@
         <v>31</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M163">
         <v>190</v>
@@ -7561,7 +7561,7 @@
         <v>31</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M164">
         <v>190</v>
@@ -7601,7 +7601,7 @@
         <v>31</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M165">
         <v>200</v>
@@ -7641,7 +7641,7 @@
         <v>127</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M166">
         <v>80</v>
@@ -7681,7 +7681,7 @@
         <v>121</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M167">
         <v>320</v>
@@ -7721,7 +7721,7 @@
         <v>129</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M168">
         <v>50</v>
@@ -7761,7 +7761,7 @@
         <v>17</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M169">
         <v>425</v>
@@ -7801,7 +7801,7 @@
         <v>56</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M170">
         <v>150</v>
@@ -7841,7 +7841,7 @@
         <v>133</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M171">
         <v>130</v>
@@ -7881,7 +7881,7 @@
         <v>44</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M172">
         <v>380</v>
@@ -7921,7 +7921,7 @@
         <v>44</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M173">
         <v>420</v>
@@ -7961,7 +7961,7 @@
         <v>44</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M174">
         <v>550</v>
@@ -8001,7 +8001,7 @@
         <v>17</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M175">
         <v>150</v>
@@ -8041,7 +8041,7 @@
         <v>137</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M176">
         <v>700</v>
@@ -8081,7 +8081,7 @@
         <v>17</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M177">
         <v>200</v>
@@ -8121,7 +8121,7 @@
         <v>44</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M178">
         <v>680</v>
@@ -8161,7 +8161,7 @@
         <v>140</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M179">
         <v>285</v>
@@ -8201,7 +8201,7 @@
         <v>17</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M180">
         <v>150</v>
@@ -8241,7 +8241,7 @@
         <v>44</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M181">
         <v>450</v>
@@ -8281,7 +8281,7 @@
         <v>17</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M182">
         <v>700</v>
@@ -8321,7 +8321,7 @@
         <v>17</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M183">
         <v>150</v>
@@ -8361,7 +8361,7 @@
         <v>44</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M184">
         <v>500</v>
@@ -8401,7 +8401,7 @@
         <v>143</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M185">
         <v>2800</v>
@@ -8441,7 +8441,7 @@
         <v>17</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M186">
         <v>150</v>
@@ -8481,7 +8481,7 @@
         <v>137</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M187">
         <v>720</v>
@@ -8521,7 +8521,7 @@
         <v>17</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M188">
         <v>300</v>
@@ -8561,7 +8561,7 @@
         <v>17</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M189">
         <v>140</v>
@@ -8601,7 +8601,7 @@
         <v>44</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M190">
         <v>420</v>
@@ -8641,7 +8641,7 @@
         <v>143</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M191">
         <v>1900</v>
@@ -8681,7 +8681,7 @@
         <v>17</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M192">
         <v>150</v>
@@ -8721,7 +8721,7 @@
         <v>44</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M193">
         <v>500</v>
@@ -8761,7 +8761,7 @@
         <v>17</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M194">
         <v>120</v>
@@ -8801,7 +8801,7 @@
         <v>44</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M195">
         <v>420</v>
@@ -8841,7 +8841,7 @@
         <v>17</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M196">
         <v>150</v>
@@ -8881,7 +8881,7 @@
         <v>44</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M197">
         <v>500</v>
@@ -8921,7 +8921,7 @@
         <v>17</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M198">
         <v>150</v>
@@ -8961,7 +8961,7 @@
         <v>44</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M199">
         <v>500</v>
@@ -9001,7 +9001,7 @@
         <v>17</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M200">
         <v>130</v>
@@ -9041,7 +9041,7 @@
         <v>44</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M201">
         <v>450</v>
@@ -9081,7 +9081,7 @@
         <v>17</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M202">
         <v>220</v>
@@ -9121,7 +9121,7 @@
         <v>44</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M203">
         <v>850</v>
@@ -9161,7 +9161,7 @@
         <v>17</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M204">
         <v>130</v>
@@ -9201,7 +9201,7 @@
         <v>44</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M205">
         <v>450</v>
@@ -9241,7 +9241,7 @@
         <v>17</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M206">
         <v>150</v>
@@ -9281,7 +9281,7 @@
         <v>44</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M207">
         <v>500</v>
@@ -9321,7 +9321,7 @@
         <v>17</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M208">
         <v>300</v>
@@ -9361,7 +9361,7 @@
         <v>137</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M209">
         <v>1500</v>
@@ -9401,7 +9401,7 @@
         <v>17</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M210">
         <v>300</v>
@@ -9441,7 +9441,7 @@
         <v>137</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M211">
         <v>1500</v>
@@ -9481,7 +9481,7 @@
         <v>17</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M212">
         <v>210</v>
@@ -9521,7 +9521,7 @@
         <v>17</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M213">
         <v>210</v>
@@ -9561,7 +9561,7 @@
         <v>17</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M214">
         <v>160</v>
@@ -9601,7 +9601,7 @@
         <v>93</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M215">
         <v>530</v>
@@ -9641,7 +9641,7 @@
         <v>93</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M216">
         <v>620</v>
@@ -9681,7 +9681,7 @@
         <v>93</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M217">
         <v>600</v>
@@ -9721,7 +9721,7 @@
         <v>93</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M218">
         <v>1500</v>
@@ -9761,7 +9761,7 @@
         <v>31</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M219">
         <v>130</v>
@@ -9801,7 +9801,7 @@
         <v>17</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M220">
         <v>820</v>
@@ -9841,7 +9841,7 @@
         <v>93</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M221">
         <v>420</v>
@@ -9881,7 +9881,7 @@
         <v>56</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M222">
         <v>55</v>
@@ -9921,7 +9921,7 @@
         <v>44</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M223">
         <v>220</v>
@@ -9961,7 +9961,7 @@
         <v>56</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M224">
         <v>120</v>
@@ -10001,7 +10001,7 @@
         <v>56</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M225">
         <v>100</v>
@@ -10041,7 +10041,7 @@
         <v>17</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M226">
         <v>320</v>
@@ -10081,7 +10081,7 @@
         <v>17</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M227">
         <v>330</v>
@@ -10121,7 +10121,7 @@
         <v>17</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M228">
         <v>290</v>
@@ -10161,7 +10161,7 @@
         <v>104</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M229">
         <v>180</v>
@@ -10201,7 +10201,7 @@
         <v>17</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M230">
         <v>480</v>
@@ -10241,7 +10241,7 @@
         <v>17</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M231">
         <v>190</v>
@@ -10281,7 +10281,7 @@
         <v>56</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M232">
         <v>55</v>
@@ -10321,7 +10321,7 @@
         <v>56</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M233">
         <v>600</v>
@@ -10361,7 +10361,7 @@
         <v>110</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M234">
         <v>480</v>
@@ -10401,7 +10401,7 @@
         <v>112</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M235">
         <v>220</v>
@@ -10441,7 +10441,7 @@
         <v>17</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M236">
         <v>480</v>
@@ -10481,7 +10481,7 @@
         <v>17</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M237">
         <v>320</v>
@@ -10521,7 +10521,7 @@
         <v>17</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M238">
         <v>4000</v>
@@ -10561,7 +10561,7 @@
         <v>17</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M239">
         <v>600</v>
@@ -10601,7 +10601,7 @@
         <v>17</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M240">
         <v>1100</v>
@@ -10641,7 +10641,7 @@
         <v>56</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M241">
         <v>50</v>
@@ -10681,7 +10681,7 @@
         <v>17</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M242">
         <v>820</v>
@@ -10721,7 +10721,7 @@
         <v>121</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M243">
         <v>180</v>
@@ -10761,7 +10761,7 @@
         <v>123</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M244">
         <v>320</v>
@@ -10801,7 +10801,7 @@
         <v>31</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M245">
         <v>190</v>
@@ -10841,7 +10841,7 @@
         <v>31</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M246">
         <v>190</v>
@@ -10881,7 +10881,7 @@
         <v>31</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M247">
         <v>200</v>
@@ -10921,7 +10921,7 @@
         <v>127</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M248">
         <v>80</v>
@@ -10961,7 +10961,7 @@
         <v>121</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M249">
         <v>320</v>
@@ -11001,7 +11001,7 @@
         <v>129</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M250">
         <v>50</v>
@@ -11041,7 +11041,7 @@
         <v>17</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M251">
         <v>420</v>
@@ -11081,7 +11081,7 @@
         <v>56</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M252">
         <v>150</v>
@@ -11121,7 +11121,7 @@
         <v>133</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M253">
         <v>120</v>
@@ -11161,7 +11161,7 @@
         <v>44</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M254">
         <v>380</v>
@@ -11201,7 +11201,7 @@
         <v>17</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M255">
         <v>130</v>
@@ -11241,7 +11241,7 @@
         <v>44</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M256">
         <v>400</v>
@@ -11281,7 +11281,7 @@
         <v>44</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M257">
         <v>500</v>
@@ -11321,7 +11321,7 @@
         <v>17</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M258">
         <v>150</v>
@@ -11361,7 +11361,7 @@
         <v>137</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M259">
         <v>700</v>
@@ -11401,7 +11401,7 @@
         <v>17</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M260">
         <v>200</v>
@@ -11441,7 +11441,7 @@
         <v>44</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M261">
         <v>680</v>
@@ -11481,7 +11481,7 @@
         <v>140</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M262">
         <v>285</v>
@@ -11521,7 +11521,7 @@
         <v>17</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M263">
         <v>150</v>
@@ -11561,7 +11561,7 @@
         <v>44</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M264">
         <v>500</v>
@@ -11601,7 +11601,7 @@
         <v>17</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M265">
         <v>700</v>
@@ -11641,7 +11641,7 @@
         <v>17</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M266">
         <v>150</v>
@@ -11681,7 +11681,7 @@
         <v>44</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M267">
         <v>500</v>
@@ -11721,7 +11721,7 @@
         <v>143</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M268">
         <v>2800</v>
@@ -11761,7 +11761,7 @@
         <v>17</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M269">
         <v>150</v>
@@ -11801,7 +11801,7 @@
         <v>137</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M270">
         <v>700</v>
@@ -11841,7 +11841,7 @@
         <v>17</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M271">
         <v>300</v>
@@ -11881,7 +11881,7 @@
         <v>44</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M272">
         <v>1100</v>
@@ -11921,7 +11921,7 @@
         <v>17</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M273">
         <v>150</v>
@@ -11961,7 +11961,7 @@
         <v>44</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M274">
         <v>520</v>
@@ -12001,7 +12001,7 @@
         <v>143</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M275">
         <v>1900</v>
@@ -12041,7 +12041,7 @@
         <v>17</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M276">
         <v>150</v>
@@ -12081,7 +12081,7 @@
         <v>44</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M277">
         <v>500</v>
@@ -12121,7 +12121,7 @@
         <v>17</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M278">
         <v>140</v>
@@ -12161,7 +12161,7 @@
         <v>44</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M279">
         <v>480</v>
@@ -12201,7 +12201,7 @@
         <v>17</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M280">
         <v>150</v>
@@ -12241,7 +12241,7 @@
         <v>44</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M281">
         <v>500</v>
@@ -12281,7 +12281,7 @@
         <v>17</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M282">
         <v>150</v>
@@ -12321,7 +12321,7 @@
         <v>44</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M283">
         <v>500</v>
@@ -12361,7 +12361,7 @@
         <v>17</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M284">
         <v>140</v>
@@ -12401,7 +12401,7 @@
         <v>44</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M285">
         <v>450</v>
@@ -12441,7 +12441,7 @@
         <v>17</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M286">
         <v>220</v>
@@ -12481,7 +12481,7 @@
         <v>44</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M287">
         <v>800</v>
@@ -12521,7 +12521,7 @@
         <v>17</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M288">
         <v>150</v>
@@ -12561,7 +12561,7 @@
         <v>44</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M289">
         <v>500</v>
@@ -12601,7 +12601,7 @@
         <v>17</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M290">
         <v>150</v>
@@ -12641,7 +12641,7 @@
         <v>44</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M291">
         <v>500</v>
@@ -12681,7 +12681,7 @@
         <v>17</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M292">
         <v>300</v>
@@ -12721,7 +12721,7 @@
         <v>137</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M293">
         <v>1500</v>
@@ -12761,7 +12761,7 @@
         <v>17</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M294">
         <v>300</v>
@@ -12801,7 +12801,7 @@
         <v>137</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M295">
         <v>1500</v>
@@ -12841,7 +12841,7 @@
         <v>17</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M296">
         <v>210</v>
@@ -12881,7 +12881,7 @@
         <v>17</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M297">
         <v>210</v>
@@ -12921,7 +12921,7 @@
         <v>17</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M298">
         <v>160</v>
@@ -12961,7 +12961,7 @@
         <v>93</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M299">
         <v>525</v>
@@ -13001,7 +13001,7 @@
         <v>93</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M300">
         <v>620</v>
@@ -13041,7 +13041,7 @@
         <v>93</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M301">
         <v>600</v>
@@ -13081,7 +13081,7 @@
         <v>93</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M302">
         <v>1500</v>
@@ -13121,7 +13121,7 @@
         <v>31</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M303">
         <v>130</v>
@@ -13161,7 +13161,7 @@
         <v>17</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M304">
         <v>820</v>
@@ -13201,7 +13201,7 @@
         <v>93</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M305">
         <v>420</v>
@@ -13241,7 +13241,7 @@
         <v>56</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M306">
         <v>60</v>
@@ -13281,7 +13281,7 @@
         <v>44</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M307">
         <v>220</v>
@@ -13321,7 +13321,7 @@
         <v>56</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M308">
         <v>130</v>
@@ -13361,7 +13361,7 @@
         <v>56</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M309">
         <v>100</v>
@@ -13401,7 +13401,7 @@
         <v>17</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M310">
         <v>320</v>
@@ -13441,7 +13441,7 @@
         <v>17</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M311">
         <v>330</v>
@@ -13481,7 +13481,7 @@
         <v>17</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M312">
         <v>290</v>
@@ -13521,7 +13521,7 @@
         <v>104</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M313">
         <v>180</v>
@@ -13561,7 +13561,7 @@
         <v>17</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M314">
         <v>480</v>
@@ -13601,7 +13601,7 @@
         <v>17</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M315">
         <v>180</v>
@@ -13641,7 +13641,7 @@
         <v>56</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M316">
         <v>55</v>
@@ -13681,7 +13681,7 @@
         <v>56</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M317">
         <v>600</v>
@@ -13721,7 +13721,7 @@
         <v>110</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M318">
         <v>480</v>
@@ -13761,7 +13761,7 @@
         <v>112</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M319">
         <v>220</v>
@@ -13801,7 +13801,7 @@
         <v>17</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M320">
         <v>480</v>
@@ -13841,7 +13841,7 @@
         <v>17</v>
       </c>
       <c r="L321" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M321">
         <v>320</v>
@@ -13881,7 +13881,7 @@
         <v>17</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M322">
         <v>4000</v>
@@ -13921,7 +13921,7 @@
         <v>17</v>
       </c>
       <c r="L323" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M323">
         <v>600</v>
@@ -13961,7 +13961,7 @@
         <v>17</v>
       </c>
       <c r="L324" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M324">
         <v>1100</v>
@@ -14001,7 +14001,7 @@
         <v>56</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M325">
         <v>50</v>
@@ -14041,7 +14041,7 @@
         <v>17</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M326">
         <v>820</v>
@@ -14081,7 +14081,7 @@
         <v>121</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M327">
         <v>190</v>
@@ -14121,7 +14121,7 @@
         <v>123</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M328">
         <v>320</v>
@@ -14161,7 +14161,7 @@
         <v>31</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M329">
         <v>190</v>
@@ -14201,7 +14201,7 @@
         <v>31</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M330">
         <v>190</v>
@@ -14241,7 +14241,7 @@
         <v>31</v>
       </c>
       <c r="L331" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M331">
         <v>200</v>
@@ -14281,7 +14281,7 @@
         <v>127</v>
       </c>
       <c r="L332" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M332">
         <v>80</v>
@@ -14321,7 +14321,7 @@
         <v>121</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M333">
         <v>320</v>
@@ -14361,7 +14361,7 @@
         <v>129</v>
       </c>
       <c r="L334" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M334">
         <v>50</v>
@@ -14401,7 +14401,7 @@
         <v>17</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M335">
         <v>420</v>
@@ -14441,7 +14441,7 @@
         <v>56</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M336">
         <v>150</v>
@@ -14481,7 +14481,7 @@
         <v>133</v>
       </c>
       <c r="L337" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M337">
         <v>120</v>
@@ -14521,7 +14521,7 @@
         <v>44</v>
       </c>
       <c r="L338" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M338">
         <v>380</v>
@@ -14561,7 +14561,7 @@
         <v>17</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M339">
         <v>130</v>
@@ -14601,7 +14601,7 @@
         <v>44</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M340">
         <v>400</v>
@@ -14641,7 +14641,7 @@
         <v>44</v>
       </c>
       <c r="L341" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M341">
         <v>500</v>
@@ -14681,7 +14681,7 @@
         <v>17</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M342">
         <v>150</v>
@@ -14721,7 +14721,7 @@
         <v>137</v>
       </c>
       <c r="L343" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M343">
         <v>700</v>
@@ -14761,7 +14761,7 @@
         <v>17</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M344">
         <v>200</v>
@@ -14801,7 +14801,7 @@
         <v>44</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M345">
         <v>680</v>
@@ -14841,7 +14841,7 @@
         <v>140</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M346">
         <v>280</v>
@@ -14881,7 +14881,7 @@
         <v>17</v>
       </c>
       <c r="L347" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M347">
         <v>150</v>
@@ -14921,7 +14921,7 @@
         <v>44</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M348">
         <v>500</v>
@@ -14961,7 +14961,7 @@
         <v>17</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M349">
         <v>700</v>
@@ -15001,7 +15001,7 @@
         <v>17</v>
       </c>
       <c r="L350" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M350">
         <v>150</v>
@@ -15041,7 +15041,7 @@
         <v>44</v>
       </c>
       <c r="L351" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M351">
         <v>500</v>
@@ -15081,7 +15081,7 @@
         <v>143</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M352">
         <v>2800</v>
@@ -15121,7 +15121,7 @@
         <v>17</v>
       </c>
       <c r="L353" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M353">
         <v>150</v>
@@ -15161,7 +15161,7 @@
         <v>137</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M354">
         <v>700</v>
@@ -15201,7 +15201,7 @@
         <v>17</v>
       </c>
       <c r="L355" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M355">
         <v>300</v>
@@ -15241,7 +15241,7 @@
         <v>44</v>
       </c>
       <c r="L356" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M356">
         <v>1100</v>
@@ -15281,7 +15281,7 @@
         <v>17</v>
       </c>
       <c r="L357" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M357">
         <v>150</v>
@@ -15321,7 +15321,7 @@
         <v>44</v>
       </c>
       <c r="L358" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M358">
         <v>520</v>
@@ -15361,7 +15361,7 @@
         <v>143</v>
       </c>
       <c r="L359" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M359">
         <v>1900</v>
@@ -15401,7 +15401,7 @@
         <v>17</v>
       </c>
       <c r="L360" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M360">
         <v>150</v>
@@ -15441,7 +15441,7 @@
         <v>44</v>
       </c>
       <c r="L361" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M361">
         <v>500</v>
@@ -15481,7 +15481,7 @@
         <v>17</v>
       </c>
       <c r="L362" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M362">
         <v>130</v>
@@ -15521,7 +15521,7 @@
         <v>44</v>
       </c>
       <c r="L363" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M363">
         <v>480</v>
@@ -15561,7 +15561,7 @@
         <v>17</v>
       </c>
       <c r="L364" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M364">
         <v>150</v>
@@ -15601,7 +15601,7 @@
         <v>44</v>
       </c>
       <c r="L365" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M365">
         <v>500</v>
@@ -15641,7 +15641,7 @@
         <v>17</v>
       </c>
       <c r="L366" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M366">
         <v>160</v>
@@ -15681,7 +15681,7 @@
         <v>44</v>
       </c>
       <c r="L367" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M367">
         <v>550</v>
@@ -15721,7 +15721,7 @@
         <v>17</v>
       </c>
       <c r="L368" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M368">
         <v>140</v>
@@ -15761,7 +15761,7 @@
         <v>44</v>
       </c>
       <c r="L369" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M369">
         <v>450</v>
@@ -15801,7 +15801,7 @@
         <v>17</v>
       </c>
       <c r="L370" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M370">
         <v>220</v>
@@ -15841,7 +15841,7 @@
         <v>44</v>
       </c>
       <c r="L371" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M371">
         <v>800</v>
@@ -15881,7 +15881,7 @@
         <v>17</v>
       </c>
       <c r="L372" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M372">
         <v>150</v>
@@ -15921,7 +15921,7 @@
         <v>44</v>
       </c>
       <c r="L373" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M373">
         <v>500</v>
@@ -15961,7 +15961,7 @@
         <v>17</v>
       </c>
       <c r="L374" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M374">
         <v>150</v>
@@ -16001,7 +16001,7 @@
         <v>44</v>
       </c>
       <c r="L375" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M375">
         <v>500</v>
@@ -16041,7 +16041,7 @@
         <v>17</v>
       </c>
       <c r="L376" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M376">
         <v>300</v>
@@ -16081,7 +16081,7 @@
         <v>137</v>
       </c>
       <c r="L377" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M377">
         <v>1500</v>
@@ -16121,7 +16121,7 @@
         <v>17</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M378">
         <v>300</v>
@@ -16161,7 +16161,7 @@
         <v>137</v>
       </c>
       <c r="L379" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M379">
         <v>1500</v>
@@ -16201,7 +16201,7 @@
         <v>17</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M380">
         <v>200</v>
@@ -16241,7 +16241,7 @@
         <v>17</v>
       </c>
       <c r="L381" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M381">
         <v>200</v>
@@ -16281,7 +16281,7 @@
         <v>93</v>
       </c>
       <c r="L382" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M382">
         <v>540</v>
@@ -16321,7 +16321,7 @@
         <v>93</v>
       </c>
       <c r="L383" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M383">
         <v>520</v>
@@ -16361,7 +16361,7 @@
         <v>93</v>
       </c>
       <c r="L384" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M384">
         <v>1500</v>
@@ -16401,7 +16401,7 @@
         <v>31</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M385">
         <v>100</v>
@@ -16441,7 +16441,7 @@
         <v>17</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M386">
         <v>820</v>
@@ -16481,7 +16481,7 @@
         <v>93</v>
       </c>
       <c r="L387" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M387">
         <v>470</v>
@@ -16521,7 +16521,7 @@
         <v>56</v>
       </c>
       <c r="L388" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M388">
         <v>50</v>
@@ -16561,7 +16561,7 @@
         <v>56</v>
       </c>
       <c r="L389" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M389">
         <v>100</v>
@@ -16601,7 +16601,7 @@
         <v>56</v>
       </c>
       <c r="L390" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M390">
         <v>130</v>
@@ -16641,7 +16641,7 @@
         <v>17</v>
       </c>
       <c r="L391" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M391">
         <v>300</v>
@@ -16681,7 +16681,7 @@
         <v>17</v>
       </c>
       <c r="L392" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M392">
         <v>300</v>
@@ -16721,7 +16721,7 @@
         <v>17</v>
       </c>
       <c r="L393" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M393">
         <v>280</v>
@@ -16761,7 +16761,7 @@
         <v>104</v>
       </c>
       <c r="L394" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M394">
         <v>190</v>
@@ -16801,7 +16801,7 @@
         <v>17</v>
       </c>
       <c r="L395" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M395">
         <v>480</v>
@@ -16841,7 +16841,7 @@
         <v>17</v>
       </c>
       <c r="L396" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M396">
         <v>190</v>
@@ -16881,7 +16881,7 @@
         <v>56</v>
       </c>
       <c r="L397" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M397">
         <v>55</v>
@@ -16921,7 +16921,7 @@
         <v>56</v>
       </c>
       <c r="L398" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M398">
         <v>600</v>
@@ -16961,7 +16961,7 @@
         <v>110</v>
       </c>
       <c r="L399" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M399">
         <v>480</v>
@@ -17001,7 +17001,7 @@
         <v>112</v>
       </c>
       <c r="L400" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M400">
         <v>220</v>
@@ -17041,7 +17041,7 @@
         <v>17</v>
       </c>
       <c r="L401" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M401">
         <v>300</v>
@@ -17081,7 +17081,7 @@
         <v>17</v>
       </c>
       <c r="L402" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M402">
         <v>4200</v>
@@ -17121,7 +17121,7 @@
         <v>17</v>
       </c>
       <c r="L403" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M403">
         <v>560</v>
@@ -17161,7 +17161,7 @@
         <v>17</v>
       </c>
       <c r="L404" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M404">
         <v>560</v>
@@ -17201,7 +17201,7 @@
         <v>56</v>
       </c>
       <c r="L405" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M405">
         <v>50</v>
@@ -17241,7 +17241,7 @@
         <v>17</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M406">
         <v>820</v>
@@ -17281,7 +17281,7 @@
         <v>121</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M407">
         <v>190</v>
@@ -17321,7 +17321,7 @@
         <v>123</v>
       </c>
       <c r="L408" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M408">
         <v>330</v>
@@ -17361,7 +17361,7 @@
         <v>31</v>
       </c>
       <c r="L409" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M409">
         <v>200</v>
@@ -17401,7 +17401,7 @@
         <v>31</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M410">
         <v>170</v>
@@ -17441,7 +17441,7 @@
         <v>31</v>
       </c>
       <c r="L411" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M411">
         <v>200</v>
@@ -17481,7 +17481,7 @@
         <v>127</v>
       </c>
       <c r="L412" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M412">
         <v>80</v>
@@ -17521,7 +17521,7 @@
         <v>121</v>
       </c>
       <c r="L413" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M413">
         <v>300</v>
@@ -17561,7 +17561,7 @@
         <v>129</v>
       </c>
       <c r="L414" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M414">
         <v>50</v>
@@ -17601,7 +17601,7 @@
         <v>17</v>
       </c>
       <c r="L415" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M415">
         <v>400</v>
@@ -17641,7 +17641,7 @@
         <v>56</v>
       </c>
       <c r="L416" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M416">
         <v>150</v>
@@ -17681,7 +17681,7 @@
         <v>133</v>
       </c>
       <c r="L417" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M417">
         <v>125</v>
@@ -17721,7 +17721,7 @@
         <v>44</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M418">
         <v>360</v>
@@ -17761,7 +17761,7 @@
         <v>17</v>
       </c>
       <c r="L419" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M419">
         <v>150</v>
@@ -17801,7 +17801,7 @@
         <v>44</v>
       </c>
       <c r="L420" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M420">
         <v>400</v>
@@ -17841,7 +17841,7 @@
         <v>157</v>
       </c>
       <c r="L421" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M421">
         <v>570</v>
@@ -17881,7 +17881,7 @@
         <v>44</v>
       </c>
       <c r="L422" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M422">
         <v>550</v>
@@ -17921,7 +17921,7 @@
         <v>17</v>
       </c>
       <c r="L423" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M423">
         <v>150</v>
@@ -17961,7 +17961,7 @@
         <v>137</v>
       </c>
       <c r="L424" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M424">
         <v>700</v>
@@ -18001,7 +18001,7 @@
         <v>17</v>
       </c>
       <c r="L425" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M425">
         <v>210</v>
@@ -18041,7 +18041,7 @@
         <v>44</v>
       </c>
       <c r="L426" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M426">
         <v>650</v>
@@ -18081,7 +18081,7 @@
         <v>140</v>
       </c>
       <c r="L427" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M427">
         <v>285</v>
@@ -18121,7 +18121,7 @@
         <v>17</v>
       </c>
       <c r="L428" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M428">
         <v>140</v>
@@ -18161,7 +18161,7 @@
         <v>44</v>
       </c>
       <c r="L429" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M429">
         <v>450</v>
@@ -18201,7 +18201,7 @@
         <v>17</v>
       </c>
       <c r="L430" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M430">
         <v>700</v>
@@ -18241,7 +18241,7 @@
         <v>17</v>
       </c>
       <c r="L431" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M431">
         <v>140</v>
@@ -18281,7 +18281,7 @@
         <v>44</v>
       </c>
       <c r="L432" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M432">
         <v>460</v>
@@ -18321,7 +18321,7 @@
         <v>143</v>
       </c>
       <c r="L433" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M433">
         <v>2800</v>
@@ -18361,7 +18361,7 @@
         <v>17</v>
       </c>
       <c r="L434" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M434">
         <v>150</v>
@@ -18401,7 +18401,7 @@
         <v>137</v>
       </c>
       <c r="L435" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M435">
         <v>700</v>
@@ -18441,7 +18441,7 @@
         <v>17</v>
       </c>
       <c r="L436" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M436">
         <v>280</v>
@@ -18481,7 +18481,7 @@
         <v>17</v>
       </c>
       <c r="L437" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M437">
         <v>130</v>
@@ -18521,7 +18521,7 @@
         <v>44</v>
       </c>
       <c r="L438" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M438">
         <v>400</v>
@@ -18561,7 +18561,7 @@
         <v>143</v>
       </c>
       <c r="L439" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M439">
         <v>2100</v>
@@ -18601,7 +18601,7 @@
         <v>17</v>
       </c>
       <c r="L440" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M440">
         <v>150</v>
@@ -18641,7 +18641,7 @@
         <v>44</v>
       </c>
       <c r="L441" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M441">
         <v>480</v>
@@ -18681,7 +18681,7 @@
         <v>17</v>
       </c>
       <c r="L442" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M442">
         <v>130</v>
@@ -18721,7 +18721,7 @@
         <v>44</v>
       </c>
       <c r="L443" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M443">
         <v>460</v>
@@ -18761,7 +18761,7 @@
         <v>17</v>
       </c>
       <c r="L444" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M444">
         <v>150</v>
@@ -18801,7 +18801,7 @@
         <v>44</v>
       </c>
       <c r="L445" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M445">
         <v>500</v>
@@ -18841,7 +18841,7 @@
         <v>17</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M446">
         <v>150</v>
@@ -18881,7 +18881,7 @@
         <v>44</v>
       </c>
       <c r="L447" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M447">
         <v>500</v>
@@ -18921,7 +18921,7 @@
         <v>17</v>
       </c>
       <c r="L448" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M448">
         <v>200</v>
@@ -18961,7 +18961,7 @@
         <v>44</v>
       </c>
       <c r="L449" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M449">
         <v>650</v>
@@ -19001,7 +19001,7 @@
         <v>17</v>
       </c>
       <c r="L450" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M450">
         <v>280</v>
@@ -19041,7 +19041,7 @@
         <v>17</v>
       </c>
       <c r="L451" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M451">
         <v>150</v>
@@ -19081,7 +19081,7 @@
         <v>44</v>
       </c>
       <c r="L452" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M452">
         <v>500</v>
@@ -19121,7 +19121,7 @@
         <v>17</v>
       </c>
       <c r="L453" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M453">
         <v>150</v>
@@ -19161,7 +19161,7 @@
         <v>44</v>
       </c>
       <c r="L454" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M454">
         <v>500</v>
@@ -19201,7 +19201,7 @@
         <v>17</v>
       </c>
       <c r="L455" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M455">
         <v>250</v>
@@ -19241,7 +19241,7 @@
         <v>137</v>
       </c>
       <c r="L456" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M456">
         <v>1200</v>
@@ -19281,7 +19281,7 @@
         <v>17</v>
       </c>
       <c r="L457" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M457">
         <v>300</v>
@@ -19321,7 +19321,7 @@
         <v>137</v>
       </c>
       <c r="L458" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M458">
         <v>1500</v>
@@ -19361,7 +19361,7 @@
         <v>17</v>
       </c>
       <c r="L459" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M459">
         <v>200</v>
@@ -19401,7 +19401,7 @@
         <v>17</v>
       </c>
       <c r="L460" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M460">
         <v>200</v>
@@ -19441,7 +19441,7 @@
         <v>93</v>
       </c>
       <c r="L461" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M461">
         <v>540</v>
@@ -19481,7 +19481,7 @@
         <v>93</v>
       </c>
       <c r="L462" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M462">
         <v>520</v>
@@ -19521,7 +19521,7 @@
         <v>93</v>
       </c>
       <c r="L463" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M463">
         <v>1500</v>
@@ -19561,7 +19561,7 @@
         <v>31</v>
       </c>
       <c r="L464" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M464">
         <v>100</v>
@@ -19601,7 +19601,7 @@
         <v>17</v>
       </c>
       <c r="L465" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M465">
         <v>820</v>
@@ -19641,7 +19641,7 @@
         <v>93</v>
       </c>
       <c r="L466" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M466">
         <v>470</v>
@@ -19681,7 +19681,7 @@
         <v>56</v>
       </c>
       <c r="L467" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M467">
         <v>55</v>
@@ -19721,7 +19721,7 @@
         <v>56</v>
       </c>
       <c r="L468" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M468">
         <v>100</v>
@@ -19761,7 +19761,7 @@
         <v>56</v>
       </c>
       <c r="L469" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M469">
         <v>140</v>
@@ -19801,7 +19801,7 @@
         <v>17</v>
       </c>
       <c r="L470" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M470">
         <v>300</v>
@@ -19841,7 +19841,7 @@
         <v>17</v>
       </c>
       <c r="L471" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M471">
         <v>300</v>
@@ -19881,7 +19881,7 @@
         <v>17</v>
       </c>
       <c r="L472" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M472">
         <v>280</v>
@@ -19921,7 +19921,7 @@
         <v>104</v>
       </c>
       <c r="L473" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M473">
         <v>190</v>
@@ -19961,7 +19961,7 @@
         <v>17</v>
       </c>
       <c r="L474" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M474">
         <v>480</v>
@@ -20001,7 +20001,7 @@
         <v>17</v>
       </c>
       <c r="L475" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M475">
         <v>190</v>
@@ -20041,7 +20041,7 @@
         <v>56</v>
       </c>
       <c r="L476" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M476">
         <v>55</v>
@@ -20081,7 +20081,7 @@
         <v>56</v>
       </c>
       <c r="L477" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M477">
         <v>600</v>
@@ -20121,7 +20121,7 @@
         <v>110</v>
       </c>
       <c r="L478" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M478">
         <v>480</v>
@@ -20161,7 +20161,7 @@
         <v>112</v>
       </c>
       <c r="L479" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M479">
         <v>220</v>
@@ -20201,7 +20201,7 @@
         <v>17</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M480">
         <v>300</v>
@@ -20241,7 +20241,7 @@
         <v>17</v>
       </c>
       <c r="L481" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M481">
         <v>4200</v>
@@ -20281,7 +20281,7 @@
         <v>17</v>
       </c>
       <c r="L482" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M482">
         <v>560</v>
@@ -20321,7 +20321,7 @@
         <v>17</v>
       </c>
       <c r="L483" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M483">
         <v>560</v>
@@ -20361,7 +20361,7 @@
         <v>56</v>
       </c>
       <c r="L484" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M484">
         <v>55</v>
@@ -20401,7 +20401,7 @@
         <v>17</v>
       </c>
       <c r="L485" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M485">
         <v>830</v>
@@ -20441,7 +20441,7 @@
         <v>121</v>
       </c>
       <c r="L486" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M486">
         <v>190</v>
@@ -20481,7 +20481,7 @@
         <v>123</v>
       </c>
       <c r="L487" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M487">
         <v>330</v>
@@ -20521,7 +20521,7 @@
         <v>31</v>
       </c>
       <c r="L488" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M488">
         <v>200</v>
@@ -20561,7 +20561,7 @@
         <v>31</v>
       </c>
       <c r="L489" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M489">
         <v>170</v>
@@ -20601,7 +20601,7 @@
         <v>31</v>
       </c>
       <c r="L490" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M490">
         <v>200</v>
@@ -20641,7 +20641,7 @@
         <v>127</v>
       </c>
       <c r="L491" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M491">
         <v>80</v>
@@ -20681,7 +20681,7 @@
         <v>121</v>
       </c>
       <c r="L492" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M492">
         <v>300</v>
@@ -20721,7 +20721,7 @@
         <v>129</v>
       </c>
       <c r="L493" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M493">
         <v>50</v>
@@ -20761,7 +20761,7 @@
         <v>17</v>
       </c>
       <c r="L494" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M494">
         <v>400</v>
@@ -20801,7 +20801,7 @@
         <v>56</v>
       </c>
       <c r="L495" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M495">
         <v>150</v>
@@ -20841,7 +20841,7 @@
         <v>133</v>
       </c>
       <c r="L496" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M496">
         <v>125</v>
@@ -20881,7 +20881,7 @@
         <v>44</v>
       </c>
       <c r="L497" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M497">
         <v>360</v>
@@ -20921,7 +20921,7 @@
         <v>17</v>
       </c>
       <c r="L498" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M498">
         <v>150</v>
@@ -20961,7 +20961,7 @@
         <v>44</v>
       </c>
       <c r="L499" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M499">
         <v>400</v>
@@ -21001,7 +21001,7 @@
         <v>157</v>
       </c>
       <c r="L500" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M500">
         <v>560</v>
@@ -21041,7 +21041,7 @@
         <v>44</v>
       </c>
       <c r="L501" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M501">
         <v>550</v>
@@ -21081,7 +21081,7 @@
         <v>17</v>
       </c>
       <c r="L502" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M502">
         <v>150</v>
@@ -21121,7 +21121,7 @@
         <v>137</v>
       </c>
       <c r="L503" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M503">
         <v>700</v>
@@ -21161,7 +21161,7 @@
         <v>17</v>
       </c>
       <c r="L504" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M504">
         <v>210</v>
@@ -21201,7 +21201,7 @@
         <v>44</v>
       </c>
       <c r="L505" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M505">
         <v>650</v>
@@ -21241,7 +21241,7 @@
         <v>140</v>
       </c>
       <c r="L506" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M506">
         <v>285</v>
@@ -21281,7 +21281,7 @@
         <v>17</v>
       </c>
       <c r="L507" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M507">
         <v>150</v>
@@ -21321,7 +21321,7 @@
         <v>44</v>
       </c>
       <c r="L508" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M508">
         <v>450</v>
@@ -21361,7 +21361,7 @@
         <v>17</v>
       </c>
       <c r="L509" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M509">
         <v>700</v>
@@ -21401,7 +21401,7 @@
         <v>17</v>
       </c>
       <c r="L510" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M510">
         <v>140</v>
@@ -21441,7 +21441,7 @@
         <v>44</v>
       </c>
       <c r="L511" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M511">
         <v>460</v>
@@ -21481,7 +21481,7 @@
         <v>143</v>
       </c>
       <c r="L512" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M512">
         <v>2800</v>
@@ -21521,7 +21521,7 @@
         <v>17</v>
       </c>
       <c r="L513" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M513">
         <v>150</v>
@@ -21561,7 +21561,7 @@
         <v>137</v>
       </c>
       <c r="L514" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M514">
         <v>700</v>
@@ -21601,7 +21601,7 @@
         <v>17</v>
       </c>
       <c r="L515" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M515">
         <v>280</v>
@@ -21641,7 +21641,7 @@
         <v>17</v>
       </c>
       <c r="L516" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M516">
         <v>130</v>
@@ -21681,7 +21681,7 @@
         <v>44</v>
       </c>
       <c r="L517" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M517">
         <v>400</v>
@@ -21721,7 +21721,7 @@
         <v>143</v>
       </c>
       <c r="L518" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M518">
         <v>2100</v>
@@ -21761,7 +21761,7 @@
         <v>17</v>
       </c>
       <c r="L519" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M519">
         <v>150</v>
@@ -21801,7 +21801,7 @@
         <v>44</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M520">
         <v>480</v>
@@ -21841,7 +21841,7 @@
         <v>17</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M521">
         <v>130</v>
@@ -21881,7 +21881,7 @@
         <v>44</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M522">
         <v>460</v>
@@ -21921,7 +21921,7 @@
         <v>17</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M523">
         <v>150</v>
@@ -21961,7 +21961,7 @@
         <v>44</v>
       </c>
       <c r="L524" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M524">
         <v>500</v>
@@ -22001,7 +22001,7 @@
         <v>17</v>
       </c>
       <c r="L525" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M525">
         <v>150</v>
@@ -22041,7 +22041,7 @@
         <v>44</v>
       </c>
       <c r="L526" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M526">
         <v>500</v>
@@ -22081,7 +22081,7 @@
         <v>17</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M527">
         <v>200</v>
@@ -22121,7 +22121,7 @@
         <v>44</v>
       </c>
       <c r="L528" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M528">
         <v>650</v>
@@ -22161,7 +22161,7 @@
         <v>17</v>
       </c>
       <c r="L529" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M529">
         <v>280</v>
@@ -22201,7 +22201,7 @@
         <v>17</v>
       </c>
       <c r="L530" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M530">
         <v>150</v>
@@ -22241,7 +22241,7 @@
         <v>44</v>
       </c>
       <c r="L531" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M531">
         <v>500</v>
@@ -22281,7 +22281,7 @@
         <v>17</v>
       </c>
       <c r="L532" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M532">
         <v>150</v>
@@ -22321,7 +22321,7 @@
         <v>44</v>
       </c>
       <c r="L533" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M533">
         <v>500</v>
@@ -22361,7 +22361,7 @@
         <v>17</v>
       </c>
       <c r="L534" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M534">
         <v>250</v>
@@ -22401,7 +22401,7 @@
         <v>137</v>
       </c>
       <c r="L535" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M535">
         <v>1200</v>
@@ -22441,7 +22441,7 @@
         <v>17</v>
       </c>
       <c r="L536" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M536">
         <v>300</v>
@@ -22481,7 +22481,7 @@
         <v>137</v>
       </c>
       <c r="L537" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M537">
         <v>1500</v>
@@ -22521,7 +22521,7 @@
         <v>47</v>
       </c>
       <c r="L538" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M538">
         <v>550</v>
@@ -22561,7 +22561,7 @@
         <v>47</v>
       </c>
       <c r="L539" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M539">
         <v>670</v>
@@ -22601,7 +22601,7 @@
         <v>47</v>
       </c>
       <c r="L540" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M540">
         <v>550</v>
@@ -22641,7 +22641,7 @@
         <v>47</v>
       </c>
       <c r="L541" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M541">
         <v>550</v>
@@ -22681,7 +22681,7 @@
         <v>47</v>
       </c>
       <c r="L542" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M542">
         <v>550</v>
@@ -22721,7 +22721,7 @@
         <v>47</v>
       </c>
       <c r="L543" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M543">
         <v>450</v>
@@ -22761,7 +22761,7 @@
         <v>47</v>
       </c>
       <c r="L544" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M544">
         <v>350</v>
@@ -22801,7 +22801,7 @@
         <v>47</v>
       </c>
       <c r="L545" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M545">
         <v>470</v>
@@ -22841,7 +22841,7 @@
         <v>54</v>
       </c>
       <c r="L546" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M546">
         <v>2300</v>
@@ -22881,7 +22881,7 @@
         <v>56</v>
       </c>
       <c r="L547" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M547">
         <v>70</v>
@@ -22921,7 +22921,7 @@
         <v>17</v>
       </c>
       <c r="L548" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M548">
         <v>1300</v>
@@ -22961,7 +22961,7 @@
         <v>59</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M549">
         <v>180</v>
@@ -23001,7 +23001,7 @@
         <v>17</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M550">
         <v>400</v>
@@ -23041,7 +23041,7 @@
         <v>56</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M551">
         <v>60</v>
@@ -23081,7 +23081,7 @@
         <v>17</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M552">
         <v>250</v>
@@ -23121,7 +23121,7 @@
         <v>17</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M553">
         <v>1000</v>
@@ -23161,7 +23161,7 @@
         <v>17</v>
       </c>
       <c r="L554" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M554">
         <v>800</v>
@@ -23201,7 +23201,7 @@
         <v>65</v>
       </c>
       <c r="L555" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M555">
         <v>900</v>
@@ -23241,7 +23241,7 @@
         <v>65</v>
       </c>
       <c r="L556" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M556">
         <v>280</v>
@@ -23281,7 +23281,7 @@
         <v>68</v>
       </c>
       <c r="L557" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M557">
         <v>250</v>
@@ -23321,7 +23321,7 @@
         <v>17</v>
       </c>
       <c r="L558" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M558">
         <v>450</v>
@@ -23361,7 +23361,7 @@
         <v>68</v>
       </c>
       <c r="L559" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M559">
         <v>300</v>
@@ -23401,7 +23401,7 @@
         <v>31</v>
       </c>
       <c r="L560" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M560">
         <v>180</v>
@@ -23441,7 +23441,7 @@
         <v>31</v>
       </c>
       <c r="L561" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M561">
         <v>130</v>
@@ -23481,7 +23481,7 @@
         <v>31</v>
       </c>
       <c r="L562" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M562">
         <v>150</v>
@@ -23521,7 +23521,7 @@
         <v>31</v>
       </c>
       <c r="L563" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M563">
         <v>450</v>
@@ -23561,7 +23561,7 @@
         <v>31</v>
       </c>
       <c r="L564" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M564">
         <v>800</v>
@@ -23601,7 +23601,7 @@
         <v>17</v>
       </c>
       <c r="L565" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M565">
         <v>1600</v>
@@ -23641,7 +23641,7 @@
         <v>44</v>
       </c>
       <c r="L566" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M566">
         <v>350</v>
@@ -23681,7 +23681,7 @@
         <v>17</v>
       </c>
       <c r="L567" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M567">
         <v>120</v>
@@ -23721,7 +23721,7 @@
         <v>17</v>
       </c>
       <c r="L568" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M568">
         <v>450</v>
@@ -23761,7 +23761,7 @@
         <v>80</v>
       </c>
       <c r="L569" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M569">
         <v>550</v>
@@ -23801,7 +23801,7 @@
         <v>17</v>
       </c>
       <c r="L570" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M570">
         <v>120</v>
@@ -23841,7 +23841,7 @@
         <v>17</v>
       </c>
       <c r="L571" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M571">
         <v>1000</v>
@@ -23881,7 +23881,7 @@
         <v>83</v>
       </c>
       <c r="L572" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M572">
         <v>250</v>
@@ -23921,7 +23921,7 @@
         <v>80</v>
       </c>
       <c r="L573" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M573">
         <v>750</v>
@@ -23961,7 +23961,7 @@
         <v>17</v>
       </c>
       <c r="L574" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M574">
         <v>150</v>
@@ -24001,7 +24001,7 @@
         <v>80</v>
       </c>
       <c r="L575" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M575">
         <v>500</v>
@@ -24041,7 +24041,7 @@
         <v>17</v>
       </c>
       <c r="L576" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M576">
         <v>120</v>
@@ -24081,7 +24081,7 @@
         <v>44</v>
       </c>
       <c r="L577" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M577">
         <v>375</v>
@@ -24121,7 +24121,7 @@
         <v>17</v>
       </c>
       <c r="L578" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M578">
         <v>120</v>
@@ -24161,7 +24161,7 @@
         <v>44</v>
       </c>
       <c r="L579" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M579">
         <v>500</v>
@@ -24201,7 +24201,7 @@
         <v>17</v>
       </c>
       <c r="L580" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M580">
         <v>150</v>
@@ -24241,7 +24241,7 @@
         <v>44</v>
       </c>
       <c r="L581" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M581">
         <v>800</v>
@@ -24281,7 +24281,7 @@
         <v>17</v>
       </c>
       <c r="L582" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M582">
         <v>250</v>
@@ -24321,7 +24321,7 @@
         <v>47</v>
       </c>
       <c r="L583" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M583">
         <v>550</v>
@@ -24361,7 +24361,7 @@
         <v>47</v>
       </c>
       <c r="L584" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M584">
         <v>670</v>
@@ -24401,7 +24401,7 @@
         <v>47</v>
       </c>
       <c r="L585" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M585">
         <v>550</v>
@@ -24441,7 +24441,7 @@
         <v>47</v>
       </c>
       <c r="L586" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M586">
         <v>550</v>
@@ -24481,7 +24481,7 @@
         <v>47</v>
       </c>
       <c r="L587" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M587">
         <v>550</v>
@@ -24521,7 +24521,7 @@
         <v>47</v>
       </c>
       <c r="L588" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M588">
         <v>450</v>
@@ -24561,7 +24561,7 @@
         <v>47</v>
       </c>
       <c r="L589" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M589">
         <v>350</v>
@@ -24601,7 +24601,7 @@
         <v>47</v>
       </c>
       <c r="L590" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M590">
         <v>470</v>
@@ -24641,7 +24641,7 @@
         <v>54</v>
       </c>
       <c r="L591" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M591">
         <v>2300</v>
@@ -24681,7 +24681,7 @@
         <v>56</v>
       </c>
       <c r="L592" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M592">
         <v>70</v>
@@ -24721,7 +24721,7 @@
         <v>17</v>
       </c>
       <c r="L593" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M593">
         <v>1300</v>
@@ -24761,7 +24761,7 @@
         <v>59</v>
       </c>
       <c r="L594" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M594">
         <v>180</v>
@@ -24801,7 +24801,7 @@
         <v>17</v>
       </c>
       <c r="L595" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M595">
         <v>400</v>
@@ -24841,7 +24841,7 @@
         <v>56</v>
       </c>
       <c r="L596" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M596">
         <v>60</v>
@@ -24881,7 +24881,7 @@
         <v>17</v>
       </c>
       <c r="L597" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M597">
         <v>250</v>
@@ -24921,7 +24921,7 @@
         <v>17</v>
       </c>
       <c r="L598" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M598">
         <v>1000</v>
@@ -24961,7 +24961,7 @@
         <v>17</v>
       </c>
       <c r="L599" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M599">
         <v>800</v>
@@ -25001,7 +25001,7 @@
         <v>65</v>
       </c>
       <c r="L600" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M600">
         <v>900</v>
@@ -25041,7 +25041,7 @@
         <v>65</v>
       </c>
       <c r="L601" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M601">
         <v>280</v>
@@ -25081,7 +25081,7 @@
         <v>68</v>
       </c>
       <c r="L602" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M602">
         <v>250</v>
@@ -25121,7 +25121,7 @@
         <v>17</v>
       </c>
       <c r="L603" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M603">
         <v>450</v>
@@ -25161,7 +25161,7 @@
         <v>68</v>
       </c>
       <c r="L604" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M604">
         <v>300</v>
@@ -25201,7 +25201,7 @@
         <v>31</v>
       </c>
       <c r="L605" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M605">
         <v>180</v>
@@ -25241,7 +25241,7 @@
         <v>31</v>
       </c>
       <c r="L606" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M606">
         <v>130</v>
@@ -25281,7 +25281,7 @@
         <v>31</v>
       </c>
       <c r="L607" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M607">
         <v>150</v>
@@ -25321,7 +25321,7 @@
         <v>31</v>
       </c>
       <c r="L608" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M608">
         <v>450</v>
@@ -25361,7 +25361,7 @@
         <v>31</v>
       </c>
       <c r="L609" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M609">
         <v>800</v>
@@ -25401,7 +25401,7 @@
         <v>17</v>
       </c>
       <c r="L610" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M610">
         <v>1600</v>
@@ -25441,7 +25441,7 @@
         <v>44</v>
       </c>
       <c r="L611" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M611">
         <v>350</v>
@@ -25481,7 +25481,7 @@
         <v>17</v>
       </c>
       <c r="L612" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M612">
         <v>120</v>
@@ -25521,7 +25521,7 @@
         <v>17</v>
       </c>
       <c r="L613" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M613">
         <v>450</v>
@@ -25561,7 +25561,7 @@
         <v>80</v>
       </c>
       <c r="L614" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M614">
         <v>550</v>
@@ -25601,7 +25601,7 @@
         <v>17</v>
       </c>
       <c r="L615" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M615">
         <v>120</v>
@@ -25641,7 +25641,7 @@
         <v>17</v>
       </c>
       <c r="L616" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M616">
         <v>1000</v>
@@ -25681,7 +25681,7 @@
         <v>83</v>
       </c>
       <c r="L617" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M617">
         <v>250</v>
@@ -25721,7 +25721,7 @@
         <v>80</v>
       </c>
       <c r="L618" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M618">
         <v>750</v>
@@ -25761,7 +25761,7 @@
         <v>17</v>
       </c>
       <c r="L619" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M619">
         <v>150</v>
@@ -25801,7 +25801,7 @@
         <v>80</v>
       </c>
       <c r="L620" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M620">
         <v>500</v>
@@ -25841,7 +25841,7 @@
         <v>17</v>
       </c>
       <c r="L621" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M621">
         <v>120</v>
@@ -25881,7 +25881,7 @@
         <v>44</v>
       </c>
       <c r="L622" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M622">
         <v>375</v>
@@ -25921,7 +25921,7 @@
         <v>17</v>
       </c>
       <c r="L623" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M623">
         <v>120</v>
@@ -25961,7 +25961,7 @@
         <v>44</v>
       </c>
       <c r="L624" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M624">
         <v>500</v>
@@ -26001,7 +26001,7 @@
         <v>17</v>
       </c>
       <c r="L625" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M625">
         <v>150</v>
@@ -26041,7 +26041,7 @@
         <v>44</v>
       </c>
       <c r="L626" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M626">
         <v>800</v>
@@ -26081,7 +26081,7 @@
         <v>17</v>
       </c>
       <c r="L627" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M627">
         <v>250</v>
@@ -26121,7 +26121,7 @@
         <v>47</v>
       </c>
       <c r="L628" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M628">
         <v>550</v>
@@ -26161,7 +26161,7 @@
         <v>47</v>
       </c>
       <c r="L629" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M629">
         <v>680</v>
@@ -26201,7 +26201,7 @@
         <v>47</v>
       </c>
       <c r="L630" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M630">
         <v>550</v>
@@ -26241,7 +26241,7 @@
         <v>47</v>
       </c>
       <c r="L631" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M631">
         <v>550</v>
@@ -26281,7 +26281,7 @@
         <v>47</v>
       </c>
       <c r="L632" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M632">
         <v>550</v>
@@ -26321,7 +26321,7 @@
         <v>47</v>
       </c>
       <c r="L633" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M633">
         <v>450</v>
@@ -26361,7 +26361,7 @@
         <v>47</v>
       </c>
       <c r="L634" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M634">
         <v>350</v>
@@ -26401,7 +26401,7 @@
         <v>47</v>
       </c>
       <c r="L635" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M635">
         <v>470</v>
@@ -26441,7 +26441,7 @@
         <v>54</v>
       </c>
       <c r="L636" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M636">
         <v>2300</v>
@@ -26481,7 +26481,7 @@
         <v>56</v>
       </c>
       <c r="L637" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M637">
         <v>70</v>
@@ -26521,7 +26521,7 @@
         <v>17</v>
       </c>
       <c r="L638" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M638">
         <v>1300</v>
@@ -26561,7 +26561,7 @@
         <v>59</v>
       </c>
       <c r="L639" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M639">
         <v>180</v>
@@ -26601,7 +26601,7 @@
         <v>17</v>
       </c>
       <c r="L640" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M640">
         <v>400</v>
@@ -26641,7 +26641,7 @@
         <v>56</v>
       </c>
       <c r="L641" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M641">
         <v>60</v>
@@ -26681,7 +26681,7 @@
         <v>17</v>
       </c>
       <c r="L642" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M642">
         <v>250</v>
@@ -26721,7 +26721,7 @@
         <v>17</v>
       </c>
       <c r="L643" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M643">
         <v>1000</v>
@@ -26761,7 +26761,7 @@
         <v>17</v>
       </c>
       <c r="L644" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M644">
         <v>700</v>
@@ -26801,7 +26801,7 @@
         <v>65</v>
       </c>
       <c r="L645" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M645">
         <v>1000</v>
@@ -26841,7 +26841,7 @@
         <v>65</v>
       </c>
       <c r="L646" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M646">
         <v>280</v>
@@ -26881,7 +26881,7 @@
         <v>68</v>
       </c>
       <c r="L647" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M647">
         <v>250</v>
@@ -26921,7 +26921,7 @@
         <v>17</v>
       </c>
       <c r="L648" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M648">
         <v>450</v>
@@ -26961,7 +26961,7 @@
         <v>68</v>
       </c>
       <c r="L649" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M649">
         <v>200</v>
@@ -27001,7 +27001,7 @@
         <v>31</v>
       </c>
       <c r="L650" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M650">
         <v>180</v>
@@ -27041,7 +27041,7 @@
         <v>31</v>
       </c>
       <c r="L651" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M651">
         <v>130</v>
@@ -27081,7 +27081,7 @@
         <v>31</v>
       </c>
       <c r="L652" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M652">
         <v>150</v>
@@ -27121,7 +27121,7 @@
         <v>31</v>
       </c>
       <c r="L653" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M653">
         <v>500</v>
@@ -27161,7 +27161,7 @@
         <v>31</v>
       </c>
       <c r="L654" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M654">
         <v>800</v>
@@ -27201,7 +27201,7 @@
         <v>17</v>
       </c>
       <c r="L655" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M655">
         <v>1600</v>
@@ -27241,7 +27241,7 @@
         <v>44</v>
       </c>
       <c r="L656" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M656">
         <v>350</v>
@@ -27281,7 +27281,7 @@
         <v>17</v>
       </c>
       <c r="L657" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M657">
         <v>130</v>
@@ -27321,7 +27321,7 @@
         <v>17</v>
       </c>
       <c r="L658" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M658">
         <v>450</v>
@@ -27361,7 +27361,7 @@
         <v>44</v>
       </c>
       <c r="L659" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M659">
         <v>1300</v>
@@ -27401,7 +27401,7 @@
         <v>80</v>
       </c>
       <c r="L660" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M660">
         <v>600</v>
@@ -27441,7 +27441,7 @@
         <v>17</v>
       </c>
       <c r="L661" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M661">
         <v>120</v>
@@ -27481,7 +27481,7 @@
         <v>17</v>
       </c>
       <c r="L662" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M662">
         <v>1000</v>
@@ -27521,7 +27521,7 @@
         <v>83</v>
       </c>
       <c r="L663" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M663">
         <v>250</v>
@@ -27561,7 +27561,7 @@
         <v>80</v>
       </c>
       <c r="L664" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M664">
         <v>750</v>
@@ -27601,7 +27601,7 @@
         <v>17</v>
       </c>
       <c r="L665" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M665">
         <v>150</v>
@@ -27641,7 +27641,7 @@
         <v>80</v>
       </c>
       <c r="L666" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M666">
         <v>500</v>
@@ -27681,7 +27681,7 @@
         <v>17</v>
       </c>
       <c r="L667" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M667">
         <v>120</v>
@@ -27721,7 +27721,7 @@
         <v>44</v>
       </c>
       <c r="L668" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M668">
         <v>380</v>
@@ -27761,7 +27761,7 @@
         <v>17</v>
       </c>
       <c r="L669" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M669">
         <v>120</v>
@@ -27801,7 +27801,7 @@
         <v>44</v>
       </c>
       <c r="L670" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M670">
         <v>500</v>
@@ -27841,7 +27841,7 @@
         <v>17</v>
       </c>
       <c r="L671" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M671">
         <v>150</v>
@@ -27881,7 +27881,7 @@
         <v>44</v>
       </c>
       <c r="L672" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M672">
         <v>800</v>
@@ -27921,7 +27921,7 @@
         <v>17</v>
       </c>
       <c r="L673" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M673">
         <v>250</v>
@@ -27961,7 +27961,7 @@
         <v>47</v>
       </c>
       <c r="L674" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M674">
         <v>550</v>
@@ -28001,7 +28001,7 @@
         <v>47</v>
       </c>
       <c r="L675" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M675">
         <v>680</v>
@@ -28041,7 +28041,7 @@
         <v>47</v>
       </c>
       <c r="L676" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M676">
         <v>550</v>
@@ -28081,7 +28081,7 @@
         <v>47</v>
       </c>
       <c r="L677" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M677">
         <v>550</v>
@@ -28121,7 +28121,7 @@
         <v>47</v>
       </c>
       <c r="L678" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M678">
         <v>550</v>
@@ -28161,7 +28161,7 @@
         <v>47</v>
       </c>
       <c r="L679" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M679">
         <v>450</v>
@@ -28201,7 +28201,7 @@
         <v>47</v>
       </c>
       <c r="L680" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M680">
         <v>350</v>
@@ -28241,7 +28241,7 @@
         <v>47</v>
       </c>
       <c r="L681" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M681">
         <v>470</v>
@@ -28281,7 +28281,7 @@
         <v>54</v>
       </c>
       <c r="L682" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M682">
         <v>2300</v>
@@ -28321,7 +28321,7 @@
         <v>56</v>
       </c>
       <c r="L683" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M683">
         <v>70</v>
@@ -28361,7 +28361,7 @@
         <v>17</v>
       </c>
       <c r="L684" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M684">
         <v>1300</v>
@@ -28401,7 +28401,7 @@
         <v>59</v>
       </c>
       <c r="L685" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M685">
         <v>180</v>
@@ -28441,7 +28441,7 @@
         <v>17</v>
       </c>
       <c r="L686" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M686">
         <v>400</v>
@@ -28481,7 +28481,7 @@
         <v>56</v>
       </c>
       <c r="L687" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M687">
         <v>60</v>
@@ -28521,7 +28521,7 @@
         <v>17</v>
       </c>
       <c r="L688" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M688">
         <v>250</v>
@@ -28561,7 +28561,7 @@
         <v>17</v>
       </c>
       <c r="L689" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M689">
         <v>1000</v>
@@ -28601,7 +28601,7 @@
         <v>17</v>
       </c>
       <c r="L690" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M690">
         <v>700</v>
@@ -28641,7 +28641,7 @@
         <v>65</v>
       </c>
       <c r="L691" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M691">
         <v>1000</v>
@@ -28681,7 +28681,7 @@
         <v>65</v>
       </c>
       <c r="L692" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M692">
         <v>280</v>
@@ -28721,7 +28721,7 @@
         <v>68</v>
       </c>
       <c r="L693" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M693">
         <v>250</v>
@@ -28761,7 +28761,7 @@
         <v>17</v>
       </c>
       <c r="L694" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M694">
         <v>450</v>
@@ -28801,7 +28801,7 @@
         <v>68</v>
       </c>
       <c r="L695" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M695">
         <v>200</v>
@@ -28841,7 +28841,7 @@
         <v>31</v>
       </c>
       <c r="L696" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M696">
         <v>180</v>
@@ -28881,7 +28881,7 @@
         <v>31</v>
       </c>
       <c r="L697" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M697">
         <v>130</v>
@@ -28921,7 +28921,7 @@
         <v>31</v>
       </c>
       <c r="L698" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M698">
         <v>150</v>
@@ -28961,7 +28961,7 @@
         <v>31</v>
       </c>
       <c r="L699" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M699">
         <v>500</v>
@@ -29001,7 +29001,7 @@
         <v>31</v>
       </c>
       <c r="L700" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M700">
         <v>800</v>
@@ -29041,7 +29041,7 @@
         <v>17</v>
       </c>
       <c r="L701" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M701">
         <v>1600</v>
@@ -29081,7 +29081,7 @@
         <v>44</v>
       </c>
       <c r="L702" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M702">
         <v>350</v>
@@ -29121,7 +29121,7 @@
         <v>17</v>
       </c>
       <c r="L703" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M703">
         <v>130</v>
@@ -29161,7 +29161,7 @@
         <v>17</v>
       </c>
       <c r="L704" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M704">
         <v>450</v>
@@ -29201,7 +29201,7 @@
         <v>44</v>
       </c>
       <c r="L705" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M705">
         <v>1300</v>
@@ -29241,7 +29241,7 @@
         <v>80</v>
       </c>
       <c r="L706" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M706">
         <v>600</v>
@@ -29281,7 +29281,7 @@
         <v>17</v>
       </c>
       <c r="L707" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M707">
         <v>120</v>
@@ -29321,7 +29321,7 @@
         <v>17</v>
       </c>
       <c r="L708" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M708">
         <v>1000</v>
@@ -29361,7 +29361,7 @@
         <v>83</v>
       </c>
       <c r="L709" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M709">
         <v>250</v>
@@ -29401,7 +29401,7 @@
         <v>80</v>
       </c>
       <c r="L710" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M710">
         <v>750</v>
@@ -29441,7 +29441,7 @@
         <v>17</v>
       </c>
       <c r="L711" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M711">
         <v>150</v>
@@ -29481,7 +29481,7 @@
         <v>80</v>
       </c>
       <c r="L712" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M712">
         <v>500</v>
@@ -29521,7 +29521,7 @@
         <v>17</v>
       </c>
       <c r="L713" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M713">
         <v>120</v>
@@ -29561,7 +29561,7 @@
         <v>44</v>
       </c>
       <c r="L714" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M714">
         <v>380</v>
@@ -29601,7 +29601,7 @@
         <v>17</v>
       </c>
       <c r="L715" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M715">
         <v>120</v>
@@ -29641,7 +29641,7 @@
         <v>44</v>
       </c>
       <c r="L716" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M716">
         <v>500</v>
@@ -29681,7 +29681,7 @@
         <v>17</v>
       </c>
       <c r="L717" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M717">
         <v>150</v>
@@ -29721,7 +29721,7 @@
         <v>44</v>
       </c>
       <c r="L718" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M718">
         <v>800</v>
@@ -29761,7 +29761,7 @@
         <v>17</v>
       </c>
       <c r="L719" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M719">
         <v>250</v>
@@ -29801,7 +29801,7 @@
         <v>47</v>
       </c>
       <c r="L720" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M720">
         <v>550</v>
@@ -29841,7 +29841,7 @@
         <v>47</v>
       </c>
       <c r="L721" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M721">
         <v>670</v>
@@ -29881,7 +29881,7 @@
         <v>47</v>
       </c>
       <c r="L722" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M722">
         <v>550</v>
@@ -29921,7 +29921,7 @@
         <v>47</v>
       </c>
       <c r="L723" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M723">
         <v>550</v>
@@ -29961,7 +29961,7 @@
         <v>47</v>
       </c>
       <c r="L724" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M724">
         <v>550</v>
@@ -30001,7 +30001,7 @@
         <v>47</v>
       </c>
       <c r="L725" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M725">
         <v>450</v>
@@ -30041,7 +30041,7 @@
         <v>47</v>
       </c>
       <c r="L726" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M726">
         <v>350</v>
@@ -30081,7 +30081,7 @@
         <v>47</v>
       </c>
       <c r="L727" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M727">
         <v>470</v>
@@ -30121,7 +30121,7 @@
         <v>54</v>
       </c>
       <c r="L728" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M728">
         <v>2300</v>
@@ -30161,7 +30161,7 @@
         <v>56</v>
       </c>
       <c r="L729" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M729">
         <v>70</v>
@@ -30201,7 +30201,7 @@
         <v>17</v>
       </c>
       <c r="L730" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M730">
         <v>1300</v>
@@ -30241,7 +30241,7 @@
         <v>59</v>
       </c>
       <c r="L731" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M731">
         <v>180</v>
@@ -30281,7 +30281,7 @@
         <v>17</v>
       </c>
       <c r="L732" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M732">
         <v>400</v>
@@ -30321,7 +30321,7 @@
         <v>56</v>
       </c>
       <c r="L733" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M733">
         <v>60</v>
@@ -30361,7 +30361,7 @@
         <v>17</v>
       </c>
       <c r="L734" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M734">
         <v>250</v>
@@ -30401,7 +30401,7 @@
         <v>17</v>
       </c>
       <c r="L735" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M735">
         <v>1000</v>
@@ -30441,7 +30441,7 @@
         <v>17</v>
       </c>
       <c r="L736" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M736">
         <v>800</v>
@@ -30481,7 +30481,7 @@
         <v>65</v>
       </c>
       <c r="L737" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M737">
         <v>900</v>
@@ -30521,7 +30521,7 @@
         <v>65</v>
       </c>
       <c r="L738" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M738">
         <v>280</v>
@@ -30561,7 +30561,7 @@
         <v>68</v>
       </c>
       <c r="L739" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M739">
         <v>250</v>
@@ -30601,7 +30601,7 @@
         <v>17</v>
       </c>
       <c r="L740" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M740">
         <v>450</v>
@@ -30641,7 +30641,7 @@
         <v>68</v>
       </c>
       <c r="L741" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M741">
         <v>200</v>
@@ -30681,7 +30681,7 @@
         <v>31</v>
       </c>
       <c r="L742" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M742">
         <v>180</v>
@@ -30721,7 +30721,7 @@
         <v>31</v>
       </c>
       <c r="L743" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M743">
         <v>130</v>
@@ -30761,7 +30761,7 @@
         <v>31</v>
       </c>
       <c r="L744" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M744">
         <v>150</v>
@@ -30801,7 +30801,7 @@
         <v>31</v>
       </c>
       <c r="L745" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M745">
         <v>450</v>
@@ -30841,7 +30841,7 @@
         <v>31</v>
       </c>
       <c r="L746" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M746">
         <v>800</v>
@@ -30881,7 +30881,7 @@
         <v>17</v>
       </c>
       <c r="L747" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M747">
         <v>1600</v>
@@ -30921,7 +30921,7 @@
         <v>44</v>
       </c>
       <c r="L748" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M748">
         <v>350</v>
@@ -30961,7 +30961,7 @@
         <v>17</v>
       </c>
       <c r="L749" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M749">
         <v>120</v>
@@ -31001,7 +31001,7 @@
         <v>17</v>
       </c>
       <c r="L750" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M750">
         <v>450</v>
@@ -31041,7 +31041,7 @@
         <v>44</v>
       </c>
       <c r="L751" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M751">
         <v>1300</v>
@@ -31081,7 +31081,7 @@
         <v>80</v>
       </c>
       <c r="L752" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M752">
         <v>500</v>
@@ -31121,7 +31121,7 @@
         <v>17</v>
       </c>
       <c r="L753" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M753">
         <v>120</v>
@@ -31161,7 +31161,7 @@
         <v>17</v>
       </c>
       <c r="L754" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M754">
         <v>900</v>
@@ -31201,7 +31201,7 @@
         <v>83</v>
       </c>
       <c r="L755" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M755">
         <v>250</v>
@@ -31241,7 +31241,7 @@
         <v>80</v>
       </c>
       <c r="L756" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M756">
         <v>750</v>
@@ -31281,7 +31281,7 @@
         <v>17</v>
       </c>
       <c r="L757" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M757">
         <v>130</v>
@@ -31321,7 +31321,7 @@
         <v>80</v>
       </c>
       <c r="L758" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M758">
         <v>500</v>
@@ -31361,7 +31361,7 @@
         <v>17</v>
       </c>
       <c r="L759" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M759">
         <v>120</v>
@@ -31401,7 +31401,7 @@
         <v>44</v>
       </c>
       <c r="L760" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M760">
         <v>380</v>
@@ -31441,7 +31441,7 @@
         <v>17</v>
       </c>
       <c r="L761" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M761">
         <v>120</v>
@@ -31481,7 +31481,7 @@
         <v>44</v>
       </c>
       <c r="L762" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M762">
         <v>500</v>
@@ -31521,7 +31521,7 @@
         <v>17</v>
       </c>
       <c r="L763" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M763">
         <v>140</v>
@@ -31561,7 +31561,7 @@
         <v>44</v>
       </c>
       <c r="L764" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M764">
         <v>800</v>
@@ -31601,7 +31601,7 @@
         <v>17</v>
       </c>
       <c r="L765" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M765">
         <v>250</v>
@@ -31641,7 +31641,7 @@
         <v>47</v>
       </c>
       <c r="L766" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M766">
         <v>550</v>
@@ -31681,7 +31681,7 @@
         <v>47</v>
       </c>
       <c r="L767" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M767">
         <v>670</v>
@@ -31721,7 +31721,7 @@
         <v>47</v>
       </c>
       <c r="L768" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M768">
         <v>550</v>
@@ -31761,7 +31761,7 @@
         <v>47</v>
       </c>
       <c r="L769" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M769">
         <v>550</v>
@@ -31801,7 +31801,7 @@
         <v>47</v>
       </c>
       <c r="L770" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M770">
         <v>550</v>
@@ -31841,7 +31841,7 @@
         <v>47</v>
       </c>
       <c r="L771" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M771">
         <v>450</v>
@@ -31881,7 +31881,7 @@
         <v>47</v>
       </c>
       <c r="L772" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M772">
         <v>350</v>
@@ -31921,7 +31921,7 @@
         <v>47</v>
       </c>
       <c r="L773" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M773">
         <v>470</v>
@@ -31961,7 +31961,7 @@
         <v>54</v>
       </c>
       <c r="L774" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M774">
         <v>2300</v>
@@ -32001,7 +32001,7 @@
         <v>56</v>
       </c>
       <c r="L775" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M775">
         <v>70</v>
@@ -32041,7 +32041,7 @@
         <v>17</v>
       </c>
       <c r="L776" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M776">
         <v>1300</v>
@@ -32081,7 +32081,7 @@
         <v>59</v>
       </c>
       <c r="L777" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M777">
         <v>180</v>
@@ -32121,7 +32121,7 @@
         <v>17</v>
       </c>
       <c r="L778" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M778">
         <v>400</v>
@@ -32161,7 +32161,7 @@
         <v>56</v>
       </c>
       <c r="L779" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M779">
         <v>60</v>
@@ -32201,7 +32201,7 @@
         <v>17</v>
       </c>
       <c r="L780" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M780">
         <v>250</v>
@@ -32241,7 +32241,7 @@
         <v>17</v>
       </c>
       <c r="L781" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M781">
         <v>1000</v>
@@ -32281,7 +32281,7 @@
         <v>17</v>
       </c>
       <c r="L782" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M782">
         <v>800</v>
@@ -32321,7 +32321,7 @@
         <v>65</v>
       </c>
       <c r="L783" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M783">
         <v>900</v>
@@ -32361,7 +32361,7 @@
         <v>65</v>
       </c>
       <c r="L784" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M784">
         <v>280</v>
@@ -32401,7 +32401,7 @@
         <v>68</v>
       </c>
       <c r="L785" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M785">
         <v>250</v>
@@ -32441,7 +32441,7 @@
         <v>17</v>
       </c>
       <c r="L786" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M786">
         <v>450</v>
@@ -32481,7 +32481,7 @@
         <v>68</v>
       </c>
       <c r="L787" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M787">
         <v>300</v>
@@ -32521,7 +32521,7 @@
         <v>31</v>
       </c>
       <c r="L788" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M788">
         <v>180</v>
@@ -32561,7 +32561,7 @@
         <v>31</v>
       </c>
       <c r="L789" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M789">
         <v>130</v>
@@ -32601,7 +32601,7 @@
         <v>31</v>
       </c>
       <c r="L790" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M790">
         <v>150</v>
@@ -32641,7 +32641,7 @@
         <v>31</v>
       </c>
       <c r="L791" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M791">
         <v>450</v>
@@ -32681,7 +32681,7 @@
         <v>31</v>
       </c>
       <c r="L792" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M792">
         <v>800</v>
@@ -32721,7 +32721,7 @@
         <v>17</v>
       </c>
       <c r="L793" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M793">
         <v>1600</v>
@@ -32761,7 +32761,7 @@
         <v>44</v>
       </c>
       <c r="L794" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M794">
         <v>350</v>
@@ -32801,7 +32801,7 @@
         <v>17</v>
       </c>
       <c r="L795" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M795">
         <v>120</v>
@@ -32841,7 +32841,7 @@
         <v>17</v>
       </c>
       <c r="L796" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M796">
         <v>450</v>
@@ -32881,7 +32881,7 @@
         <v>80</v>
       </c>
       <c r="L797" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M797">
         <v>550</v>
@@ -32921,7 +32921,7 @@
         <v>17</v>
       </c>
       <c r="L798" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M798">
         <v>120</v>
@@ -32961,7 +32961,7 @@
         <v>17</v>
       </c>
       <c r="L799" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M799">
         <v>1000</v>
@@ -33001,7 +33001,7 @@
         <v>83</v>
       </c>
       <c r="L800" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M800">
         <v>250</v>
@@ -33041,7 +33041,7 @@
         <v>80</v>
       </c>
       <c r="L801" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M801">
         <v>750</v>
@@ -33081,7 +33081,7 @@
         <v>17</v>
       </c>
       <c r="L802" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M802">
         <v>150</v>
@@ -33121,7 +33121,7 @@
         <v>80</v>
       </c>
       <c r="L803" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M803">
         <v>500</v>
@@ -33161,7 +33161,7 @@
         <v>17</v>
       </c>
       <c r="L804" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M804">
         <v>120</v>
@@ -33201,7 +33201,7 @@
         <v>44</v>
       </c>
       <c r="L805" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M805">
         <v>375</v>
@@ -33241,7 +33241,7 @@
         <v>17</v>
       </c>
       <c r="L806" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M806">
         <v>120</v>
@@ -33281,7 +33281,7 @@
         <v>44</v>
       </c>
       <c r="L807" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M807">
         <v>500</v>
@@ -33321,7 +33321,7 @@
         <v>17</v>
       </c>
       <c r="L808" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M808">
         <v>150</v>
@@ -33361,7 +33361,7 @@
         <v>44</v>
       </c>
       <c r="L809" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M809">
         <v>800</v>
@@ -33401,7 +33401,7 @@
         <v>17</v>
       </c>
       <c r="L810" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M810">
         <v>250</v>
@@ -33441,7 +33441,7 @@
         <v>47</v>
       </c>
       <c r="L811" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M811">
         <v>550</v>
@@ -33481,7 +33481,7 @@
         <v>47</v>
       </c>
       <c r="L812" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M812">
         <v>670</v>
@@ -33521,7 +33521,7 @@
         <v>47</v>
       </c>
       <c r="L813" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M813">
         <v>550</v>
@@ -33561,7 +33561,7 @@
         <v>47</v>
       </c>
       <c r="L814" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M814">
         <v>550</v>
@@ -33601,7 +33601,7 @@
         <v>47</v>
       </c>
       <c r="L815" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M815">
         <v>550</v>
@@ -33641,7 +33641,7 @@
         <v>47</v>
       </c>
       <c r="L816" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M816">
         <v>450</v>
@@ -33681,7 +33681,7 @@
         <v>47</v>
       </c>
       <c r="L817" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M817">
         <v>350</v>
@@ -33721,7 +33721,7 @@
         <v>47</v>
       </c>
       <c r="L818" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M818">
         <v>470</v>
@@ -33761,7 +33761,7 @@
         <v>54</v>
       </c>
       <c r="L819" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M819">
         <v>2300</v>
@@ -33801,7 +33801,7 @@
         <v>56</v>
       </c>
       <c r="L820" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M820">
         <v>70</v>
@@ -33841,7 +33841,7 @@
         <v>17</v>
       </c>
       <c r="L821" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M821">
         <v>1300</v>
@@ -33881,7 +33881,7 @@
         <v>59</v>
       </c>
       <c r="L822" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M822">
         <v>180</v>
@@ -33921,7 +33921,7 @@
         <v>17</v>
       </c>
       <c r="L823" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M823">
         <v>400</v>
@@ -33961,7 +33961,7 @@
         <v>56</v>
       </c>
       <c r="L824" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M824">
         <v>60</v>
@@ -34001,7 +34001,7 @@
         <v>17</v>
       </c>
       <c r="L825" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M825">
         <v>250</v>
@@ -34041,7 +34041,7 @@
         <v>17</v>
       </c>
       <c r="L826" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M826">
         <v>1000</v>
@@ -34081,7 +34081,7 @@
         <v>17</v>
       </c>
       <c r="L827" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M827">
         <v>800</v>
@@ -34121,7 +34121,7 @@
         <v>65</v>
       </c>
       <c r="L828" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M828">
         <v>900</v>
@@ -34161,7 +34161,7 @@
         <v>65</v>
       </c>
       <c r="L829" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M829">
         <v>280</v>
@@ -34201,7 +34201,7 @@
         <v>68</v>
       </c>
       <c r="L830" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M830">
         <v>250</v>
@@ -34241,7 +34241,7 @@
         <v>17</v>
       </c>
       <c r="L831" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M831">
         <v>450</v>
@@ -34281,7 +34281,7 @@
         <v>68</v>
       </c>
       <c r="L832" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M832">
         <v>300</v>
@@ -34321,7 +34321,7 @@
         <v>31</v>
       </c>
       <c r="L833" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M833">
         <v>180</v>
@@ -34361,7 +34361,7 @@
         <v>31</v>
       </c>
       <c r="L834" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M834">
         <v>130</v>
@@ -34401,7 +34401,7 @@
         <v>31</v>
       </c>
       <c r="L835" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M835">
         <v>150</v>
@@ -34441,7 +34441,7 @@
         <v>31</v>
       </c>
       <c r="L836" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M836">
         <v>450</v>
@@ -34481,7 +34481,7 @@
         <v>31</v>
       </c>
       <c r="L837" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M837">
         <v>800</v>
@@ -34521,7 +34521,7 @@
         <v>17</v>
       </c>
       <c r="L838" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M838">
         <v>1600</v>
@@ -34561,7 +34561,7 @@
         <v>44</v>
       </c>
       <c r="L839" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M839">
         <v>350</v>
@@ -34601,7 +34601,7 @@
         <v>17</v>
       </c>
       <c r="L840" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M840">
         <v>120</v>
@@ -34641,7 +34641,7 @@
         <v>17</v>
       </c>
       <c r="L841" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M841">
         <v>450</v>
@@ -34681,7 +34681,7 @@
         <v>80</v>
       </c>
       <c r="L842" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M842">
         <v>550</v>
@@ -34721,7 +34721,7 @@
         <v>17</v>
       </c>
       <c r="L843" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M843">
         <v>120</v>
@@ -34761,7 +34761,7 @@
         <v>17</v>
       </c>
       <c r="L844" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M844">
         <v>1000</v>
@@ -34801,7 +34801,7 @@
         <v>83</v>
       </c>
       <c r="L845" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M845">
         <v>250</v>
@@ -34841,7 +34841,7 @@
         <v>80</v>
       </c>
       <c r="L846" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M846">
         <v>750</v>
@@ -34881,7 +34881,7 @@
         <v>17</v>
       </c>
       <c r="L847" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M847">
         <v>150</v>
@@ -34921,7 +34921,7 @@
         <v>80</v>
       </c>
       <c r="L848" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M848">
         <v>500</v>
@@ -34961,7 +34961,7 @@
         <v>17</v>
       </c>
       <c r="L849" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M849">
         <v>120</v>
@@ -35001,7 +35001,7 @@
         <v>44</v>
       </c>
       <c r="L850" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M850">
         <v>375</v>
@@ -35041,7 +35041,7 @@
         <v>17</v>
       </c>
       <c r="L851" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M851">
         <v>120</v>
@@ -35081,7 +35081,7 @@
         <v>44</v>
       </c>
       <c r="L852" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M852">
         <v>500</v>
@@ -35121,7 +35121,7 @@
         <v>17</v>
       </c>
       <c r="L853" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M853">
         <v>150</v>
@@ -35161,7 +35161,7 @@
         <v>44</v>
       </c>
       <c r="L854" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M854">
         <v>800</v>
@@ -35201,7 +35201,7 @@
         <v>17</v>
       </c>
       <c r="L855" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M855">
         <v>250</v>
@@ -35241,7 +35241,7 @@
         <v>47</v>
       </c>
       <c r="L856" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M856">
         <v>550</v>
@@ -35281,7 +35281,7 @@
         <v>47</v>
       </c>
       <c r="L857" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M857">
         <v>680</v>
@@ -35321,7 +35321,7 @@
         <v>47</v>
       </c>
       <c r="L858" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M858">
         <v>550</v>
@@ -35361,7 +35361,7 @@
         <v>47</v>
       </c>
       <c r="L859" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M859">
         <v>550</v>
@@ -35401,7 +35401,7 @@
         <v>47</v>
       </c>
       <c r="L860" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M860">
         <v>550</v>
@@ -35441,7 +35441,7 @@
         <v>47</v>
       </c>
       <c r="L861" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M861">
         <v>450</v>
@@ -35481,7 +35481,7 @@
         <v>47</v>
       </c>
       <c r="L862" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M862">
         <v>350</v>
@@ -35521,7 +35521,7 @@
         <v>47</v>
       </c>
       <c r="L863" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M863">
         <v>470</v>
@@ -35561,7 +35561,7 @@
         <v>54</v>
       </c>
       <c r="L864" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M864">
         <v>2300</v>
@@ -35601,7 +35601,7 @@
         <v>56</v>
       </c>
       <c r="L865" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M865">
         <v>70</v>
@@ -35641,7 +35641,7 @@
         <v>17</v>
       </c>
       <c r="L866" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M866">
         <v>1300</v>
@@ -35681,7 +35681,7 @@
         <v>59</v>
       </c>
       <c r="L867" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M867">
         <v>180</v>
@@ -35721,7 +35721,7 @@
         <v>17</v>
       </c>
       <c r="L868" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M868">
         <v>400</v>
@@ -35761,7 +35761,7 @@
         <v>56</v>
       </c>
       <c r="L869" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M869">
         <v>60</v>
@@ -35801,7 +35801,7 @@
         <v>17</v>
       </c>
       <c r="L870" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M870">
         <v>250</v>
@@ -35841,7 +35841,7 @@
         <v>17</v>
       </c>
       <c r="L871" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M871">
         <v>1000</v>
@@ -35881,7 +35881,7 @@
         <v>17</v>
       </c>
       <c r="L872" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M872">
         <v>700</v>
@@ -35921,7 +35921,7 @@
         <v>65</v>
       </c>
       <c r="L873" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M873">
         <v>1000</v>
@@ -35961,7 +35961,7 @@
         <v>65</v>
       </c>
       <c r="L874" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M874">
         <v>280</v>
@@ -36001,7 +36001,7 @@
         <v>68</v>
       </c>
       <c r="L875" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M875">
         <v>250</v>
@@ -36041,7 +36041,7 @@
         <v>17</v>
       </c>
       <c r="L876" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M876">
         <v>450</v>
@@ -36081,7 +36081,7 @@
         <v>68</v>
       </c>
       <c r="L877" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M877">
         <v>200</v>
@@ -36121,7 +36121,7 @@
         <v>31</v>
       </c>
       <c r="L878" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M878">
         <v>180</v>
@@ -36161,7 +36161,7 @@
         <v>31</v>
       </c>
       <c r="L879" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M879">
         <v>130</v>
@@ -36201,7 +36201,7 @@
         <v>31</v>
       </c>
       <c r="L880" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M880">
         <v>150</v>
@@ -36241,7 +36241,7 @@
         <v>31</v>
       </c>
       <c r="L881" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M881">
         <v>500</v>
@@ -36281,7 +36281,7 @@
         <v>31</v>
       </c>
       <c r="L882" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M882">
         <v>800</v>
@@ -36321,7 +36321,7 @@
         <v>17</v>
       </c>
       <c r="L883" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M883">
         <v>1600</v>
@@ -36361,7 +36361,7 @@
         <v>44</v>
       </c>
       <c r="L884" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M884">
         <v>350</v>
@@ -36401,7 +36401,7 @@
         <v>17</v>
       </c>
       <c r="L885" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M885">
         <v>130</v>
@@ -36441,7 +36441,7 @@
         <v>17</v>
       </c>
       <c r="L886" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M886">
         <v>450</v>
@@ -36481,7 +36481,7 @@
         <v>44</v>
       </c>
       <c r="L887" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M887">
         <v>1300</v>
@@ -36521,7 +36521,7 @@
         <v>80</v>
       </c>
       <c r="L888" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M888">
         <v>600</v>
@@ -36561,7 +36561,7 @@
         <v>17</v>
       </c>
       <c r="L889" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M889">
         <v>120</v>
@@ -36601,7 +36601,7 @@
         <v>17</v>
       </c>
       <c r="L890" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M890">
         <v>1000</v>
@@ -36641,7 +36641,7 @@
         <v>83</v>
       </c>
       <c r="L891" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M891">
         <v>250</v>
@@ -36681,7 +36681,7 @@
         <v>80</v>
       </c>
       <c r="L892" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M892">
         <v>750</v>
@@ -36721,7 +36721,7 @@
         <v>17</v>
       </c>
       <c r="L893" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M893">
         <v>150</v>
@@ -36761,7 +36761,7 @@
         <v>80</v>
       </c>
       <c r="L894" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M894">
         <v>500</v>
@@ -36801,7 +36801,7 @@
         <v>17</v>
       </c>
       <c r="L895" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M895">
         <v>120</v>
@@ -36841,7 +36841,7 @@
         <v>44</v>
       </c>
       <c r="L896" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M896">
         <v>380</v>
@@ -36881,7 +36881,7 @@
         <v>17</v>
       </c>
       <c r="L897" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M897">
         <v>120</v>
@@ -36921,7 +36921,7 @@
         <v>44</v>
       </c>
       <c r="L898" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M898">
         <v>500</v>
@@ -36961,7 +36961,7 @@
         <v>17</v>
       </c>
       <c r="L899" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M899">
         <v>150</v>
@@ -37001,7 +37001,7 @@
         <v>44</v>
       </c>
       <c r="L900" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M900">
         <v>800</v>
@@ -37041,7 +37041,7 @@
         <v>17</v>
       </c>
       <c r="L901" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M901">
         <v>250</v>
